--- a/BackTest/2019-11-02 BackTest ITC.xlsx
+++ b/BackTest/2019-11-02 BackTest ITC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M118"/>
+  <dimension ref="A1:M119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C2" t="n">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D2" t="n">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E2" t="n">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F2" t="n">
-        <v>4776.0158</v>
+        <v>4040</v>
       </c>
       <c r="G2" t="n">
-        <v>160.1666666666667</v>
+        <v>160.1166666666667</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C3" t="n">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D3" t="n">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E3" t="n">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F3" t="n">
-        <v>1000</v>
+        <v>4776.0158</v>
       </c>
       <c r="G3" t="n">
-        <v>160.2333333333333</v>
+        <v>160.1666666666667</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,28 +503,28 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C4" t="n">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D4" t="n">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E4" t="n">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F4" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="G4" t="n">
-        <v>160.25</v>
+        <v>160.2333333333333</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C5" t="n">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D5" t="n">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E5" t="n">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F5" t="n">
-        <v>652.1177</v>
+        <v>2000</v>
       </c>
       <c r="G5" t="n">
-        <v>160.2333333333333</v>
+        <v>160.25</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C6" t="n">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D6" t="n">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E6" t="n">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F6" t="n">
-        <v>1.6371</v>
+        <v>652.1177</v>
       </c>
       <c r="G6" t="n">
-        <v>160.2666666666667</v>
+        <v>160.2333333333333</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,19 +608,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C7" t="n">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D7" t="n">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E7" t="n">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F7" t="n">
-        <v>295.615</v>
+        <v>1.6371</v>
       </c>
       <c r="G7" t="n">
         <v>160.2666666666667</v>
@@ -629,7 +629,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
@@ -655,7 +655,7 @@
         <v>162</v>
       </c>
       <c r="F8" t="n">
-        <v>1225.6269</v>
+        <v>295.615</v>
       </c>
       <c r="G8" t="n">
         <v>160.2666666666667</v>
@@ -690,7 +690,7 @@
         <v>162</v>
       </c>
       <c r="F9" t="n">
-        <v>4479.1325</v>
+        <v>1225.6269</v>
       </c>
       <c r="G9" t="n">
         <v>160.2666666666667</v>
@@ -725,7 +725,7 @@
         <v>162</v>
       </c>
       <c r="F10" t="n">
-        <v>1368.7348</v>
+        <v>4479.1325</v>
       </c>
       <c r="G10" t="n">
         <v>160.2666666666667</v>
@@ -760,10 +760,10 @@
         <v>162</v>
       </c>
       <c r="F11" t="n">
-        <v>183.7028</v>
+        <v>1368.7348</v>
       </c>
       <c r="G11" t="n">
-        <v>160.3166666666667</v>
+        <v>160.2666666666667</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C12" t="n">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D12" t="n">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E12" t="n">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F12" t="n">
-        <v>4753.2826</v>
+        <v>183.7028</v>
       </c>
       <c r="G12" t="n">
-        <v>160.3666666666667</v>
+        <v>160.3166666666667</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>163</v>
       </c>
       <c r="F13" t="n">
-        <v>1020.2332</v>
+        <v>4753.2826</v>
       </c>
       <c r="G13" t="n">
-        <v>160.4166666666667</v>
+        <v>160.3666666666667</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C14" t="n">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D14" t="n">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E14" t="n">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F14" t="n">
-        <v>3342.5789</v>
+        <v>1020.2332</v>
       </c>
       <c r="G14" t="n">
-        <v>160.4666666666667</v>
+        <v>160.4166666666667</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,7 +888,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C15" t="n">
         <v>164</v>
@@ -897,13 +897,13 @@
         <v>164</v>
       </c>
       <c r="E15" t="n">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F15" t="n">
-        <v>16459.1045</v>
+        <v>3342.5789</v>
       </c>
       <c r="G15" t="n">
-        <v>160.5333333333333</v>
+        <v>160.4666666666667</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -935,10 +935,10 @@
         <v>164</v>
       </c>
       <c r="F16" t="n">
-        <v>10667.9503</v>
+        <v>16459.1045</v>
       </c>
       <c r="G16" t="n">
-        <v>160.6166666666667</v>
+        <v>160.5333333333333</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C17" t="n">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D17" t="n">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E17" t="n">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F17" t="n">
-        <v>2173.4452</v>
+        <v>10667.9503</v>
       </c>
       <c r="G17" t="n">
-        <v>160.65</v>
+        <v>160.6166666666667</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1005,10 +1005,10 @@
         <v>163</v>
       </c>
       <c r="F18" t="n">
-        <v>6252.6382</v>
+        <v>2173.4452</v>
       </c>
       <c r="G18" t="n">
-        <v>160.6833333333333</v>
+        <v>160.65</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C19" t="n">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D19" t="n">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E19" t="n">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F19" t="n">
-        <v>2709.7823</v>
+        <v>6252.6382</v>
       </c>
       <c r="G19" t="n">
-        <v>160.7</v>
+        <v>160.6833333333333</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1066,19 +1066,19 @@
         <v>162</v>
       </c>
       <c r="C20" t="n">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D20" t="n">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E20" t="n">
         <v>162</v>
       </c>
       <c r="F20" t="n">
-        <v>14372.6274</v>
+        <v>2709.7823</v>
       </c>
       <c r="G20" t="n">
-        <v>160.75</v>
+        <v>160.7</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C21" t="n">
         <v>164</v>
@@ -1107,13 +1107,13 @@
         <v>164</v>
       </c>
       <c r="E21" t="n">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F21" t="n">
-        <v>247.6951</v>
+        <v>14372.6274</v>
       </c>
       <c r="G21" t="n">
-        <v>160.8</v>
+        <v>160.75</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,31 +1133,35 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C22" t="n">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="D22" t="n">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E22" t="n">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="F22" t="n">
-        <v>5200.0003</v>
+        <v>247.6951</v>
       </c>
       <c r="G22" t="n">
-        <v>160.7833333333333</v>
+        <v>160.8</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>164</v>
+      </c>
+      <c r="K22" t="n">
+        <v>164</v>
+      </c>
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
@@ -1168,22 +1172,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C23" t="n">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D23" t="n">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E23" t="n">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F23" t="n">
-        <v>1770.5912</v>
+        <v>5200.0003</v>
       </c>
       <c r="G23" t="n">
-        <v>160.8333333333333</v>
+        <v>160.7833333333333</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1192,8 +1196,14 @@
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>164</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1215,10 +1225,10 @@
         <v>163</v>
       </c>
       <c r="F24" t="n">
-        <v>2250</v>
+        <v>1770.5912</v>
       </c>
       <c r="G24" t="n">
-        <v>160.9166666666667</v>
+        <v>160.8333333333333</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1227,8 +1237,14 @@
         <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>164</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1250,20 +1266,28 @@
         <v>163</v>
       </c>
       <c r="F25" t="n">
-        <v>4771.3378</v>
+        <v>2250</v>
       </c>
       <c r="G25" t="n">
-        <v>161.0166666666667</v>
+        <v>160.9166666666667</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>163</v>
+      </c>
+      <c r="K25" t="n">
+        <v>164</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1285,20 +1309,28 @@
         <v>163</v>
       </c>
       <c r="F26" t="n">
-        <v>20.0723</v>
+        <v>4771.3378</v>
       </c>
       <c r="G26" t="n">
-        <v>161.1833333333333</v>
+        <v>161.0166666666667</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>163</v>
+      </c>
+      <c r="K26" t="n">
+        <v>164</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1320,20 +1352,28 @@
         <v>163</v>
       </c>
       <c r="F27" t="n">
-        <v>1733.3255</v>
+        <v>20.0723</v>
       </c>
       <c r="G27" t="n">
-        <v>161.2833333333333</v>
+        <v>161.1833333333333</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>163</v>
+      </c>
+      <c r="K27" t="n">
+        <v>164</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1355,10 +1395,10 @@
         <v>163</v>
       </c>
       <c r="F28" t="n">
-        <v>99.5924</v>
+        <v>1733.3255</v>
       </c>
       <c r="G28" t="n">
-        <v>161.3666666666667</v>
+        <v>161.2833333333333</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1367,8 +1407,14 @@
         <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>164</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1390,10 +1436,10 @@
         <v>163</v>
       </c>
       <c r="F29" t="n">
-        <v>2045.4022</v>
+        <v>99.5924</v>
       </c>
       <c r="G29" t="n">
-        <v>161.45</v>
+        <v>161.3666666666667</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1402,8 +1448,14 @@
         <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>164</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1425,10 +1477,10 @@
         <v>163</v>
       </c>
       <c r="F30" t="n">
-        <v>711.1214</v>
+        <v>2045.4022</v>
       </c>
       <c r="G30" t="n">
-        <v>161.5333333333333</v>
+        <v>161.45</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1437,8 +1489,14 @@
         <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>164</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1460,10 +1518,10 @@
         <v>163</v>
       </c>
       <c r="F31" t="n">
-        <v>924.4579</v>
+        <v>711.1214</v>
       </c>
       <c r="G31" t="n">
-        <v>161.6166666666667</v>
+        <v>161.5333333333333</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1472,8 +1530,14 @@
         <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>164</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1483,22 +1547,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C32" t="n">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D32" t="n">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E32" t="n">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F32" t="n">
-        <v>28116.585</v>
+        <v>924.4579</v>
       </c>
       <c r="G32" t="n">
-        <v>161.7333333333333</v>
+        <v>161.6166666666667</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1507,8 +1571,14 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>164</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1518,22 +1588,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C33" t="n">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D33" t="n">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E33" t="n">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F33" t="n">
-        <v>255.1469</v>
+        <v>28116.585</v>
       </c>
       <c r="G33" t="n">
-        <v>161.8333333333333</v>
+        <v>161.7333333333333</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1542,8 +1612,14 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>164</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1553,7 +1629,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C34" t="n">
         <v>164</v>
@@ -1562,13 +1638,13 @@
         <v>164</v>
       </c>
       <c r="E34" t="n">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F34" t="n">
-        <v>7560.3121</v>
+        <v>255.1469</v>
       </c>
       <c r="G34" t="n">
-        <v>161.9333333333333</v>
+        <v>161.8333333333333</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1577,8 +1653,14 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>164</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1591,19 +1673,19 @@
         <v>163</v>
       </c>
       <c r="C35" t="n">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D35" t="n">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E35" t="n">
         <v>163</v>
       </c>
       <c r="F35" t="n">
-        <v>255</v>
+        <v>7560.3121</v>
       </c>
       <c r="G35" t="n">
-        <v>162</v>
+        <v>161.9333333333333</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1612,8 +1694,14 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>164</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1623,22 +1711,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C36" t="n">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D36" t="n">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E36" t="n">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F36" t="n">
-        <v>119.7348</v>
+        <v>255</v>
       </c>
       <c r="G36" t="n">
-        <v>162.0833333333333</v>
+        <v>162</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1647,8 +1735,14 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>164</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1658,22 +1752,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C37" t="n">
         <v>164</v>
       </c>
       <c r="D37" t="n">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E37" t="n">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="F37" t="n">
-        <v>12759.1272</v>
+        <v>119.7348</v>
       </c>
       <c r="G37" t="n">
-        <v>162.1666666666667</v>
+        <v>162.0833333333333</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1682,8 +1776,14 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>164</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1693,22 +1793,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C38" t="n">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D38" t="n">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="E38" t="n">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F38" t="n">
-        <v>251.2436</v>
+        <v>12759.1272</v>
       </c>
       <c r="G38" t="n">
-        <v>162.2166666666667</v>
+        <v>162.1666666666667</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1717,8 +1817,14 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>164</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1728,19 +1834,19 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C39" t="n">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D39" t="n">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E39" t="n">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F39" t="n">
-        <v>8808.8068</v>
+        <v>251.2436</v>
       </c>
       <c r="G39" t="n">
         <v>162.2166666666667</v>
@@ -1752,8 +1858,14 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>164</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1763,22 +1875,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C40" t="n">
         <v>161</v>
       </c>
       <c r="D40" t="n">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E40" t="n">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F40" t="n">
-        <v>7123.1247</v>
+        <v>8808.8068</v>
       </c>
       <c r="G40" t="n">
-        <v>162.25</v>
+        <v>162.2166666666667</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1787,8 +1899,14 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>164</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1798,32 +1916,40 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C41" t="n">
         <v>161</v>
       </c>
       <c r="D41" t="n">
+        <v>162</v>
+      </c>
+      <c r="E41" t="n">
+        <v>160</v>
+      </c>
+      <c r="F41" t="n">
+        <v>7123.1247</v>
+      </c>
+      <c r="G41" t="n">
+        <v>162.25</v>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
         <v>161</v>
       </c>
-      <c r="E41" t="n">
-        <v>161</v>
-      </c>
-      <c r="F41" t="n">
-        <v>131.4609</v>
-      </c>
-      <c r="G41" t="n">
-        <v>162.2666666666667</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>164</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1833,32 +1959,40 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C42" t="n">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D42" t="n">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E42" t="n">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F42" t="n">
-        <v>314.8952</v>
+        <v>131.4609</v>
       </c>
       <c r="G42" t="n">
-        <v>162.35</v>
+        <v>162.2666666666667</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>161</v>
+      </c>
+      <c r="K42" t="n">
+        <v>164</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -1871,29 +2005,37 @@
         <v>163</v>
       </c>
       <c r="C43" t="n">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D43" t="n">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E43" t="n">
         <v>163</v>
       </c>
       <c r="F43" t="n">
-        <v>450</v>
+        <v>314.8952</v>
       </c>
       <c r="G43" t="n">
-        <v>162.3833333333333</v>
+        <v>162.35</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>161</v>
+      </c>
+      <c r="K43" t="n">
+        <v>164</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -1915,10 +2057,10 @@
         <v>163</v>
       </c>
       <c r="F44" t="n">
-        <v>2041.9974</v>
+        <v>450</v>
       </c>
       <c r="G44" t="n">
-        <v>162.45</v>
+        <v>162.3833333333333</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1927,8 +2069,14 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>164</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -1938,22 +2086,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C45" t="n">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D45" t="n">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E45" t="n">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F45" t="n">
-        <v>1</v>
+        <v>2041.9974</v>
       </c>
       <c r="G45" t="n">
-        <v>162.5</v>
+        <v>162.45</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1962,8 +2110,14 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>164</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -1973,22 +2127,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C46" t="n">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D46" t="n">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E46" t="n">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F46" t="n">
-        <v>1840.865</v>
+        <v>1</v>
       </c>
       <c r="G46" t="n">
-        <v>162.5666666666667</v>
+        <v>162.5</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -1997,8 +2151,14 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>164</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2020,10 +2180,10 @@
         <v>163</v>
       </c>
       <c r="F47" t="n">
-        <v>6754.3619</v>
+        <v>1840.865</v>
       </c>
       <c r="G47" t="n">
-        <v>162.65</v>
+        <v>162.5666666666667</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2032,8 +2192,14 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>164</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2043,22 +2209,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C48" t="n">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D48" t="n">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E48" t="n">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F48" t="n">
-        <v>480</v>
+        <v>6754.3619</v>
       </c>
       <c r="G48" t="n">
-        <v>162.75</v>
+        <v>162.65</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2067,8 +2233,14 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>164</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2081,19 +2253,19 @@
         <v>164</v>
       </c>
       <c r="C49" t="n">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D49" t="n">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E49" t="n">
         <v>164</v>
       </c>
       <c r="F49" t="n">
-        <v>234.8681</v>
+        <v>480</v>
       </c>
       <c r="G49" t="n">
-        <v>162.8333333333333</v>
+        <v>162.75</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2102,8 +2274,14 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>164</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2113,22 +2291,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C50" t="n">
         <v>164</v>
       </c>
       <c r="D50" t="n">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E50" t="n">
         <v>164</v>
       </c>
       <c r="F50" t="n">
-        <v>8326.9902</v>
+        <v>234.8681</v>
       </c>
       <c r="G50" t="n">
-        <v>162.9166666666667</v>
+        <v>162.8333333333333</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2137,8 +2315,14 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>164</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2151,19 +2335,19 @@
         <v>165</v>
       </c>
       <c r="C51" t="n">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D51" t="n">
         <v>165</v>
       </c>
       <c r="E51" t="n">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F51" t="n">
-        <v>1339605.5805</v>
+        <v>8326.9902</v>
       </c>
       <c r="G51" t="n">
-        <v>163</v>
+        <v>162.9166666666667</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2172,8 +2356,14 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>164</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2195,10 +2385,10 @@
         <v>165</v>
       </c>
       <c r="F52" t="n">
-        <v>619101.9840000001</v>
+        <v>1339605.5805</v>
       </c>
       <c r="G52" t="n">
-        <v>163.0666666666667</v>
+        <v>163</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2207,8 +2397,14 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>164</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2230,10 +2426,10 @@
         <v>165</v>
       </c>
       <c r="F53" t="n">
-        <v>21.3757</v>
+        <v>619101.9840000001</v>
       </c>
       <c r="G53" t="n">
-        <v>163.1333333333333</v>
+        <v>163.0666666666667</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2242,8 +2438,14 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>164</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2253,22 +2455,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C54" t="n">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D54" t="n">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E54" t="n">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F54" t="n">
-        <v>7452.3191</v>
+        <v>21.3757</v>
       </c>
       <c r="G54" t="n">
-        <v>163.1666666666667</v>
+        <v>163.1333333333333</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2277,8 +2479,14 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>164</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2300,10 +2508,10 @@
         <v>163</v>
       </c>
       <c r="F55" t="n">
-        <v>3192.6001</v>
+        <v>7452.3191</v>
       </c>
       <c r="G55" t="n">
-        <v>163.15</v>
+        <v>163.1666666666667</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2312,8 +2520,14 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>164</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2323,22 +2537,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C56" t="n">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D56" t="n">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E56" t="n">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F56" t="n">
-        <v>1213.6242</v>
+        <v>3192.6001</v>
       </c>
       <c r="G56" t="n">
-        <v>163.1666666666667</v>
+        <v>163.15</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2347,8 +2561,14 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>164</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2370,10 +2590,10 @@
         <v>165</v>
       </c>
       <c r="F57" t="n">
-        <v>10</v>
+        <v>1213.6242</v>
       </c>
       <c r="G57" t="n">
-        <v>163.2</v>
+        <v>163.1666666666667</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2382,8 +2602,14 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>164</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2396,19 +2622,19 @@
         <v>165</v>
       </c>
       <c r="C58" t="n">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D58" t="n">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E58" t="n">
         <v>165</v>
       </c>
       <c r="F58" t="n">
-        <v>31178.4337</v>
+        <v>10</v>
       </c>
       <c r="G58" t="n">
-        <v>163.2666666666667</v>
+        <v>163.2</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2417,8 +2643,14 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>164</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2428,22 +2660,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C59" t="n">
         <v>166</v>
       </c>
       <c r="D59" t="n">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E59" t="n">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F59" t="n">
-        <v>16305.9988</v>
+        <v>31178.4337</v>
       </c>
       <c r="G59" t="n">
-        <v>163.3</v>
+        <v>163.2666666666667</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2452,8 +2684,14 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>164</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2469,16 +2707,16 @@
         <v>166</v>
       </c>
       <c r="D60" t="n">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E60" t="n">
         <v>166</v>
       </c>
       <c r="F60" t="n">
-        <v>1125.0166</v>
+        <v>16305.9988</v>
       </c>
       <c r="G60" t="n">
-        <v>163.3333333333333</v>
+        <v>163.3</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2487,8 +2725,14 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>164</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2510,10 +2754,10 @@
         <v>166</v>
       </c>
       <c r="F61" t="n">
-        <v>1324.8518</v>
+        <v>1125.0166</v>
       </c>
       <c r="G61" t="n">
-        <v>163.3666666666667</v>
+        <v>163.3333333333333</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2522,8 +2766,14 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>164</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2545,10 +2795,10 @@
         <v>166</v>
       </c>
       <c r="F62" t="n">
-        <v>704.731</v>
+        <v>1324.8518</v>
       </c>
       <c r="G62" t="n">
-        <v>163.4166666666667</v>
+        <v>163.3666666666667</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2557,8 +2807,14 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>164</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2580,10 +2836,10 @@
         <v>166</v>
       </c>
       <c r="F63" t="n">
-        <v>9636.054400000001</v>
+        <v>704.731</v>
       </c>
       <c r="G63" t="n">
-        <v>163.45</v>
+        <v>163.4166666666667</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2592,8 +2848,14 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>164</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2615,10 +2877,10 @@
         <v>166</v>
       </c>
       <c r="F64" t="n">
-        <v>4663.5098</v>
+        <v>9636.054400000001</v>
       </c>
       <c r="G64" t="n">
-        <v>163.5</v>
+        <v>163.45</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2627,8 +2889,14 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>164</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2650,10 +2918,10 @@
         <v>166</v>
       </c>
       <c r="F65" t="n">
-        <v>6480.0936</v>
+        <v>4663.5098</v>
       </c>
       <c r="G65" t="n">
-        <v>163.5666666666667</v>
+        <v>163.5</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2662,8 +2930,14 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>164</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2685,10 +2959,10 @@
         <v>166</v>
       </c>
       <c r="F66" t="n">
-        <v>693.4496</v>
+        <v>6480.0936</v>
       </c>
       <c r="G66" t="n">
-        <v>163.6</v>
+        <v>163.5666666666667</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2697,8 +2971,14 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>164</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2720,10 +3000,10 @@
         <v>166</v>
       </c>
       <c r="F67" t="n">
-        <v>826.9985</v>
+        <v>693.4496</v>
       </c>
       <c r="G67" t="n">
-        <v>163.6666666666667</v>
+        <v>163.6</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2732,8 +3012,14 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>164</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2755,10 +3041,10 @@
         <v>166</v>
       </c>
       <c r="F68" t="n">
-        <v>1570.2579</v>
+        <v>826.9985</v>
       </c>
       <c r="G68" t="n">
-        <v>163.7333333333333</v>
+        <v>163.6666666666667</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2767,8 +3053,14 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>164</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2778,22 +3070,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C69" t="n">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D69" t="n">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E69" t="n">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F69" t="n">
-        <v>254.1084</v>
+        <v>1570.2579</v>
       </c>
       <c r="G69" t="n">
-        <v>163.7666666666667</v>
+        <v>163.7333333333333</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2802,8 +3094,14 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>164</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2813,7 +3111,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C70" t="n">
         <v>164</v>
@@ -2822,13 +3120,13 @@
         <v>164</v>
       </c>
       <c r="E70" t="n">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F70" t="n">
-        <v>2030.8773</v>
+        <v>254.1084</v>
       </c>
       <c r="G70" t="n">
-        <v>163.8</v>
+        <v>163.7666666666667</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2837,8 +3135,14 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>164</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -2848,22 +3152,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C71" t="n">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D71" t="n">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E71" t="n">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F71" t="n">
-        <v>465.1165</v>
+        <v>2030.8773</v>
       </c>
       <c r="G71" t="n">
-        <v>163.85</v>
+        <v>163.8</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2872,8 +3176,14 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>164</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -2895,10 +3205,10 @@
         <v>165</v>
       </c>
       <c r="F72" t="n">
-        <v>16019.8749</v>
+        <v>465.1165</v>
       </c>
       <c r="G72" t="n">
-        <v>163.8833333333333</v>
+        <v>163.85</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2907,8 +3217,14 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>164</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -2918,22 +3234,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C73" t="n">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D73" t="n">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E73" t="n">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F73" t="n">
-        <v>2820</v>
+        <v>16019.8749</v>
       </c>
       <c r="G73" t="n">
-        <v>163.95</v>
+        <v>163.8833333333333</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2942,8 +3258,14 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>164</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -2965,10 +3287,10 @@
         <v>167</v>
       </c>
       <c r="F74" t="n">
-        <v>1700</v>
+        <v>2820</v>
       </c>
       <c r="G74" t="n">
-        <v>164</v>
+        <v>163.95</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2977,8 +3299,14 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>164</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3000,10 +3328,10 @@
         <v>167</v>
       </c>
       <c r="F75" t="n">
-        <v>7928.1262</v>
+        <v>1700</v>
       </c>
       <c r="G75" t="n">
-        <v>164.05</v>
+        <v>164</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3012,8 +3340,14 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>164</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3023,22 +3357,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C76" t="n">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D76" t="n">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E76" t="n">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F76" t="n">
-        <v>583.0492</v>
+        <v>7928.1262</v>
       </c>
       <c r="G76" t="n">
-        <v>164.0833333333333</v>
+        <v>164.05</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3047,8 +3381,14 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>164</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3061,19 +3401,19 @@
         <v>166</v>
       </c>
       <c r="C77" t="n">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D77" t="n">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E77" t="n">
         <v>166</v>
       </c>
       <c r="F77" t="n">
-        <v>27484.0525</v>
+        <v>583.0492</v>
       </c>
       <c r="G77" t="n">
-        <v>164.1666666666667</v>
+        <v>164.0833333333333</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3082,8 +3422,14 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>164</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3096,19 +3442,19 @@
         <v>166</v>
       </c>
       <c r="C78" t="n">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D78" t="n">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E78" t="n">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F78" t="n">
-        <v>14888.8858</v>
+        <v>27484.0525</v>
       </c>
       <c r="G78" t="n">
-        <v>164.2</v>
+        <v>164.1666666666667</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3117,8 +3463,14 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>164</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3128,22 +3480,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C79" t="n">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D79" t="n">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E79" t="n">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F79" t="n">
-        <v>873.1695999999999</v>
+        <v>14888.8858</v>
       </c>
       <c r="G79" t="n">
-        <v>164.2333333333333</v>
+        <v>164.2</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3152,8 +3504,14 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>164</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3166,19 +3524,19 @@
         <v>165</v>
       </c>
       <c r="C80" t="n">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D80" t="n">
         <v>165</v>
       </c>
       <c r="E80" t="n">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F80" t="n">
-        <v>420.2315</v>
+        <v>873.1695999999999</v>
       </c>
       <c r="G80" t="n">
-        <v>164.25</v>
+        <v>164.2333333333333</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3187,8 +3545,14 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>164</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3198,22 +3562,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C81" t="n">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D81" t="n">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E81" t="n">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F81" t="n">
-        <v>1129.8511</v>
+        <v>420.2315</v>
       </c>
       <c r="G81" t="n">
-        <v>164.2333333333333</v>
+        <v>164.25</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3222,8 +3586,14 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>164</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3236,19 +3606,19 @@
         <v>163</v>
       </c>
       <c r="C82" t="n">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D82" t="n">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E82" t="n">
         <v>163</v>
       </c>
       <c r="F82" t="n">
-        <v>2678.5163</v>
+        <v>1129.8511</v>
       </c>
       <c r="G82" t="n">
-        <v>164.3166666666667</v>
+        <v>164.2333333333333</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3257,8 +3627,14 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>164</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3268,22 +3644,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C83" t="n">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D83" t="n">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E83" t="n">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F83" t="n">
-        <v>660.2408</v>
+        <v>2678.5163</v>
       </c>
       <c r="G83" t="n">
-        <v>164.3333333333333</v>
+        <v>164.3166666666667</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3292,8 +3668,14 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>164</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3303,22 +3685,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C84" t="n">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D84" t="n">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E84" t="n">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F84" t="n">
-        <v>287.8525</v>
+        <v>660.2408</v>
       </c>
       <c r="G84" t="n">
-        <v>164.3666666666667</v>
+        <v>164.3333333333333</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3327,8 +3709,14 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>164</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3338,22 +3726,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C85" t="n">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D85" t="n">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E85" t="n">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F85" t="n">
-        <v>291.9879</v>
+        <v>287.8525</v>
       </c>
       <c r="G85" t="n">
-        <v>164.4166666666667</v>
+        <v>164.3666666666667</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3362,8 +3750,14 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>164</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3373,22 +3767,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C86" t="n">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D86" t="n">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E86" t="n">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F86" t="n">
-        <v>583.0493</v>
+        <v>291.9879</v>
       </c>
       <c r="G86" t="n">
-        <v>164.4333333333333</v>
+        <v>164.4166666666667</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3397,8 +3791,14 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>164</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3420,10 +3820,10 @@
         <v>164</v>
       </c>
       <c r="F87" t="n">
-        <v>432.9491</v>
+        <v>583.0493</v>
       </c>
       <c r="G87" t="n">
-        <v>164.45</v>
+        <v>164.4333333333333</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3432,8 +3832,14 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>164</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3446,19 +3852,19 @@
         <v>164</v>
       </c>
       <c r="C88" t="n">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D88" t="n">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E88" t="n">
         <v>164</v>
       </c>
       <c r="F88" t="n">
-        <v>250</v>
+        <v>432.9491</v>
       </c>
       <c r="G88" t="n">
-        <v>164.4833333333333</v>
+        <v>164.45</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3467,8 +3873,14 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>164</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3478,7 +3890,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C89" t="n">
         <v>165</v>
@@ -3487,13 +3899,13 @@
         <v>165</v>
       </c>
       <c r="E89" t="n">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="F89" t="n">
-        <v>32199.5362</v>
+        <v>250</v>
       </c>
       <c r="G89" t="n">
-        <v>164.5166666666667</v>
+        <v>164.4833333333333</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3502,8 +3914,14 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>164</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3513,22 +3931,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C90" t="n">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D90" t="n">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E90" t="n">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="F90" t="n">
-        <v>1761.1186</v>
+        <v>32199.5362</v>
       </c>
       <c r="G90" t="n">
-        <v>164.5333333333333</v>
+        <v>164.5166666666667</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3537,8 +3955,14 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>164</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3548,22 +3972,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C91" t="n">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D91" t="n">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E91" t="n">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F91" t="n">
-        <v>920</v>
+        <v>1761.1186</v>
       </c>
       <c r="G91" t="n">
-        <v>164.5166666666667</v>
+        <v>164.5333333333333</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3572,8 +3996,14 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>164</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3583,22 +4013,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C92" t="n">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D92" t="n">
         <v>163</v>
       </c>
       <c r="E92" t="n">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F92" t="n">
-        <v>698.8684</v>
+        <v>920</v>
       </c>
       <c r="G92" t="n">
-        <v>164.4833333333333</v>
+        <v>164.5166666666667</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3607,8 +4037,14 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>164</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3630,10 +4066,10 @@
         <v>163</v>
       </c>
       <c r="F93" t="n">
-        <v>305.8261</v>
+        <v>698.8684</v>
       </c>
       <c r="G93" t="n">
-        <v>164.4666666666667</v>
+        <v>164.4833333333333</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3642,8 +4078,14 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>164</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3656,19 +4098,19 @@
         <v>163</v>
       </c>
       <c r="C94" t="n">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D94" t="n">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E94" t="n">
         <v>163</v>
       </c>
       <c r="F94" t="n">
-        <v>4610.6334</v>
+        <v>305.8261</v>
       </c>
       <c r="G94" t="n">
-        <v>164.4833333333333</v>
+        <v>164.4666666666667</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3677,8 +4119,14 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>164</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3691,16 +4139,16 @@
         <v>163</v>
       </c>
       <c r="C95" t="n">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D95" t="n">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E95" t="n">
         <v>163</v>
       </c>
       <c r="F95" t="n">
-        <v>5.9554</v>
+        <v>4610.6334</v>
       </c>
       <c r="G95" t="n">
         <v>164.4833333333333</v>
@@ -3712,8 +4160,14 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>164</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3723,22 +4177,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C96" t="n">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D96" t="n">
         <v>163</v>
       </c>
       <c r="E96" t="n">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="F96" t="n">
-        <v>14776.27</v>
+        <v>5.9554</v>
       </c>
       <c r="G96" t="n">
-        <v>164.45</v>
+        <v>164.4833333333333</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3747,8 +4201,14 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>164</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -3764,16 +4224,16 @@
         <v>162</v>
       </c>
       <c r="D97" t="n">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E97" t="n">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F97" t="n">
-        <v>180.0013</v>
+        <v>14776.27</v>
       </c>
       <c r="G97" t="n">
-        <v>164.4166666666667</v>
+        <v>164.45</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3782,8 +4242,14 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>164</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -3805,7 +4271,7 @@
         <v>162</v>
       </c>
       <c r="F98" t="n">
-        <v>5954.9679</v>
+        <v>180.0013</v>
       </c>
       <c r="G98" t="n">
         <v>164.4166666666667</v>
@@ -3817,8 +4283,14 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>164</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -3840,10 +4312,10 @@
         <v>162</v>
       </c>
       <c r="F99" t="n">
-        <v>1528585.2982</v>
+        <v>5954.9679</v>
       </c>
       <c r="G99" t="n">
-        <v>164.4333333333333</v>
+        <v>164.4166666666667</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3852,8 +4324,14 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>164</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -3875,10 +4353,10 @@
         <v>162</v>
       </c>
       <c r="F100" t="n">
-        <v>1546113.1473</v>
+        <v>1528585.2982</v>
       </c>
       <c r="G100" t="n">
-        <v>164.45</v>
+        <v>164.4333333333333</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3887,8 +4365,14 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>164</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -3910,10 +4394,10 @@
         <v>162</v>
       </c>
       <c r="F101" t="n">
-        <v>1551742.2289</v>
+        <v>1546113.1473</v>
       </c>
       <c r="G101" t="n">
-        <v>164.4666666666667</v>
+        <v>164.45</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3922,8 +4406,14 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>164</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -3945,10 +4435,10 @@
         <v>162</v>
       </c>
       <c r="F102" t="n">
-        <v>292709.5201</v>
+        <v>1551742.2289</v>
       </c>
       <c r="G102" t="n">
-        <v>164.4333333333333</v>
+        <v>164.4666666666667</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3957,8 +4447,14 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>164</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -3980,10 +4476,10 @@
         <v>162</v>
       </c>
       <c r="F103" t="n">
-        <v>524000</v>
+        <v>292709.5201</v>
       </c>
       <c r="G103" t="n">
-        <v>164.4166666666667</v>
+        <v>164.4333333333333</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -3992,8 +4488,14 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>164</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4006,16 +4508,16 @@
         <v>162</v>
       </c>
       <c r="C104" t="n">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D104" t="n">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E104" t="n">
         <v>162</v>
       </c>
       <c r="F104" t="n">
-        <v>128391.7288</v>
+        <v>524000</v>
       </c>
       <c r="G104" t="n">
         <v>164.4166666666667</v>
@@ -4027,8 +4529,14 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>164</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4041,16 +4549,16 @@
         <v>162</v>
       </c>
       <c r="C105" t="n">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D105" t="n">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E105" t="n">
         <v>162</v>
       </c>
       <c r="F105" t="n">
-        <v>1248.4456</v>
+        <v>128391.7288</v>
       </c>
       <c r="G105" t="n">
         <v>164.4166666666667</v>
@@ -4062,8 +4570,14 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>164</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4085,10 +4599,10 @@
         <v>162</v>
       </c>
       <c r="F106" t="n">
-        <v>29747.0827</v>
+        <v>1248.4456</v>
       </c>
       <c r="G106" t="n">
-        <v>164.4</v>
+        <v>164.4166666666667</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4097,8 +4611,14 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>164</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4120,10 +4640,10 @@
         <v>162</v>
       </c>
       <c r="F107" t="n">
-        <v>20882.9186</v>
+        <v>29747.0827</v>
       </c>
       <c r="G107" t="n">
-        <v>164.3833333333333</v>
+        <v>164.4</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4132,8 +4652,14 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>164</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4143,22 +4669,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C108" t="n">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D108" t="n">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E108" t="n">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F108" t="n">
-        <v>229.0987</v>
+        <v>20882.9186</v>
       </c>
       <c r="G108" t="n">
-        <v>164.35</v>
+        <v>164.3833333333333</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4167,8 +4693,14 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>164</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4190,24 +4722,26 @@
         <v>163</v>
       </c>
       <c r="F109" t="n">
-        <v>223.9913</v>
+        <v>229.0987</v>
       </c>
       <c r="G109" t="n">
-        <v>164.3333333333333</v>
+        <v>164.35</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="n">
-        <v>163</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="n">
-        <v>163</v>
-      </c>
-      <c r="L109" t="inlineStr"/>
+        <v>164</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4229,10 +4763,10 @@
         <v>163</v>
       </c>
       <c r="F110" t="n">
-        <v>165.6652</v>
+        <v>223.9913</v>
       </c>
       <c r="G110" t="n">
-        <v>164.3166666666667</v>
+        <v>164.3333333333333</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4242,11 +4776,11 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="n">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M110" t="n">
@@ -4270,26 +4804,24 @@
         <v>163</v>
       </c>
       <c r="F111" t="n">
-        <v>194.2857</v>
+        <v>165.6652</v>
       </c>
       <c r="G111" t="n">
-        <v>164.2833333333333</v>
+        <v>164.3166666666667</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
-        <v>163</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="n">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M111" t="n">
@@ -4301,22 +4833,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C112" t="n">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D112" t="n">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E112" t="n">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F112" t="n">
-        <v>607.0853</v>
+        <v>194.2857</v>
       </c>
       <c r="G112" t="n">
-        <v>164.2333333333333</v>
+        <v>164.2833333333333</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4325,8 +4857,14 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>164</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4336,36 +4874,38 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C113" t="n">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D113" t="n">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E113" t="n">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F113" t="n">
-        <v>1000</v>
+        <v>607.0853</v>
       </c>
       <c r="G113" t="n">
-        <v>164.2</v>
+        <v>164.2333333333333</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="n">
-        <v>162</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="n">
-        <v>162</v>
-      </c>
-      <c r="L113" t="inlineStr"/>
+        <v>164</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4387,26 +4927,24 @@
         <v>163</v>
       </c>
       <c r="F114" t="n">
-        <v>1132.5696</v>
+        <v>1000</v>
       </c>
       <c r="G114" t="n">
         <v>164.2</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="n">
-        <v>163</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="n">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M114" t="n">
@@ -4430,7 +4968,7 @@
         <v>163</v>
       </c>
       <c r="F115" t="n">
-        <v>500</v>
+        <v>1132.5696</v>
       </c>
       <c r="G115" t="n">
         <v>164.2</v>
@@ -4443,11 +4981,11 @@
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="n">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M115" t="n">
@@ -4471,24 +5009,26 @@
         <v>163</v>
       </c>
       <c r="F116" t="n">
-        <v>156.8184</v>
+        <v>500</v>
       </c>
       <c r="G116" t="n">
-        <v>164.1666666666667</v>
+        <v>164.2</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="n">
-        <v>163</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="n">
-        <v>163</v>
-      </c>
-      <c r="L116" t="inlineStr"/>
+        <v>164</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4510,26 +5050,24 @@
         <v>163</v>
       </c>
       <c r="F117" t="n">
-        <v>2250</v>
+        <v>156.8184</v>
       </c>
       <c r="G117" t="n">
-        <v>164.1333333333333</v>
+        <v>164.1666666666667</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="n">
-        <v>163</v>
-      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="n">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M117" t="n">
@@ -4544,38 +5082,77 @@
         <v>163</v>
       </c>
       <c r="C118" t="n">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D118" t="n">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E118" t="n">
         <v>163</v>
       </c>
       <c r="F118" t="n">
-        <v>6213.5246</v>
+        <v>2250</v>
       </c>
       <c r="G118" t="n">
         <v>164.1333333333333</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="n">
-        <v>163</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="n">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>163</v>
+      </c>
+      <c r="C119" t="n">
+        <v>166</v>
+      </c>
+      <c r="D119" t="n">
+        <v>166</v>
+      </c>
+      <c r="E119" t="n">
+        <v>163</v>
+      </c>
+      <c r="F119" t="n">
+        <v>6213.5246</v>
+      </c>
+      <c r="G119" t="n">
+        <v>164.1333333333333</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>164</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M119" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-11-02 BackTest ITC.xlsx
+++ b/BackTest/2019-11-02 BackTest ITC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M119"/>
+  <dimension ref="A1:N129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>4040</v>
       </c>
       <c r="G2" t="n">
+        <v>161.5333333333333</v>
+      </c>
+      <c r="H2" t="n">
         <v>160.1166666666667</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>1</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,25 @@
         <v>4776.0158</v>
       </c>
       <c r="G3" t="n">
+        <v>161.8666666666667</v>
+      </c>
+      <c r="H3" t="n">
         <v>160.1666666666667</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>1</v>
       </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>164</v>
+      </c>
+      <c r="L3" t="n">
+        <v>164</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +533,29 @@
         <v>1000</v>
       </c>
       <c r="G4" t="n">
+        <v>162.2</v>
+      </c>
+      <c r="H4" t="n">
         <v>160.2333333333333</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>163</v>
+      </c>
+      <c r="L4" t="n">
+        <v>164</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +579,29 @@
         <v>2000</v>
       </c>
       <c r="G5" t="n">
+        <v>162.4666666666667</v>
+      </c>
+      <c r="H5" t="n">
         <v>160.25</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>1</v>
       </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>164</v>
+      </c>
+      <c r="L5" t="n">
+        <v>164</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +625,25 @@
         <v>652.1177</v>
       </c>
       <c r="G6" t="n">
+        <v>162.6666666666667</v>
+      </c>
+      <c r="H6" t="n">
         <v>160.2333333333333</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>163</v>
+      </c>
+      <c r="L6" t="n">
+        <v>163</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +667,29 @@
         <v>1.6371</v>
       </c>
       <c r="G7" t="n">
+        <v>162.9333333333333</v>
+      </c>
+      <c r="H7" t="n">
         <v>160.2666666666667</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>1</v>
       </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>162</v>
+      </c>
+      <c r="L7" t="n">
+        <v>163</v>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +713,27 @@
         <v>295.615</v>
       </c>
       <c r="G8" t="n">
+        <v>163</v>
+      </c>
+      <c r="H8" t="n">
         <v>160.2666666666667</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="L8" t="n">
+        <v>163</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +757,21 @@
         <v>1225.6269</v>
       </c>
       <c r="G9" t="n">
+        <v>163.0666666666667</v>
+      </c>
+      <c r="H9" t="n">
         <v>160.2666666666667</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +795,25 @@
         <v>4479.1325</v>
       </c>
       <c r="G10" t="n">
+        <v>163.1333333333333</v>
+      </c>
+      <c r="H10" t="n">
         <v>160.2666666666667</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>162</v>
+      </c>
+      <c r="L10" t="n">
+        <v>162</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +837,27 @@
         <v>1368.7348</v>
       </c>
       <c r="G11" t="n">
+        <v>163</v>
+      </c>
+      <c r="H11" t="n">
         <v>160.2666666666667</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="L11" t="n">
+        <v>162</v>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +881,29 @@
         <v>183.7028</v>
       </c>
       <c r="G12" t="n">
+        <v>162.8666666666667</v>
+      </c>
+      <c r="H12" t="n">
         <v>160.3166666666667</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>162</v>
+      </c>
+      <c r="L12" t="n">
+        <v>162</v>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +927,25 @@
         <v>4753.2826</v>
       </c>
       <c r="G13" t="n">
+        <v>162.8666666666667</v>
+      </c>
+      <c r="H13" t="n">
         <v>160.3666666666667</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>162</v>
+      </c>
+      <c r="L13" t="n">
+        <v>162</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +969,29 @@
         <v>1020.2332</v>
       </c>
       <c r="G14" t="n">
+        <v>162.9333333333333</v>
+      </c>
+      <c r="H14" t="n">
         <v>160.4166666666667</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>163</v>
+      </c>
+      <c r="L14" t="n">
+        <v>162</v>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +1015,27 @@
         <v>3342.5789</v>
       </c>
       <c r="G15" t="n">
+        <v>162.9333333333333</v>
+      </c>
+      <c r="H15" t="n">
         <v>160.4666666666667</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="L15" t="n">
+        <v>162</v>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +1059,27 @@
         <v>16459.1045</v>
       </c>
       <c r="G16" t="n">
+        <v>162.9333333333333</v>
+      </c>
+      <c r="H16" t="n">
         <v>160.5333333333333</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="L16" t="n">
+        <v>162</v>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1103,27 @@
         <v>10667.9503</v>
       </c>
       <c r="G17" t="n">
+        <v>162.9333333333333</v>
+      </c>
+      <c r="H17" t="n">
         <v>160.6166666666667</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="L17" t="n">
+        <v>162</v>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1147,27 @@
         <v>2173.4452</v>
       </c>
       <c r="G18" t="n">
+        <v>162.9333333333333</v>
+      </c>
+      <c r="H18" t="n">
         <v>160.65</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="L18" t="n">
+        <v>162</v>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1191,27 @@
         <v>6252.6382</v>
       </c>
       <c r="G19" t="n">
+        <v>162.8666666666667</v>
+      </c>
+      <c r="H19" t="n">
         <v>160.6833333333333</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="L19" t="n">
+        <v>162</v>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1235,27 @@
         <v>2709.7823</v>
       </c>
       <c r="G20" t="n">
+        <v>162.8</v>
+      </c>
+      <c r="H20" t="n">
         <v>160.7</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="L20" t="n">
+        <v>162</v>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1279,27 @@
         <v>14372.6274</v>
       </c>
       <c r="G21" t="n">
+        <v>162.9333333333333</v>
+      </c>
+      <c r="H21" t="n">
         <v>160.75</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="L21" t="n">
+        <v>162</v>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,22 +1323,27 @@
         <v>247.6951</v>
       </c>
       <c r="G22" t="n">
+        <v>162.9333333333333</v>
+      </c>
+      <c r="H22" t="n">
         <v>160.8</v>
       </c>
-      <c r="H22" t="n">
-        <v>1</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>164</v>
-      </c>
-      <c r="K22" t="n">
-        <v>164</v>
-      </c>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>162</v>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1187,24 +1367,27 @@
         <v>5200.0003</v>
       </c>
       <c r="G23" t="n">
+        <v>162.8</v>
+      </c>
+      <c r="H23" t="n">
         <v>160.7833333333333</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>164</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>162</v>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1228,24 +1411,27 @@
         <v>1770.5912</v>
       </c>
       <c r="G24" t="n">
+        <v>162.8666666666667</v>
+      </c>
+      <c r="H24" t="n">
         <v>160.8333333333333</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>164</v>
-      </c>
-      <c r="L24" t="inlineStr">
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>162</v>
+      </c>
+      <c r="M24" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M24" t="n">
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1269,26 +1455,27 @@
         <v>2250</v>
       </c>
       <c r="G25" t="n">
+        <v>162.9333333333333</v>
+      </c>
+      <c r="H25" t="n">
         <v>160.9166666666667</v>
       </c>
-      <c r="H25" t="n">
-        <v>1</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>163</v>
-      </c>
-      <c r="K25" t="n">
-        <v>164</v>
-      </c>
-      <c r="L25" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>162</v>
+      </c>
+      <c r="M25" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M25" t="n">
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1312,26 +1499,27 @@
         <v>4771.3378</v>
       </c>
       <c r="G26" t="n">
+        <v>163</v>
+      </c>
+      <c r="H26" t="n">
         <v>161.0166666666667</v>
       </c>
-      <c r="H26" t="n">
-        <v>1</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>163</v>
-      </c>
-      <c r="K26" t="n">
-        <v>164</v>
-      </c>
-      <c r="L26" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>162</v>
+      </c>
+      <c r="M26" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M26" t="n">
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1355,26 +1543,27 @@
         <v>20.0723</v>
       </c>
       <c r="G27" t="n">
+        <v>163.0666666666667</v>
+      </c>
+      <c r="H27" t="n">
         <v>161.1833333333333</v>
       </c>
-      <c r="H27" t="n">
-        <v>1</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>163</v>
-      </c>
-      <c r="K27" t="n">
-        <v>164</v>
-      </c>
-      <c r="L27" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>162</v>
+      </c>
+      <c r="M27" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M27" t="n">
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1398,24 +1587,27 @@
         <v>1733.3255</v>
       </c>
       <c r="G28" t="n">
+        <v>163.0666666666667</v>
+      </c>
+      <c r="H28" t="n">
         <v>161.2833333333333</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>164</v>
-      </c>
-      <c r="L28" t="inlineStr">
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>162</v>
+      </c>
+      <c r="M28" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M28" t="n">
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1439,24 +1631,27 @@
         <v>99.5924</v>
       </c>
       <c r="G29" t="n">
+        <v>163.0666666666667</v>
+      </c>
+      <c r="H29" t="n">
         <v>161.3666666666667</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>164</v>
-      </c>
-      <c r="L29" t="inlineStr">
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>162</v>
+      </c>
+      <c r="M29" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M29" t="n">
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1480,24 +1675,27 @@
         <v>2045.4022</v>
       </c>
       <c r="G30" t="n">
+        <v>163</v>
+      </c>
+      <c r="H30" t="n">
         <v>161.45</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>164</v>
-      </c>
-      <c r="L30" t="inlineStr">
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>162</v>
+      </c>
+      <c r="M30" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M30" t="n">
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1521,24 +1719,27 @@
         <v>711.1214</v>
       </c>
       <c r="G31" t="n">
+        <v>162.9333333333333</v>
+      </c>
+      <c r="H31" t="n">
         <v>161.5333333333333</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>164</v>
-      </c>
-      <c r="L31" t="inlineStr">
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>162</v>
+      </c>
+      <c r="M31" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M31" t="n">
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1562,24 +1763,27 @@
         <v>924.4579</v>
       </c>
       <c r="G32" t="n">
+        <v>162.8666666666667</v>
+      </c>
+      <c r="H32" t="n">
         <v>161.6166666666667</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>164</v>
-      </c>
-      <c r="L32" t="inlineStr">
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>162</v>
+      </c>
+      <c r="M32" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M32" t="n">
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,24 +1807,27 @@
         <v>28116.585</v>
       </c>
       <c r="G33" t="n">
+        <v>163</v>
+      </c>
+      <c r="H33" t="n">
         <v>161.7333333333333</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>164</v>
-      </c>
-      <c r="L33" t="inlineStr">
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>162</v>
+      </c>
+      <c r="M33" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M33" t="n">
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1644,24 +1851,27 @@
         <v>255.1469</v>
       </c>
       <c r="G34" t="n">
+        <v>163.0666666666667</v>
+      </c>
+      <c r="H34" t="n">
         <v>161.8333333333333</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>164</v>
-      </c>
-      <c r="L34" t="inlineStr">
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>162</v>
+      </c>
+      <c r="M34" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M34" t="n">
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1685,24 +1895,27 @@
         <v>7560.3121</v>
       </c>
       <c r="G35" t="n">
+        <v>163.2</v>
+      </c>
+      <c r="H35" t="n">
         <v>161.9333333333333</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>164</v>
-      </c>
-      <c r="L35" t="inlineStr">
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>162</v>
+      </c>
+      <c r="M35" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M35" t="n">
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1726,24 +1939,27 @@
         <v>255</v>
       </c>
       <c r="G36" t="n">
-        <v>162</v>
+        <v>163.1333333333333</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>164</v>
-      </c>
-      <c r="L36" t="inlineStr">
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>162</v>
+      </c>
+      <c r="M36" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M36" t="n">
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1767,24 +1983,27 @@
         <v>119.7348</v>
       </c>
       <c r="G37" t="n">
+        <v>163.1333333333333</v>
+      </c>
+      <c r="H37" t="n">
         <v>162.0833333333333</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>164</v>
-      </c>
-      <c r="L37" t="inlineStr">
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>162</v>
+      </c>
+      <c r="M37" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M37" t="n">
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1808,24 +2027,27 @@
         <v>12759.1272</v>
       </c>
       <c r="G38" t="n">
+        <v>163.4</v>
+      </c>
+      <c r="H38" t="n">
         <v>162.1666666666667</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>164</v>
-      </c>
-      <c r="L38" t="inlineStr">
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>162</v>
+      </c>
+      <c r="M38" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M38" t="n">
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1849,24 +2071,27 @@
         <v>251.2436</v>
       </c>
       <c r="G39" t="n">
+        <v>163.3333333333333</v>
+      </c>
+      <c r="H39" t="n">
         <v>162.2166666666667</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>164</v>
-      </c>
-      <c r="L39" t="inlineStr">
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>162</v>
+      </c>
+      <c r="M39" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M39" t="n">
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1890,24 +2115,27 @@
         <v>8808.8068</v>
       </c>
       <c r="G40" t="n">
+        <v>163.2</v>
+      </c>
+      <c r="H40" t="n">
         <v>162.2166666666667</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>164</v>
-      </c>
-      <c r="L40" t="inlineStr">
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>162</v>
+      </c>
+      <c r="M40" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M40" t="n">
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1931,26 +2159,27 @@
         <v>7123.1247</v>
       </c>
       <c r="G41" t="n">
+        <v>163.0666666666667</v>
+      </c>
+      <c r="H41" t="n">
         <v>162.25</v>
       </c>
-      <c r="H41" t="n">
-        <v>1</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>161</v>
-      </c>
-      <c r="K41" t="n">
-        <v>164</v>
-      </c>
-      <c r="L41" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>162</v>
+      </c>
+      <c r="M41" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M41" t="n">
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1974,26 +2203,27 @@
         <v>131.4609</v>
       </c>
       <c r="G42" t="n">
+        <v>162.9333333333333</v>
+      </c>
+      <c r="H42" t="n">
         <v>162.2666666666667</v>
       </c>
-      <c r="H42" t="n">
-        <v>1</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>161</v>
-      </c>
-      <c r="K42" t="n">
-        <v>164</v>
-      </c>
-      <c r="L42" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>162</v>
+      </c>
+      <c r="M42" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M42" t="n">
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2017,26 +2247,27 @@
         <v>314.8952</v>
       </c>
       <c r="G43" t="n">
+        <v>163</v>
+      </c>
+      <c r="H43" t="n">
         <v>162.35</v>
       </c>
-      <c r="H43" t="n">
-        <v>1</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>161</v>
-      </c>
-      <c r="K43" t="n">
-        <v>164</v>
-      </c>
-      <c r="L43" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>162</v>
+      </c>
+      <c r="M43" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M43" t="n">
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2060,24 +2291,27 @@
         <v>450</v>
       </c>
       <c r="G44" t="n">
+        <v>163</v>
+      </c>
+      <c r="H44" t="n">
         <v>162.3833333333333</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>164</v>
-      </c>
-      <c r="L44" t="inlineStr">
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>162</v>
+      </c>
+      <c r="M44" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M44" t="n">
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2101,24 +2335,27 @@
         <v>2041.9974</v>
       </c>
       <c r="G45" t="n">
+        <v>163</v>
+      </c>
+      <c r="H45" t="n">
         <v>162.45</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>164</v>
-      </c>
-      <c r="L45" t="inlineStr">
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>162</v>
+      </c>
+      <c r="M45" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M45" t="n">
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2142,24 +2379,27 @@
         <v>1</v>
       </c>
       <c r="G46" t="n">
+        <v>162.9333333333333</v>
+      </c>
+      <c r="H46" t="n">
         <v>162.5</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>164</v>
-      </c>
-      <c r="L46" t="inlineStr">
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>162</v>
+      </c>
+      <c r="M46" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M46" t="n">
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2183,24 +2423,27 @@
         <v>1840.865</v>
       </c>
       <c r="G47" t="n">
+        <v>162.9333333333333</v>
+      </c>
+      <c r="H47" t="n">
         <v>162.5666666666667</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>164</v>
-      </c>
-      <c r="L47" t="inlineStr">
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>162</v>
+      </c>
+      <c r="M47" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M47" t="n">
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2224,24 +2467,27 @@
         <v>6754.3619</v>
       </c>
       <c r="G48" t="n">
+        <v>162.8</v>
+      </c>
+      <c r="H48" t="n">
         <v>162.65</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>164</v>
-      </c>
-      <c r="L48" t="inlineStr">
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>162</v>
+      </c>
+      <c r="M48" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M48" t="n">
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2265,24 +2511,27 @@
         <v>480</v>
       </c>
       <c r="G49" t="n">
+        <v>162.8666666666667</v>
+      </c>
+      <c r="H49" t="n">
         <v>162.75</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>164</v>
-      </c>
-      <c r="L49" t="inlineStr">
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>162</v>
+      </c>
+      <c r="M49" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M49" t="n">
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2306,24 +2555,27 @@
         <v>234.8681</v>
       </c>
       <c r="G50" t="n">
+        <v>162.8666666666667</v>
+      </c>
+      <c r="H50" t="n">
         <v>162.8333333333333</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>164</v>
-      </c>
-      <c r="L50" t="inlineStr">
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>162</v>
+      </c>
+      <c r="M50" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M50" t="n">
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2347,24 +2599,27 @@
         <v>8326.9902</v>
       </c>
       <c r="G51" t="n">
+        <v>162.9333333333333</v>
+      </c>
+      <c r="H51" t="n">
         <v>162.9166666666667</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>164</v>
-      </c>
-      <c r="L51" t="inlineStr">
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>162</v>
+      </c>
+      <c r="M51" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M51" t="n">
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2391,21 +2646,24 @@
         <v>163</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>163</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>164</v>
-      </c>
-      <c r="L52" t="inlineStr">
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>162</v>
+      </c>
+      <c r="M52" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M52" t="n">
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2432,21 +2690,24 @@
         <v>163.0666666666667</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>163.0666666666667</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>164</v>
-      </c>
-      <c r="L53" t="inlineStr">
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>162</v>
+      </c>
+      <c r="M53" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M53" t="n">
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2470,24 +2731,27 @@
         <v>21.3757</v>
       </c>
       <c r="G54" t="n">
+        <v>163.2666666666667</v>
+      </c>
+      <c r="H54" t="n">
         <v>163.1333333333333</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>164</v>
-      </c>
-      <c r="L54" t="inlineStr">
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>162</v>
+      </c>
+      <c r="M54" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M54" t="n">
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2511,24 +2775,27 @@
         <v>7452.3191</v>
       </c>
       <c r="G55" t="n">
+        <v>163.4</v>
+      </c>
+      <c r="H55" t="n">
         <v>163.1666666666667</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>164</v>
-      </c>
-      <c r="L55" t="inlineStr">
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>162</v>
+      </c>
+      <c r="M55" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M55" t="n">
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2552,24 +2819,27 @@
         <v>3192.6001</v>
       </c>
       <c r="G56" t="n">
+        <v>163.5333333333333</v>
+      </c>
+      <c r="H56" t="n">
         <v>163.15</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>164</v>
-      </c>
-      <c r="L56" t="inlineStr">
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>162</v>
+      </c>
+      <c r="M56" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M56" t="n">
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2593,24 +2863,27 @@
         <v>1213.6242</v>
       </c>
       <c r="G57" t="n">
+        <v>163.8</v>
+      </c>
+      <c r="H57" t="n">
         <v>163.1666666666667</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>164</v>
-      </c>
-      <c r="L57" t="inlineStr">
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>162</v>
+      </c>
+      <c r="M57" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M57" t="n">
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2634,24 +2907,27 @@
         <v>10</v>
       </c>
       <c r="G58" t="n">
+        <v>163.8666666666667</v>
+      </c>
+      <c r="H58" t="n">
         <v>163.2</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>164</v>
-      </c>
-      <c r="L58" t="inlineStr">
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>162</v>
+      </c>
+      <c r="M58" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M58" t="n">
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2675,24 +2951,27 @@
         <v>31178.4337</v>
       </c>
       <c r="G59" t="n">
+        <v>164.0666666666667</v>
+      </c>
+      <c r="H59" t="n">
         <v>163.2666666666667</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>164</v>
-      </c>
-      <c r="L59" t="inlineStr">
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>162</v>
+      </c>
+      <c r="M59" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M59" t="n">
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2716,24 +2995,27 @@
         <v>16305.9988</v>
       </c>
       <c r="G60" t="n">
+        <v>164.2666666666667</v>
+      </c>
+      <c r="H60" t="n">
         <v>163.3</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>164</v>
-      </c>
-      <c r="L60" t="inlineStr">
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>162</v>
+      </c>
+      <c r="M60" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M60" t="n">
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2757,24 +3039,27 @@
         <v>1125.0166</v>
       </c>
       <c r="G61" t="n">
+        <v>164.5333333333333</v>
+      </c>
+      <c r="H61" t="n">
         <v>163.3333333333333</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>164</v>
-      </c>
-      <c r="L61" t="inlineStr">
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>162</v>
+      </c>
+      <c r="M61" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M61" t="n">
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2798,24 +3083,27 @@
         <v>1324.8518</v>
       </c>
       <c r="G62" t="n">
+        <v>164.7333333333333</v>
+      </c>
+      <c r="H62" t="n">
         <v>163.3666666666667</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>164</v>
-      </c>
-      <c r="L62" t="inlineStr">
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>162</v>
+      </c>
+      <c r="M62" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M62" t="n">
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2839,24 +3127,27 @@
         <v>704.731</v>
       </c>
       <c r="G63" t="n">
+        <v>164.9333333333333</v>
+      </c>
+      <c r="H63" t="n">
         <v>163.4166666666667</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>164</v>
-      </c>
-      <c r="L63" t="inlineStr">
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>162</v>
+      </c>
+      <c r="M63" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M63" t="n">
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2880,24 +3171,27 @@
         <v>9636.054400000001</v>
       </c>
       <c r="G64" t="n">
+        <v>165</v>
+      </c>
+      <c r="H64" t="n">
         <v>163.45</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>164</v>
-      </c>
-      <c r="L64" t="inlineStr">
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>162</v>
+      </c>
+      <c r="M64" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M64" t="n">
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2921,24 +3215,27 @@
         <v>4663.5098</v>
       </c>
       <c r="G65" t="n">
+        <v>165.1333333333333</v>
+      </c>
+      <c r="H65" t="n">
         <v>163.5</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>164</v>
-      </c>
-      <c r="L65" t="inlineStr">
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>162</v>
+      </c>
+      <c r="M65" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M65" t="n">
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2962,25 +3259,28 @@
         <v>6480.0936</v>
       </c>
       <c r="G66" t="n">
+        <v>165.2666666666667</v>
+      </c>
+      <c r="H66" t="n">
         <v>163.5666666666667</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>164</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
+      <c r="J66" t="n">
+        <v>1</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>162</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
+        <v>1.019691358024692</v>
       </c>
     </row>
     <row r="67">
@@ -3003,24 +3303,21 @@
         <v>693.4496</v>
       </c>
       <c r="G67" t="n">
+        <v>165.3333333333333</v>
+      </c>
+      <c r="H67" t="n">
         <v>163.6</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>164</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3044,24 +3341,21 @@
         <v>826.9985</v>
       </c>
       <c r="G68" t="n">
+        <v>165.4</v>
+      </c>
+      <c r="H68" t="n">
         <v>163.6666666666667</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>164</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
+      <c r="J68" t="n">
+        <v>1</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3085,24 +3379,21 @@
         <v>1570.2579</v>
       </c>
       <c r="G69" t="n">
+        <v>165.4666666666667</v>
+      </c>
+      <c r="H69" t="n">
         <v>163.7333333333333</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>164</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
+      <c r="J69" t="n">
+        <v>1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3126,24 +3417,21 @@
         <v>254.1084</v>
       </c>
       <c r="G70" t="n">
+        <v>165.5333333333333</v>
+      </c>
+      <c r="H70" t="n">
         <v>163.7666666666667</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>164</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
+      <c r="J70" t="n">
+        <v>1</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3167,24 +3455,21 @@
         <v>2030.8773</v>
       </c>
       <c r="G71" t="n">
+        <v>165.6</v>
+      </c>
+      <c r="H71" t="n">
         <v>163.8</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>164</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
+      <c r="J71" t="n">
+        <v>1</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3208,24 +3493,21 @@
         <v>465.1165</v>
       </c>
       <c r="G72" t="n">
+        <v>165.6</v>
+      </c>
+      <c r="H72" t="n">
         <v>163.85</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>164</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3249,24 +3531,21 @@
         <v>16019.8749</v>
       </c>
       <c r="G73" t="n">
+        <v>165.6</v>
+      </c>
+      <c r="H73" t="n">
         <v>163.8833333333333</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>164</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3290,24 +3569,21 @@
         <v>2820</v>
       </c>
       <c r="G74" t="n">
+        <v>165.6666666666667</v>
+      </c>
+      <c r="H74" t="n">
         <v>163.95</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>164</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3331,24 +3607,21 @@
         <v>1700</v>
       </c>
       <c r="G75" t="n">
-        <v>164</v>
+        <v>165.7333333333333</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>164</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>164</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
+      <c r="J75" t="n">
+        <v>1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3372,24 +3645,21 @@
         <v>7928.1262</v>
       </c>
       <c r="G76" t="n">
+        <v>165.8</v>
+      </c>
+      <c r="H76" t="n">
         <v>164.05</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>164</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
+      <c r="J76" t="n">
+        <v>1</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3413,24 +3683,21 @@
         <v>583.0492</v>
       </c>
       <c r="G77" t="n">
+        <v>165.8</v>
+      </c>
+      <c r="H77" t="n">
         <v>164.0833333333333</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>164</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
+      <c r="J77" t="n">
+        <v>1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3454,24 +3721,21 @@
         <v>27484.0525</v>
       </c>
       <c r="G78" t="n">
+        <v>165.9333333333333</v>
+      </c>
+      <c r="H78" t="n">
         <v>164.1666666666667</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>164</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
+      <c r="J78" t="n">
+        <v>1</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3495,24 +3759,21 @@
         <v>14888.8858</v>
       </c>
       <c r="G79" t="n">
+        <v>165.8666666666667</v>
+      </c>
+      <c r="H79" t="n">
         <v>164.2</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>164</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
+      <c r="J79" t="n">
+        <v>1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3536,24 +3797,21 @@
         <v>873.1695999999999</v>
       </c>
       <c r="G80" t="n">
+        <v>165.7333333333333</v>
+      </c>
+      <c r="H80" t="n">
         <v>164.2333333333333</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>164</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
+      <c r="J80" t="n">
+        <v>1</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3577,24 +3835,21 @@
         <v>420.2315</v>
       </c>
       <c r="G81" t="n">
+        <v>165.6666666666667</v>
+      </c>
+      <c r="H81" t="n">
         <v>164.25</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>164</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
+      <c r="J81" t="n">
+        <v>1</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3618,24 +3873,21 @@
         <v>1129.8511</v>
       </c>
       <c r="G82" t="n">
+        <v>165.4666666666667</v>
+      </c>
+      <c r="H82" t="n">
         <v>164.2333333333333</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>164</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
+      <c r="J82" t="n">
+        <v>1</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3659,24 +3911,21 @@
         <v>2678.5163</v>
       </c>
       <c r="G83" t="n">
+        <v>165.4</v>
+      </c>
+      <c r="H83" t="n">
         <v>164.3166666666667</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>164</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
+      <c r="J83" t="n">
+        <v>1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3700,24 +3949,21 @@
         <v>660.2408</v>
       </c>
       <c r="G84" t="n">
+        <v>165.2666666666667</v>
+      </c>
+      <c r="H84" t="n">
         <v>164.3333333333333</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>164</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
+      <c r="J84" t="n">
+        <v>1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3741,24 +3987,21 @@
         <v>287.8525</v>
       </c>
       <c r="G85" t="n">
+        <v>165.3333333333333</v>
+      </c>
+      <c r="H85" t="n">
         <v>164.3666666666667</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>164</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3782,24 +4025,21 @@
         <v>291.9879</v>
       </c>
       <c r="G86" t="n">
+        <v>165.4666666666667</v>
+      </c>
+      <c r="H86" t="n">
         <v>164.4166666666667</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>164</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
+      <c r="J86" t="n">
+        <v>1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3823,24 +4063,21 @@
         <v>583.0493</v>
       </c>
       <c r="G87" t="n">
+        <v>165.4</v>
+      </c>
+      <c r="H87" t="n">
         <v>164.4333333333333</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>164</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3864,24 +4101,21 @@
         <v>432.9491</v>
       </c>
       <c r="G88" t="n">
+        <v>165.3333333333333</v>
+      </c>
+      <c r="H88" t="n">
         <v>164.45</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>164</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
+      <c r="J88" t="n">
+        <v>1</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3905,24 +4139,21 @@
         <v>250</v>
       </c>
       <c r="G89" t="n">
+        <v>165.2</v>
+      </c>
+      <c r="H89" t="n">
         <v>164.4833333333333</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>164</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
+      <c r="J89" t="n">
+        <v>1</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3946,24 +4177,21 @@
         <v>32199.5362</v>
       </c>
       <c r="G90" t="n">
+        <v>165.0666666666667</v>
+      </c>
+      <c r="H90" t="n">
         <v>164.5166666666667</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>164</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
+      <c r="J90" t="n">
+        <v>1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3987,24 +4215,21 @@
         <v>1761.1186</v>
       </c>
       <c r="G91" t="n">
+        <v>164.8666666666667</v>
+      </c>
+      <c r="H91" t="n">
         <v>164.5333333333333</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>164</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4028,24 +4253,21 @@
         <v>920</v>
       </c>
       <c r="G92" t="n">
+        <v>164.6</v>
+      </c>
+      <c r="H92" t="n">
         <v>164.5166666666667</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>164</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4069,24 +4291,21 @@
         <v>698.8684</v>
       </c>
       <c r="G93" t="n">
+        <v>164.2666666666667</v>
+      </c>
+      <c r="H93" t="n">
         <v>164.4833333333333</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>164</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4110,24 +4329,21 @@
         <v>305.8261</v>
       </c>
       <c r="G94" t="n">
+        <v>164.1333333333333</v>
+      </c>
+      <c r="H94" t="n">
         <v>164.4666666666667</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>164</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4151,24 +4367,21 @@
         <v>4610.6334</v>
       </c>
       <c r="G95" t="n">
+        <v>164.2</v>
+      </c>
+      <c r="H95" t="n">
         <v>164.4833333333333</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>164</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4192,24 +4405,21 @@
         <v>5.9554</v>
       </c>
       <c r="G96" t="n">
+        <v>164.0666666666667</v>
+      </c>
+      <c r="H96" t="n">
         <v>164.4833333333333</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>164</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4233,24 +4443,21 @@
         <v>14776.27</v>
       </c>
       <c r="G97" t="n">
+        <v>164</v>
+      </c>
+      <c r="H97" t="n">
         <v>164.45</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>164</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4274,24 +4481,21 @@
         <v>180.0013</v>
       </c>
       <c r="G98" t="n">
+        <v>163.8</v>
+      </c>
+      <c r="H98" t="n">
         <v>164.4166666666667</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>164</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4315,24 +4519,21 @@
         <v>5954.9679</v>
       </c>
       <c r="G99" t="n">
+        <v>163.6666666666667</v>
+      </c>
+      <c r="H99" t="n">
         <v>164.4166666666667</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>164</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4356,24 +4557,21 @@
         <v>1528585.2982</v>
       </c>
       <c r="G100" t="n">
+        <v>163.4666666666667</v>
+      </c>
+      <c r="H100" t="n">
         <v>164.4333333333333</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>164</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4397,24 +4595,21 @@
         <v>1546113.1473</v>
       </c>
       <c r="G101" t="n">
+        <v>163.2</v>
+      </c>
+      <c r="H101" t="n">
         <v>164.45</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>164</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4438,24 +4633,21 @@
         <v>1551742.2289</v>
       </c>
       <c r="G102" t="n">
+        <v>163.0666666666667</v>
+      </c>
+      <c r="H102" t="n">
         <v>164.4666666666667</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>164</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4479,24 +4671,21 @@
         <v>292709.5201</v>
       </c>
       <c r="G103" t="n">
+        <v>162.9333333333333</v>
+      </c>
+      <c r="H103" t="n">
         <v>164.4333333333333</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>164</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4520,24 +4709,21 @@
         <v>524000</v>
       </c>
       <c r="G104" t="n">
+        <v>162.7333333333333</v>
+      </c>
+      <c r="H104" t="n">
         <v>164.4166666666667</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>164</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4561,24 +4747,21 @@
         <v>128391.7288</v>
       </c>
       <c r="G105" t="n">
+        <v>162.6</v>
+      </c>
+      <c r="H105" t="n">
         <v>164.4166666666667</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>164</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4602,24 +4785,21 @@
         <v>1248.4456</v>
       </c>
       <c r="G106" t="n">
+        <v>162.4666666666667</v>
+      </c>
+      <c r="H106" t="n">
         <v>164.4166666666667</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>164</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4643,24 +4823,21 @@
         <v>29747.0827</v>
       </c>
       <c r="G107" t="n">
+        <v>162.4666666666667</v>
+      </c>
+      <c r="H107" t="n">
         <v>164.4</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>164</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4684,24 +4861,21 @@
         <v>20882.9186</v>
       </c>
       <c r="G108" t="n">
+        <v>162.4</v>
+      </c>
+      <c r="H108" t="n">
         <v>164.3833333333333</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>164</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4725,24 +4899,21 @@
         <v>229.0987</v>
       </c>
       <c r="G109" t="n">
+        <v>162.4</v>
+      </c>
+      <c r="H109" t="n">
         <v>164.35</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>164</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4766,24 +4937,21 @@
         <v>223.9913</v>
       </c>
       <c r="G110" t="n">
+        <v>162.2666666666667</v>
+      </c>
+      <c r="H110" t="n">
         <v>164.3333333333333</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>164</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4807,24 +4975,21 @@
         <v>165.6652</v>
       </c>
       <c r="G111" t="n">
+        <v>162.2666666666667</v>
+      </c>
+      <c r="H111" t="n">
         <v>164.3166666666667</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>164</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4848,24 +5013,21 @@
         <v>194.2857</v>
       </c>
       <c r="G112" t="n">
+        <v>162.3333333333333</v>
+      </c>
+      <c r="H112" t="n">
         <v>164.2833333333333</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>164</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4889,24 +5051,21 @@
         <v>607.0853</v>
       </c>
       <c r="G113" t="n">
+        <v>162.3333333333333</v>
+      </c>
+      <c r="H113" t="n">
         <v>164.2333333333333</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>164</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4930,24 +5089,21 @@
         <v>1000</v>
       </c>
       <c r="G114" t="n">
+        <v>162.4</v>
+      </c>
+      <c r="H114" t="n">
         <v>164.2</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>164</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4971,24 +5127,21 @@
         <v>1132.5696</v>
       </c>
       <c r="G115" t="n">
+        <v>162.4666666666667</v>
+      </c>
+      <c r="H115" t="n">
         <v>164.2</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>164</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5012,24 +5165,21 @@
         <v>500</v>
       </c>
       <c r="G116" t="n">
+        <v>162.5333333333333</v>
+      </c>
+      <c r="H116" t="n">
         <v>164.2</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>164</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5053,24 +5203,21 @@
         <v>156.8184</v>
       </c>
       <c r="G117" t="n">
+        <v>162.6</v>
+      </c>
+      <c r="H117" t="n">
         <v>164.1666666666667</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>164</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5094,24 +5241,21 @@
         <v>2250</v>
       </c>
       <c r="G118" t="n">
+        <v>162.6666666666667</v>
+      </c>
+      <c r="H118" t="n">
         <v>164.1333333333333</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>164</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5135,24 +5279,401 @@
         <v>6213.5246</v>
       </c>
       <c r="G119" t="n">
+        <v>162.9333333333333</v>
+      </c>
+      <c r="H119" t="n">
         <v>164.1333333333333</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>164</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>164</v>
+      </c>
+      <c r="C120" t="n">
+        <v>164</v>
+      </c>
+      <c r="D120" t="n">
+        <v>164</v>
+      </c>
+      <c r="E120" t="n">
+        <v>164</v>
+      </c>
+      <c r="F120" t="n">
+        <v>298.9938</v>
+      </c>
+      <c r="G120" t="n">
+        <v>163</v>
+      </c>
+      <c r="H120" t="n">
+        <v>164.1</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>164</v>
+      </c>
+      <c r="C121" t="n">
+        <v>164</v>
+      </c>
+      <c r="D121" t="n">
+        <v>164</v>
+      </c>
+      <c r="E121" t="n">
+        <v>164</v>
+      </c>
+      <c r="F121" t="n">
+        <v>118.6522</v>
+      </c>
+      <c r="G121" t="n">
+        <v>163.1333333333333</v>
+      </c>
+      <c r="H121" t="n">
+        <v>164.0666666666667</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>165</v>
+      </c>
+      <c r="C122" t="n">
+        <v>165</v>
+      </c>
+      <c r="D122" t="n">
+        <v>165</v>
+      </c>
+      <c r="E122" t="n">
+        <v>165</v>
+      </c>
+      <c r="F122" t="n">
+        <v>1</v>
+      </c>
+      <c r="G122" t="n">
+        <v>163.3333333333333</v>
+      </c>
+      <c r="H122" t="n">
+        <v>164.05</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>163</v>
+      </c>
+      <c r="C123" t="n">
+        <v>162</v>
+      </c>
+      <c r="D123" t="n">
+        <v>163</v>
+      </c>
+      <c r="E123" t="n">
+        <v>162</v>
+      </c>
+      <c r="F123" t="n">
+        <v>671.2676</v>
+      </c>
+      <c r="G123" t="n">
+        <v>163.3333333333333</v>
+      </c>
+      <c r="H123" t="n">
+        <v>163.9833333333333</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>163</v>
+      </c>
+      <c r="C124" t="n">
+        <v>163</v>
+      </c>
+      <c r="D124" t="n">
+        <v>163</v>
+      </c>
+      <c r="E124" t="n">
+        <v>163</v>
+      </c>
+      <c r="F124" t="n">
+        <v>138.4957</v>
+      </c>
+      <c r="G124" t="n">
+        <v>163.3333333333333</v>
+      </c>
+      <c r="H124" t="n">
+        <v>163.9333333333333</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>163</v>
+      </c>
+      <c r="C125" t="n">
+        <v>163</v>
+      </c>
+      <c r="D125" t="n">
+        <v>163</v>
+      </c>
+      <c r="E125" t="n">
+        <v>163</v>
+      </c>
+      <c r="F125" t="n">
+        <v>920.8207</v>
+      </c>
+      <c r="G125" t="n">
+        <v>163.3333333333333</v>
+      </c>
+      <c r="H125" t="n">
+        <v>163.8833333333333</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>163</v>
+      </c>
+      <c r="C126" t="n">
+        <v>164</v>
+      </c>
+      <c r="D126" t="n">
+        <v>164</v>
+      </c>
+      <c r="E126" t="n">
+        <v>163</v>
+      </c>
+      <c r="F126" t="n">
+        <v>500</v>
+      </c>
+      <c r="G126" t="n">
+        <v>163.4</v>
+      </c>
+      <c r="H126" t="n">
+        <v>163.85</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>163</v>
+      </c>
+      <c r="C127" t="n">
+        <v>164</v>
+      </c>
+      <c r="D127" t="n">
+        <v>164</v>
+      </c>
+      <c r="E127" t="n">
+        <v>163</v>
+      </c>
+      <c r="F127" t="n">
+        <v>729</v>
+      </c>
+      <c r="G127" t="n">
+        <v>163.4666666666667</v>
+      </c>
+      <c r="H127" t="n">
+        <v>163.8166666666667</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>164</v>
+      </c>
+      <c r="C128" t="n">
+        <v>164</v>
+      </c>
+      <c r="D128" t="n">
+        <v>164</v>
+      </c>
+      <c r="E128" t="n">
+        <v>164</v>
+      </c>
+      <c r="F128" t="n">
+        <v>7420.4268</v>
+      </c>
+      <c r="G128" t="n">
+        <v>163.6</v>
+      </c>
+      <c r="H128" t="n">
+        <v>163.7833333333333</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>164</v>
+      </c>
+      <c r="C129" t="n">
+        <v>164</v>
+      </c>
+      <c r="D129" t="n">
+        <v>164</v>
+      </c>
+      <c r="E129" t="n">
+        <v>164</v>
+      </c>
+      <c r="F129" t="n">
+        <v>2109.7666</v>
+      </c>
+      <c r="G129" t="n">
+        <v>163.6666666666667</v>
+      </c>
+      <c r="H129" t="n">
+        <v>163.75</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-11-02 BackTest ITC.xlsx
+++ b/BackTest/2019-11-02 BackTest ITC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N129"/>
+  <dimension ref="A1:M158"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,40 +394,35 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>MA60</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -438,36 +433,33 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C2" t="n">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D2" t="n">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="E2" t="n">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="F2" t="n">
-        <v>4040</v>
+        <v>139.3043</v>
       </c>
       <c r="G2" t="n">
-        <v>161.5333333333333</v>
+        <v>-97086.06360000001</v>
       </c>
       <c r="H2" t="n">
-        <v>160.1166666666667</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -476,40 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C3" t="n">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="D3" t="n">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="E3" t="n">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="F3" t="n">
-        <v>4776.0158</v>
+        <v>170.5</v>
       </c>
       <c r="G3" t="n">
-        <v>161.8666666666667</v>
+        <v>-97086.06360000001</v>
       </c>
       <c r="H3" t="n">
-        <v>160.1666666666667</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>158</v>
       </c>
       <c r="K3" t="n">
-        <v>164</v>
-      </c>
-      <c r="L3" t="n">
-        <v>164</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="n">
+        <v>158</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,44 +507,41 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C4" t="n">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D4" t="n">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="E4" t="n">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="F4" t="n">
-        <v>1000</v>
+        <v>4363.58</v>
       </c>
       <c r="G4" t="n">
-        <v>162.2</v>
+        <v>-97086.06360000001</v>
       </c>
       <c r="H4" t="n">
-        <v>160.2333333333333</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>158</v>
       </c>
       <c r="K4" t="n">
-        <v>163</v>
-      </c>
-      <c r="L4" t="n">
-        <v>164</v>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N4" t="n">
+        <v>158</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -564,44 +550,41 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C5" t="n">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D5" t="n">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E5" t="n">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F5" t="n">
-        <v>2000</v>
+        <v>659.9566</v>
       </c>
       <c r="G5" t="n">
-        <v>162.4666666666667</v>
+        <v>-96426.107</v>
       </c>
       <c r="H5" t="n">
-        <v>160.25</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>158</v>
       </c>
       <c r="K5" t="n">
-        <v>164</v>
-      </c>
-      <c r="L5" t="n">
-        <v>164</v>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N5" t="n">
+        <v>158</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -610,40 +593,39 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C6" t="n">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D6" t="n">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E6" t="n">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F6" t="n">
-        <v>652.1177</v>
+        <v>750</v>
       </c>
       <c r="G6" t="n">
-        <v>162.6666666666667</v>
+        <v>-96426.107</v>
       </c>
       <c r="H6" t="n">
-        <v>160.2333333333333</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="n">
-        <v>163</v>
-      </c>
-      <c r="L6" t="n">
-        <v>163</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="n">
+        <v>158</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -652,44 +634,39 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C7" t="n">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="D7" t="n">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="E7" t="n">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="F7" t="n">
-        <v>1.6371</v>
+        <v>139.1304</v>
       </c>
       <c r="G7" t="n">
-        <v>162.9333333333333</v>
+        <v>-96426.107</v>
       </c>
       <c r="H7" t="n">
-        <v>160.2666666666667</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="n">
-        <v>162</v>
-      </c>
-      <c r="L7" t="n">
-        <v>163</v>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N7" t="n">
+        <v>158</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -698,42 +675,39 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C8" t="n">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D8" t="n">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E8" t="n">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F8" t="n">
-        <v>295.615</v>
+        <v>1292</v>
       </c>
       <c r="G8" t="n">
-        <v>163</v>
+        <v>-96426.107</v>
       </c>
       <c r="H8" t="n">
-        <v>160.2666666666667</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>163</v>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N8" t="n">
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>158</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -742,36 +716,39 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C9" t="n">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D9" t="n">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E9" t="n">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F9" t="n">
-        <v>1225.6269</v>
+        <v>12088.4325</v>
       </c>
       <c r="G9" t="n">
-        <v>163.0666666666667</v>
+        <v>-84337.67450000001</v>
       </c>
       <c r="H9" t="n">
-        <v>160.2666666666667</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="n">
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>158</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -780,40 +757,39 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C10" t="n">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D10" t="n">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E10" t="n">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F10" t="n">
-        <v>4479.1325</v>
+        <v>150</v>
       </c>
       <c r="G10" t="n">
-        <v>163.1333333333333</v>
+        <v>-84487.67450000001</v>
       </c>
       <c r="H10" t="n">
-        <v>160.2666666666667</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="n">
-        <v>162</v>
-      </c>
-      <c r="L10" t="n">
-        <v>162</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="n">
+        <v>158</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -822,42 +798,39 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C11" t="n">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D11" t="n">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E11" t="n">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F11" t="n">
-        <v>1368.7348</v>
+        <v>5656.7997</v>
       </c>
       <c r="G11" t="n">
-        <v>163</v>
+        <v>-78830.87480000001</v>
       </c>
       <c r="H11" t="n">
-        <v>160.2666666666667</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>162</v>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N11" t="n">
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>158</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -866,44 +839,39 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C12" t="n">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D12" t="n">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E12" t="n">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F12" t="n">
-        <v>183.7028</v>
+        <v>2837.6741</v>
       </c>
       <c r="G12" t="n">
-        <v>162.8666666666667</v>
+        <v>-81668.54890000001</v>
       </c>
       <c r="H12" t="n">
-        <v>160.3166666666667</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="n">
-        <v>162</v>
-      </c>
-      <c r="L12" t="n">
-        <v>162</v>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N12" t="n">
+        <v>158</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -912,40 +880,39 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C13" t="n">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D13" t="n">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E13" t="n">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F13" t="n">
-        <v>4753.2826</v>
+        <v>375.9628</v>
       </c>
       <c r="G13" t="n">
-        <v>162.8666666666667</v>
+        <v>-81292.58610000001</v>
       </c>
       <c r="H13" t="n">
-        <v>160.3666666666667</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="n">
-        <v>162</v>
-      </c>
-      <c r="L13" t="n">
-        <v>162</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="n">
+        <v>158</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -954,44 +921,39 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C14" t="n">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D14" t="n">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E14" t="n">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F14" t="n">
-        <v>1020.2332</v>
+        <v>289.381</v>
       </c>
       <c r="G14" t="n">
-        <v>162.9333333333333</v>
+        <v>-81581.96710000001</v>
       </c>
       <c r="H14" t="n">
-        <v>160.4166666666667</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="n">
-        <v>163</v>
-      </c>
-      <c r="L14" t="n">
-        <v>162</v>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N14" t="n">
+        <v>158</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1000,42 +962,39 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C15" t="n">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="D15" t="n">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="E15" t="n">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F15" t="n">
-        <v>3342.5789</v>
+        <v>4359.4952</v>
       </c>
       <c r="G15" t="n">
-        <v>162.9333333333333</v>
+        <v>-81581.96710000001</v>
       </c>
       <c r="H15" t="n">
-        <v>160.4666666666667</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>162</v>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="N15" t="n">
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>158</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1044,42 +1003,41 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C16" t="n">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="D16" t="n">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E16" t="n">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="F16" t="n">
-        <v>16459.1045</v>
+        <v>668.3892</v>
       </c>
       <c r="G16" t="n">
-        <v>162.9333333333333</v>
+        <v>-81581.96710000001</v>
       </c>
       <c r="H16" t="n">
-        <v>160.5333333333333</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>162</v>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N16" t="n">
+        <v>159</v>
+      </c>
+      <c r="K16" t="n">
+        <v>158</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1088,42 +1046,41 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C17" t="n">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D17" t="n">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="E17" t="n">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="F17" t="n">
-        <v>10667.9503</v>
+        <v>3200</v>
       </c>
       <c r="G17" t="n">
-        <v>162.9333333333333</v>
+        <v>-84781.96710000001</v>
       </c>
       <c r="H17" t="n">
-        <v>160.6166666666667</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>162</v>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N17" t="n">
+        <v>159</v>
+      </c>
+      <c r="K17" t="n">
+        <v>158</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1132,42 +1089,41 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C18" t="n">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D18" t="n">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E18" t="n">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F18" t="n">
-        <v>2173.4452</v>
+        <v>108.0168</v>
       </c>
       <c r="G18" t="n">
-        <v>162.9333333333333</v>
+        <v>-84673.95030000001</v>
       </c>
       <c r="H18" t="n">
-        <v>160.65</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>162</v>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N18" t="n">
+        <v>158</v>
+      </c>
+      <c r="K18" t="n">
+        <v>158</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1176,42 +1132,39 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C19" t="n">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D19" t="n">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E19" t="n">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F19" t="n">
-        <v>6252.6382</v>
+        <v>28402.461</v>
       </c>
       <c r="G19" t="n">
-        <v>162.8666666666667</v>
+        <v>-84673.95030000001</v>
       </c>
       <c r="H19" t="n">
-        <v>160.6833333333333</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>162</v>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N19" t="n">
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>158</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1220,42 +1173,39 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C20" t="n">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D20" t="n">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E20" t="n">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F20" t="n">
-        <v>2709.7823</v>
+        <v>1354.9763</v>
       </c>
       <c r="G20" t="n">
-        <v>162.8</v>
+        <v>-84673.95030000001</v>
       </c>
       <c r="H20" t="n">
-        <v>160.7</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>162</v>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N20" t="n">
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>158</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1264,42 +1214,41 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C21" t="n">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D21" t="n">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E21" t="n">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F21" t="n">
-        <v>14372.6274</v>
+        <v>198.1673</v>
       </c>
       <c r="G21" t="n">
-        <v>162.9333333333333</v>
+        <v>-84475.78300000001</v>
       </c>
       <c r="H21" t="n">
-        <v>160.75</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>162</v>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N21" t="n">
+        <v>159</v>
+      </c>
+      <c r="K21" t="n">
+        <v>158</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1308,42 +1257,39 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C22" t="n">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D22" t="n">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E22" t="n">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F22" t="n">
-        <v>247.6951</v>
+        <v>750</v>
       </c>
       <c r="G22" t="n">
-        <v>162.9333333333333</v>
+        <v>-83725.78300000001</v>
       </c>
       <c r="H22" t="n">
-        <v>160.8</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>162</v>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N22" t="n">
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>158</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1352,42 +1298,39 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C23" t="n">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D23" t="n">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E23" t="n">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F23" t="n">
-        <v>5200.0003</v>
+        <v>132.2</v>
       </c>
       <c r="G23" t="n">
-        <v>162.8</v>
+        <v>-83725.78300000001</v>
       </c>
       <c r="H23" t="n">
-        <v>160.7833333333333</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>162</v>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N23" t="n">
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>158</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1396,42 +1339,39 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C24" t="n">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D24" t="n">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E24" t="n">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F24" t="n">
-        <v>1770.5912</v>
+        <v>2394.9164</v>
       </c>
       <c r="G24" t="n">
-        <v>162.8666666666667</v>
+        <v>-83725.78300000001</v>
       </c>
       <c r="H24" t="n">
-        <v>160.8333333333333</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>162</v>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N24" t="n">
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>158</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1440,42 +1380,39 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C25" t="n">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D25" t="n">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E25" t="n">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F25" t="n">
-        <v>2250</v>
+        <v>4338.5708</v>
       </c>
       <c r="G25" t="n">
-        <v>162.9333333333333</v>
+        <v>-79387.21220000001</v>
       </c>
       <c r="H25" t="n">
-        <v>160.9166666666667</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>162</v>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N25" t="n">
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>158</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1484,42 +1421,39 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C26" t="n">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D26" t="n">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E26" t="n">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F26" t="n">
-        <v>4771.3378</v>
+        <v>121.951</v>
       </c>
       <c r="G26" t="n">
-        <v>163</v>
+        <v>-79387.21220000001</v>
       </c>
       <c r="H26" t="n">
-        <v>161.0166666666667</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>162</v>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N26" t="n">
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>158</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1528,7 +1462,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C27" t="n">
         <v>163</v>
@@ -1537,33 +1471,30 @@
         <v>163</v>
       </c>
       <c r="E27" t="n">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F27" t="n">
-        <v>20.0723</v>
+        <v>8056.8708</v>
       </c>
       <c r="G27" t="n">
-        <v>163.0666666666667</v>
+        <v>-87444.08300000001</v>
       </c>
       <c r="H27" t="n">
-        <v>161.1833333333333</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>162</v>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N27" t="n">
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>158</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1572,42 +1503,39 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C28" t="n">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D28" t="n">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E28" t="n">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F28" t="n">
-        <v>1733.3255</v>
+        <v>3648</v>
       </c>
       <c r="G28" t="n">
-        <v>163.0666666666667</v>
+        <v>-91092.08300000001</v>
       </c>
       <c r="H28" t="n">
-        <v>161.2833333333333</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>162</v>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N28" t="n">
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>158</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1619,39 +1547,36 @@
         <v>163</v>
       </c>
       <c r="C29" t="n">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D29" t="n">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E29" t="n">
         <v>163</v>
       </c>
       <c r="F29" t="n">
-        <v>99.5924</v>
+        <v>7805.9234</v>
       </c>
       <c r="G29" t="n">
-        <v>163.0666666666667</v>
+        <v>-83286.15960000001</v>
       </c>
       <c r="H29" t="n">
-        <v>161.3666666666667</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>162</v>
-      </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N29" t="n">
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>158</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1663,39 +1588,36 @@
         <v>163</v>
       </c>
       <c r="C30" t="n">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D30" t="n">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E30" t="n">
         <v>163</v>
       </c>
       <c r="F30" t="n">
-        <v>2045.4022</v>
+        <v>1698.2609</v>
       </c>
       <c r="G30" t="n">
-        <v>163</v>
+        <v>-83286.15960000001</v>
       </c>
       <c r="H30" t="n">
-        <v>161.45</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>162</v>
-      </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N30" t="n">
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>158</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1704,42 +1626,39 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C31" t="n">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D31" t="n">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E31" t="n">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F31" t="n">
-        <v>711.1214</v>
+        <v>4040</v>
       </c>
       <c r="G31" t="n">
-        <v>162.9333333333333</v>
+        <v>-83286.15960000001</v>
       </c>
       <c r="H31" t="n">
-        <v>161.5333333333333</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>162</v>
-      </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N31" t="n">
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>158</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1760,30 +1679,27 @@
         <v>163</v>
       </c>
       <c r="F32" t="n">
-        <v>924.4579</v>
+        <v>4776.0158</v>
       </c>
       <c r="G32" t="n">
-        <v>162.8666666666667</v>
+        <v>-88062.17540000001</v>
       </c>
       <c r="H32" t="n">
-        <v>161.6166666666667</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>162</v>
-      </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N32" t="n">
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>158</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1792,42 +1708,39 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C33" t="n">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D33" t="n">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E33" t="n">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F33" t="n">
-        <v>28116.585</v>
+        <v>1000</v>
       </c>
       <c r="G33" t="n">
-        <v>163</v>
+        <v>-87062.17540000001</v>
       </c>
       <c r="H33" t="n">
-        <v>161.7333333333333</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>162</v>
-      </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N33" t="n">
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>158</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1836,42 +1749,39 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C34" t="n">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D34" t="n">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E34" t="n">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F34" t="n">
-        <v>255.1469</v>
+        <v>2000</v>
       </c>
       <c r="G34" t="n">
-        <v>163.0666666666667</v>
+        <v>-89062.17540000001</v>
       </c>
       <c r="H34" t="n">
-        <v>161.8333333333333</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>162</v>
-      </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N34" t="n">
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>158</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1880,42 +1790,39 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C35" t="n">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D35" t="n">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E35" t="n">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F35" t="n">
-        <v>7560.3121</v>
+        <v>652.1177</v>
       </c>
       <c r="G35" t="n">
-        <v>163.2</v>
+        <v>-89714.29310000001</v>
       </c>
       <c r="H35" t="n">
-        <v>161.9333333333333</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>162</v>
-      </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N35" t="n">
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>158</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1924,42 +1831,39 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C36" t="n">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D36" t="n">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E36" t="n">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F36" t="n">
-        <v>255</v>
+        <v>1.6371</v>
       </c>
       <c r="G36" t="n">
-        <v>163.1333333333333</v>
+        <v>-89712.656</v>
       </c>
       <c r="H36" t="n">
-        <v>162</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>162</v>
-      </c>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N36" t="n">
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>158</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1968,42 +1872,39 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C37" t="n">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D37" t="n">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E37" t="n">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F37" t="n">
-        <v>119.7348</v>
+        <v>295.615</v>
       </c>
       <c r="G37" t="n">
-        <v>163.1333333333333</v>
+        <v>-90008.27100000001</v>
       </c>
       <c r="H37" t="n">
-        <v>162.0833333333333</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>162</v>
-      </c>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N37" t="n">
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>158</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2012,42 +1913,39 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C38" t="n">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D38" t="n">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E38" t="n">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F38" t="n">
-        <v>12759.1272</v>
+        <v>1225.6269</v>
       </c>
       <c r="G38" t="n">
-        <v>163.4</v>
+        <v>-90008.27100000001</v>
       </c>
       <c r="H38" t="n">
-        <v>162.1666666666667</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>162</v>
-      </c>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N38" t="n">
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>158</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2068,30 +1966,27 @@
         <v>162</v>
       </c>
       <c r="F39" t="n">
-        <v>251.2436</v>
+        <v>4479.1325</v>
       </c>
       <c r="G39" t="n">
-        <v>163.3333333333333</v>
+        <v>-90008.27100000001</v>
       </c>
       <c r="H39" t="n">
-        <v>162.2166666666667</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>162</v>
-      </c>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N39" t="n">
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>158</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2100,42 +1995,39 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C40" t="n">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D40" t="n">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E40" t="n">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F40" t="n">
-        <v>8808.8068</v>
+        <v>1368.7348</v>
       </c>
       <c r="G40" t="n">
-        <v>163.2</v>
+        <v>-90008.27100000001</v>
       </c>
       <c r="H40" t="n">
-        <v>162.2166666666667</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>162</v>
-      </c>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N40" t="n">
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>158</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2144,42 +2036,39 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C41" t="n">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D41" t="n">
         <v>162</v>
       </c>
       <c r="E41" t="n">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F41" t="n">
-        <v>7123.1247</v>
+        <v>183.7028</v>
       </c>
       <c r="G41" t="n">
-        <v>163.0666666666667</v>
+        <v>-90008.27100000001</v>
       </c>
       <c r="H41" t="n">
-        <v>162.25</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>162</v>
-      </c>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N41" t="n">
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>158</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2188,42 +2077,39 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C42" t="n">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D42" t="n">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E42" t="n">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F42" t="n">
-        <v>131.4609</v>
+        <v>4753.2826</v>
       </c>
       <c r="G42" t="n">
-        <v>162.9333333333333</v>
+        <v>-85254.9884</v>
       </c>
       <c r="H42" t="n">
-        <v>162.2666666666667</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>162</v>
-      </c>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N42" t="n">
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>158</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2235,39 +2121,36 @@
         <v>163</v>
       </c>
       <c r="C43" t="n">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D43" t="n">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E43" t="n">
         <v>163</v>
       </c>
       <c r="F43" t="n">
-        <v>314.8952</v>
+        <v>1020.2332</v>
       </c>
       <c r="G43" t="n">
-        <v>163</v>
+        <v>-85254.9884</v>
       </c>
       <c r="H43" t="n">
-        <v>162.35</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>162</v>
-      </c>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N43" t="n">
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>158</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2276,42 +2159,39 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C44" t="n">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D44" t="n">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E44" t="n">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F44" t="n">
-        <v>450</v>
+        <v>3342.5789</v>
       </c>
       <c r="G44" t="n">
-        <v>163</v>
+        <v>-81912.40950000001</v>
       </c>
       <c r="H44" t="n">
-        <v>162.3833333333333</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>162</v>
-      </c>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N44" t="n">
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>158</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2320,42 +2200,39 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C45" t="n">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D45" t="n">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E45" t="n">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F45" t="n">
-        <v>2041.9974</v>
+        <v>16459.1045</v>
       </c>
       <c r="G45" t="n">
-        <v>163</v>
+        <v>-81912.40950000001</v>
       </c>
       <c r="H45" t="n">
-        <v>162.45</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>162</v>
-      </c>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N45" t="n">
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>158</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2364,42 +2241,39 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C46" t="n">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D46" t="n">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E46" t="n">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F46" t="n">
-        <v>1</v>
+        <v>10667.9503</v>
       </c>
       <c r="G46" t="n">
-        <v>162.9333333333333</v>
+        <v>-81912.40950000001</v>
       </c>
       <c r="H46" t="n">
-        <v>162.5</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>162</v>
-      </c>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N46" t="n">
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>158</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2420,30 +2294,27 @@
         <v>163</v>
       </c>
       <c r="F47" t="n">
-        <v>1840.865</v>
+        <v>2173.4452</v>
       </c>
       <c r="G47" t="n">
-        <v>162.9333333333333</v>
+        <v>-84085.85470000001</v>
       </c>
       <c r="H47" t="n">
-        <v>162.5666666666667</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>162</v>
-      </c>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N47" t="n">
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>158</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2464,30 +2335,27 @@
         <v>163</v>
       </c>
       <c r="F48" t="n">
-        <v>6754.3619</v>
+        <v>6252.6382</v>
       </c>
       <c r="G48" t="n">
-        <v>162.8</v>
+        <v>-84085.85470000001</v>
       </c>
       <c r="H48" t="n">
-        <v>162.65</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>162</v>
-      </c>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N48" t="n">
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>158</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2496,42 +2364,39 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C49" t="n">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D49" t="n">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E49" t="n">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F49" t="n">
-        <v>480</v>
+        <v>2709.7823</v>
       </c>
       <c r="G49" t="n">
-        <v>162.8666666666667</v>
+        <v>-86795.63700000002</v>
       </c>
       <c r="H49" t="n">
-        <v>162.75</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>162</v>
-      </c>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N49" t="n">
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>158</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2540,7 +2405,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C50" t="n">
         <v>164</v>
@@ -2549,33 +2414,30 @@
         <v>164</v>
       </c>
       <c r="E50" t="n">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F50" t="n">
-        <v>234.8681</v>
+        <v>14372.6274</v>
       </c>
       <c r="G50" t="n">
-        <v>162.8666666666667</v>
+        <v>-72423.00960000002</v>
       </c>
       <c r="H50" t="n">
-        <v>162.8333333333333</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>162</v>
-      </c>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N50" t="n">
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>158</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2584,42 +2446,39 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C51" t="n">
         <v>164</v>
       </c>
       <c r="D51" t="n">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E51" t="n">
         <v>164</v>
       </c>
       <c r="F51" t="n">
-        <v>8326.9902</v>
+        <v>247.6951</v>
       </c>
       <c r="G51" t="n">
-        <v>162.9333333333333</v>
+        <v>-72423.00960000002</v>
       </c>
       <c r="H51" t="n">
-        <v>162.9166666666667</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>0</v>
-      </c>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>162</v>
-      </c>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N51" t="n">
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>158</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2628,42 +2487,39 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C52" t="n">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D52" t="n">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E52" t="n">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="F52" t="n">
-        <v>1339605.5805</v>
+        <v>5200.0003</v>
       </c>
       <c r="G52" t="n">
-        <v>163</v>
+        <v>-77623.00990000002</v>
       </c>
       <c r="H52" t="n">
-        <v>163</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>0</v>
-      </c>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>162</v>
-      </c>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N52" t="n">
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>158</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2672,42 +2528,39 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C53" t="n">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D53" t="n">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E53" t="n">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F53" t="n">
-        <v>619101.9840000001</v>
+        <v>1770.5912</v>
       </c>
       <c r="G53" t="n">
-        <v>163.0666666666667</v>
+        <v>-75852.41870000002</v>
       </c>
       <c r="H53" t="n">
-        <v>163.0666666666667</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>0</v>
-      </c>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>162</v>
-      </c>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N53" t="n">
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>158</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2716,42 +2569,39 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C54" t="n">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D54" t="n">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E54" t="n">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F54" t="n">
-        <v>21.3757</v>
+        <v>2250</v>
       </c>
       <c r="G54" t="n">
-        <v>163.2666666666667</v>
+        <v>-75852.41870000002</v>
       </c>
       <c r="H54" t="n">
-        <v>163.1333333333333</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>0</v>
-      </c>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>162</v>
-      </c>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N54" t="n">
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>158</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2772,30 +2622,27 @@
         <v>163</v>
       </c>
       <c r="F55" t="n">
-        <v>7452.3191</v>
+        <v>4771.3378</v>
       </c>
       <c r="G55" t="n">
-        <v>163.4</v>
+        <v>-75852.41870000002</v>
       </c>
       <c r="H55" t="n">
-        <v>163.1666666666667</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>0</v>
-      </c>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>162</v>
-      </c>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N55" t="n">
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>158</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2816,30 +2663,27 @@
         <v>163</v>
       </c>
       <c r="F56" t="n">
-        <v>3192.6001</v>
+        <v>20.0723</v>
       </c>
       <c r="G56" t="n">
-        <v>163.5333333333333</v>
+        <v>-75852.41870000002</v>
       </c>
       <c r="H56" t="n">
-        <v>163.15</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>0</v>
-      </c>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>162</v>
-      </c>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N56" t="n">
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>158</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2848,42 +2692,39 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C57" t="n">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D57" t="n">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E57" t="n">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F57" t="n">
-        <v>1213.6242</v>
+        <v>1733.3255</v>
       </c>
       <c r="G57" t="n">
-        <v>163.8</v>
+        <v>-75852.41870000002</v>
       </c>
       <c r="H57" t="n">
-        <v>163.1666666666667</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>0</v>
-      </c>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>162</v>
-      </c>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N57" t="n">
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>158</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2892,42 +2733,39 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C58" t="n">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D58" t="n">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E58" t="n">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F58" t="n">
-        <v>10</v>
+        <v>99.5924</v>
       </c>
       <c r="G58" t="n">
-        <v>163.8666666666667</v>
+        <v>-75852.41870000002</v>
       </c>
       <c r="H58" t="n">
-        <v>163.2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>0</v>
-      </c>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>162</v>
-      </c>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N58" t="n">
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>158</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2936,42 +2774,39 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C59" t="n">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D59" t="n">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E59" t="n">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F59" t="n">
-        <v>31178.4337</v>
+        <v>2045.4022</v>
       </c>
       <c r="G59" t="n">
-        <v>164.0666666666667</v>
+        <v>-75852.41870000002</v>
       </c>
       <c r="H59" t="n">
-        <v>163.2666666666667</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>0</v>
-      </c>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>162</v>
-      </c>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N59" t="n">
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>158</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2980,42 +2815,39 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C60" t="n">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D60" t="n">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="E60" t="n">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F60" t="n">
-        <v>16305.9988</v>
+        <v>711.1214</v>
       </c>
       <c r="G60" t="n">
-        <v>164.2666666666667</v>
+        <v>-75852.41870000002</v>
       </c>
       <c r="H60" t="n">
-        <v>163.3</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>0</v>
-      </c>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>162</v>
-      </c>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N60" t="n">
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>158</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3024,42 +2856,39 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C61" t="n">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D61" t="n">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E61" t="n">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F61" t="n">
-        <v>1125.0166</v>
+        <v>924.4579</v>
       </c>
       <c r="G61" t="n">
-        <v>164.5333333333333</v>
+        <v>-75852.41870000002</v>
       </c>
       <c r="H61" t="n">
-        <v>163.3333333333333</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>0</v>
-      </c>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>162</v>
-      </c>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N61" t="n">
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>158</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3068,42 +2897,39 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C62" t="n">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D62" t="n">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E62" t="n">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F62" t="n">
-        <v>1324.8518</v>
+        <v>28116.585</v>
       </c>
       <c r="G62" t="n">
-        <v>164.7333333333333</v>
+        <v>-47735.83370000002</v>
       </c>
       <c r="H62" t="n">
-        <v>163.3666666666667</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>0</v>
-      </c>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>162</v>
-      </c>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N62" t="n">
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>158</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3112,42 +2938,39 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C63" t="n">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D63" t="n">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E63" t="n">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F63" t="n">
-        <v>704.731</v>
+        <v>255.1469</v>
       </c>
       <c r="G63" t="n">
-        <v>164.9333333333333</v>
+        <v>-47990.98060000002</v>
       </c>
       <c r="H63" t="n">
-        <v>163.4166666666667</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>0</v>
-      </c>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>162</v>
-      </c>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N63" t="n">
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>158</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3156,42 +2979,39 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C64" t="n">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D64" t="n">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E64" t="n">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F64" t="n">
-        <v>9636.054400000001</v>
+        <v>7560.3121</v>
       </c>
       <c r="G64" t="n">
-        <v>165</v>
+        <v>-47990.98060000002</v>
       </c>
       <c r="H64" t="n">
-        <v>163.45</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>0</v>
-      </c>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>162</v>
-      </c>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N64" t="n">
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>158</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3200,42 +3020,39 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C65" t="n">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D65" t="n">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E65" t="n">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F65" t="n">
-        <v>4663.5098</v>
+        <v>255</v>
       </c>
       <c r="G65" t="n">
-        <v>165.1333333333333</v>
+        <v>-48245.98060000002</v>
       </c>
       <c r="H65" t="n">
-        <v>163.5</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>0</v>
-      </c>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>162</v>
-      </c>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N65" t="n">
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>158</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3244,43 +3061,40 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C66" t="n">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D66" t="n">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E66" t="n">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F66" t="n">
-        <v>6480.0936</v>
+        <v>119.7348</v>
       </c>
       <c r="G66" t="n">
-        <v>165.2666666666667</v>
+        <v>-48126.24580000003</v>
       </c>
       <c r="H66" t="n">
-        <v>163.5666666666667</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>1</v>
-      </c>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>162</v>
-      </c>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="N66" t="n">
-        <v>1.019691358024692</v>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>158</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M66" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -3288,36 +3102,39 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C67" t="n">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D67" t="n">
         <v>166</v>
       </c>
       <c r="E67" t="n">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="F67" t="n">
-        <v>693.4496</v>
+        <v>12759.1272</v>
       </c>
       <c r="G67" t="n">
-        <v>165.3333333333333</v>
+        <v>-48126.24580000003</v>
       </c>
       <c r="H67" t="n">
-        <v>163.6</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>0</v>
-      </c>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
-      <c r="N67" t="n">
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>158</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3326,36 +3143,39 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C68" t="n">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D68" t="n">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E68" t="n">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="F68" t="n">
-        <v>826.9985</v>
+        <v>251.2436</v>
       </c>
       <c r="G68" t="n">
-        <v>165.4</v>
+        <v>-48377.48940000003</v>
       </c>
       <c r="H68" t="n">
-        <v>163.6666666666667</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>1</v>
-      </c>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
-      <c r="N68" t="n">
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>158</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3364,36 +3184,39 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C69" t="n">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D69" t="n">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="E69" t="n">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="F69" t="n">
-        <v>1570.2579</v>
+        <v>8808.8068</v>
       </c>
       <c r="G69" t="n">
-        <v>165.4666666666667</v>
+        <v>-57186.29620000003</v>
       </c>
       <c r="H69" t="n">
-        <v>163.7333333333333</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>1</v>
-      </c>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
-      <c r="N69" t="n">
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>158</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3402,36 +3225,39 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C70" t="n">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D70" t="n">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E70" t="n">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F70" t="n">
-        <v>254.1084</v>
+        <v>7123.1247</v>
       </c>
       <c r="G70" t="n">
-        <v>165.5333333333333</v>
+        <v>-57186.29620000003</v>
       </c>
       <c r="H70" t="n">
-        <v>163.7666666666667</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>1</v>
-      </c>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr"/>
-      <c r="N70" t="n">
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>158</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3440,36 +3266,39 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C71" t="n">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D71" t="n">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E71" t="n">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F71" t="n">
-        <v>2030.8773</v>
+        <v>131.4609</v>
       </c>
       <c r="G71" t="n">
-        <v>165.6</v>
+        <v>-57186.29620000003</v>
       </c>
       <c r="H71" t="n">
-        <v>163.8</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>1</v>
-      </c>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
-      <c r="N71" t="n">
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>158</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3478,36 +3307,39 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C72" t="n">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D72" t="n">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E72" t="n">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F72" t="n">
-        <v>465.1165</v>
+        <v>314.8952</v>
       </c>
       <c r="G72" t="n">
-        <v>165.6</v>
+        <v>-56871.40100000003</v>
       </c>
       <c r="H72" t="n">
-        <v>163.85</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>0</v>
-      </c>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
-      <c r="N72" t="n">
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>158</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3516,36 +3348,39 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C73" t="n">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D73" t="n">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E73" t="n">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F73" t="n">
-        <v>16019.8749</v>
+        <v>450</v>
       </c>
       <c r="G73" t="n">
-        <v>165.6</v>
+        <v>-57321.40100000003</v>
       </c>
       <c r="H73" t="n">
-        <v>163.8833333333333</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>0</v>
-      </c>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr"/>
-      <c r="N73" t="n">
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>158</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3554,36 +3389,39 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C74" t="n">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D74" t="n">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="E74" t="n">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F74" t="n">
-        <v>2820</v>
+        <v>2041.9974</v>
       </c>
       <c r="G74" t="n">
-        <v>165.6666666666667</v>
+        <v>-57321.40100000003</v>
       </c>
       <c r="H74" t="n">
-        <v>163.95</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>0</v>
-      </c>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr"/>
-      <c r="N74" t="n">
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>158</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3592,36 +3430,39 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C75" t="n">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D75" t="n">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E75" t="n">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="F75" t="n">
-        <v>1700</v>
+        <v>1</v>
       </c>
       <c r="G75" t="n">
-        <v>165.7333333333333</v>
+        <v>-57322.40100000003</v>
       </c>
       <c r="H75" t="n">
-        <v>164</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>1</v>
-      </c>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr"/>
-      <c r="N75" t="n">
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>158</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3630,36 +3471,39 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C76" t="n">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D76" t="n">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="E76" t="n">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F76" t="n">
-        <v>7928.1262</v>
+        <v>1840.865</v>
       </c>
       <c r="G76" t="n">
-        <v>165.8</v>
+        <v>-55481.53600000003</v>
       </c>
       <c r="H76" t="n">
-        <v>164.05</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>1</v>
-      </c>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr"/>
-      <c r="N76" t="n">
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>158</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3668,36 +3512,39 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C77" t="n">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D77" t="n">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E77" t="n">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F77" t="n">
-        <v>583.0492</v>
+        <v>6754.3619</v>
       </c>
       <c r="G77" t="n">
-        <v>165.8</v>
+        <v>-55481.53600000003</v>
       </c>
       <c r="H77" t="n">
-        <v>164.0833333333333</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>1</v>
-      </c>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr"/>
-      <c r="N77" t="n">
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>158</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3706,36 +3553,39 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C78" t="n">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D78" t="n">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E78" t="n">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F78" t="n">
-        <v>27484.0525</v>
+        <v>480</v>
       </c>
       <c r="G78" t="n">
-        <v>165.9333333333333</v>
+        <v>-55001.53600000003</v>
       </c>
       <c r="H78" t="n">
-        <v>164.1666666666667</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>1</v>
-      </c>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr"/>
-      <c r="N78" t="n">
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>158</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3744,36 +3594,39 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C79" t="n">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D79" t="n">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E79" t="n">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F79" t="n">
-        <v>14888.8858</v>
+        <v>234.8681</v>
       </c>
       <c r="G79" t="n">
-        <v>165.8666666666667</v>
+        <v>-55236.40410000003</v>
       </c>
       <c r="H79" t="n">
-        <v>164.2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>1</v>
-      </c>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr"/>
-      <c r="N79" t="n">
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>158</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3794,24 +3647,27 @@
         <v>164</v>
       </c>
       <c r="F80" t="n">
-        <v>873.1695999999999</v>
+        <v>8326.9902</v>
       </c>
       <c r="G80" t="n">
-        <v>165.7333333333333</v>
+        <v>-55236.40410000003</v>
       </c>
       <c r="H80" t="n">
-        <v>164.2333333333333</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>1</v>
-      </c>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr"/>
-      <c r="N80" t="n">
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>158</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3832,24 +3688,27 @@
         <v>165</v>
       </c>
       <c r="F81" t="n">
-        <v>420.2315</v>
+        <v>1339605.5805</v>
       </c>
       <c r="G81" t="n">
-        <v>165.6666666666667</v>
+        <v>1284369.1764</v>
       </c>
       <c r="H81" t="n">
-        <v>164.25</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>1</v>
-      </c>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr"/>
-      <c r="N81" t="n">
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>158</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3858,36 +3717,39 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C82" t="n">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D82" t="n">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E82" t="n">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F82" t="n">
-        <v>1129.8511</v>
+        <v>619101.9840000001</v>
       </c>
       <c r="G82" t="n">
-        <v>165.4666666666667</v>
+        <v>1284369.1764</v>
       </c>
       <c r="H82" t="n">
-        <v>164.2333333333333</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>1</v>
-      </c>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr"/>
-      <c r="N82" t="n">
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>158</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3896,7 +3758,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C83" t="n">
         <v>165</v>
@@ -3905,27 +3767,30 @@
         <v>165</v>
       </c>
       <c r="E83" t="n">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F83" t="n">
-        <v>2678.5163</v>
+        <v>21.3757</v>
       </c>
       <c r="G83" t="n">
-        <v>165.4</v>
+        <v>1284369.1764</v>
       </c>
       <c r="H83" t="n">
-        <v>164.3166666666667</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>1</v>
-      </c>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr"/>
-      <c r="N83" t="n">
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>158</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3934,36 +3799,39 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C84" t="n">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D84" t="n">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E84" t="n">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F84" t="n">
-        <v>660.2408</v>
+        <v>7452.3191</v>
       </c>
       <c r="G84" t="n">
-        <v>165.2666666666667</v>
+        <v>1276916.8573</v>
       </c>
       <c r="H84" t="n">
-        <v>164.3333333333333</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>1</v>
-      </c>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr"/>
-      <c r="N84" t="n">
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>158</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3972,36 +3840,39 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C85" t="n">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D85" t="n">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E85" t="n">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F85" t="n">
-        <v>287.8525</v>
+        <v>3192.6001</v>
       </c>
       <c r="G85" t="n">
-        <v>165.3333333333333</v>
+        <v>1276916.8573</v>
       </c>
       <c r="H85" t="n">
-        <v>164.3666666666667</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>0</v>
-      </c>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr"/>
-      <c r="N85" t="n">
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>158</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4010,36 +3881,39 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C86" t="n">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D86" t="n">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E86" t="n">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F86" t="n">
-        <v>291.9879</v>
+        <v>1213.6242</v>
       </c>
       <c r="G86" t="n">
-        <v>165.4666666666667</v>
+        <v>1278130.4815</v>
       </c>
       <c r="H86" t="n">
-        <v>164.4166666666667</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>1</v>
-      </c>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr"/>
-      <c r="N86" t="n">
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>158</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4048,36 +3922,39 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C87" t="n">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D87" t="n">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E87" t="n">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F87" t="n">
-        <v>583.0493</v>
+        <v>10</v>
       </c>
       <c r="G87" t="n">
-        <v>165.4</v>
+        <v>1278130.4815</v>
       </c>
       <c r="H87" t="n">
-        <v>164.4333333333333</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>0</v>
-      </c>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr"/>
-      <c r="N87" t="n">
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>158</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4086,36 +3963,39 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C88" t="n">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D88" t="n">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E88" t="n">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F88" t="n">
-        <v>432.9491</v>
+        <v>31178.4337</v>
       </c>
       <c r="G88" t="n">
-        <v>165.3333333333333</v>
+        <v>1309308.9152</v>
       </c>
       <c r="H88" t="n">
-        <v>164.45</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>1</v>
-      </c>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr"/>
-      <c r="N88" t="n">
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>158</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4124,36 +4004,39 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C89" t="n">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D89" t="n">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E89" t="n">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F89" t="n">
-        <v>250</v>
+        <v>16305.9988</v>
       </c>
       <c r="G89" t="n">
-        <v>165.2</v>
+        <v>1309308.9152</v>
       </c>
       <c r="H89" t="n">
-        <v>164.4833333333333</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>1</v>
-      </c>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr"/>
-      <c r="N89" t="n">
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>158</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4162,36 +4045,39 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C90" t="n">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D90" t="n">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E90" t="n">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="F90" t="n">
-        <v>32199.5362</v>
+        <v>1125.0166</v>
       </c>
       <c r="G90" t="n">
-        <v>165.0666666666667</v>
+        <v>1309308.9152</v>
       </c>
       <c r="H90" t="n">
-        <v>164.5166666666667</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>1</v>
-      </c>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr"/>
-      <c r="N90" t="n">
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>158</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4200,36 +4086,39 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C91" t="n">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D91" t="n">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E91" t="n">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F91" t="n">
-        <v>1761.1186</v>
+        <v>1324.8518</v>
       </c>
       <c r="G91" t="n">
-        <v>164.8666666666667</v>
+        <v>1309308.9152</v>
       </c>
       <c r="H91" t="n">
-        <v>164.5333333333333</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>0</v>
-      </c>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr"/>
-      <c r="N91" t="n">
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>158</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4238,36 +4127,39 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C92" t="n">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="D92" t="n">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="E92" t="n">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="F92" t="n">
-        <v>920</v>
+        <v>704.731</v>
       </c>
       <c r="G92" t="n">
-        <v>164.6</v>
+        <v>1309308.9152</v>
       </c>
       <c r="H92" t="n">
-        <v>164.5166666666667</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>0</v>
-      </c>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="inlineStr"/>
-      <c r="N92" t="n">
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>158</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4276,36 +4168,39 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C93" t="n">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D93" t="n">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="E93" t="n">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="F93" t="n">
-        <v>698.8684</v>
+        <v>9636.054400000001</v>
       </c>
       <c r="G93" t="n">
-        <v>164.2666666666667</v>
+        <v>1309308.9152</v>
       </c>
       <c r="H93" t="n">
-        <v>164.4833333333333</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>0</v>
-      </c>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="inlineStr"/>
-      <c r="N93" t="n">
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>158</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4314,36 +4209,39 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C94" t="n">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D94" t="n">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="E94" t="n">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="F94" t="n">
-        <v>305.8261</v>
+        <v>4663.5098</v>
       </c>
       <c r="G94" t="n">
-        <v>164.1333333333333</v>
+        <v>1309308.9152</v>
       </c>
       <c r="H94" t="n">
-        <v>164.4666666666667</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>0</v>
-      </c>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr"/>
-      <c r="N94" t="n">
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>158</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4352,36 +4250,39 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C95" t="n">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D95" t="n">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E95" t="n">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="F95" t="n">
-        <v>4610.6334</v>
+        <v>6480.0936</v>
       </c>
       <c r="G95" t="n">
-        <v>164.2</v>
+        <v>1309308.9152</v>
       </c>
       <c r="H95" t="n">
-        <v>164.4833333333333</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>0</v>
-      </c>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr"/>
-      <c r="N95" t="n">
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>158</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4390,36 +4291,39 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C96" t="n">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D96" t="n">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="E96" t="n">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="F96" t="n">
-        <v>5.9554</v>
+        <v>693.4496</v>
       </c>
       <c r="G96" t="n">
-        <v>164.0666666666667</v>
+        <v>1309308.9152</v>
       </c>
       <c r="H96" t="n">
-        <v>164.4833333333333</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>0</v>
-      </c>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr"/>
-      <c r="N96" t="n">
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>158</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4428,36 +4332,39 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C97" t="n">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="D97" t="n">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="E97" t="n">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="F97" t="n">
-        <v>14776.27</v>
+        <v>826.9985</v>
       </c>
       <c r="G97" t="n">
-        <v>164</v>
+        <v>1309308.9152</v>
       </c>
       <c r="H97" t="n">
-        <v>164.45</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>0</v>
-      </c>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr"/>
-      <c r="N97" t="n">
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>158</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4466,36 +4373,39 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C98" t="n">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="D98" t="n">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="E98" t="n">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="F98" t="n">
-        <v>180.0013</v>
+        <v>1570.2579</v>
       </c>
       <c r="G98" t="n">
-        <v>163.8</v>
+        <v>1309308.9152</v>
       </c>
       <c r="H98" t="n">
-        <v>164.4166666666667</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>0</v>
-      </c>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr"/>
-      <c r="N98" t="n">
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>158</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4504,36 +4414,39 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C99" t="n">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D99" t="n">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E99" t="n">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F99" t="n">
-        <v>5954.9679</v>
+        <v>254.1084</v>
       </c>
       <c r="G99" t="n">
-        <v>163.6666666666667</v>
+        <v>1309054.8068</v>
       </c>
       <c r="H99" t="n">
-        <v>164.4166666666667</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>0</v>
-      </c>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="inlineStr"/>
-      <c r="N99" t="n">
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>158</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4542,36 +4455,39 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C100" t="n">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D100" t="n">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E100" t="n">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F100" t="n">
-        <v>1528585.2982</v>
+        <v>2030.8773</v>
       </c>
       <c r="G100" t="n">
-        <v>163.4666666666667</v>
+        <v>1309054.8068</v>
       </c>
       <c r="H100" t="n">
-        <v>164.4333333333333</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>0</v>
-      </c>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="inlineStr"/>
-      <c r="N100" t="n">
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>158</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4580,36 +4496,39 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C101" t="n">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D101" t="n">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E101" t="n">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="F101" t="n">
-        <v>1546113.1473</v>
+        <v>465.1165</v>
       </c>
       <c r="G101" t="n">
-        <v>163.2</v>
+        <v>1309519.9233</v>
       </c>
       <c r="H101" t="n">
-        <v>164.45</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>0</v>
-      </c>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr"/>
-      <c r="N101" t="n">
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>158</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4618,36 +4537,39 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C102" t="n">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D102" t="n">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E102" t="n">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="F102" t="n">
-        <v>1551742.2289</v>
+        <v>16019.8749</v>
       </c>
       <c r="G102" t="n">
-        <v>163.0666666666667</v>
+        <v>1309519.9233</v>
       </c>
       <c r="H102" t="n">
-        <v>164.4666666666667</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>0</v>
-      </c>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="inlineStr"/>
-      <c r="N102" t="n">
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>158</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4656,36 +4578,39 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="C103" t="n">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="D103" t="n">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="E103" t="n">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="F103" t="n">
-        <v>292709.5201</v>
+        <v>2820</v>
       </c>
       <c r="G103" t="n">
-        <v>162.9333333333333</v>
+        <v>1312339.9233</v>
       </c>
       <c r="H103" t="n">
-        <v>164.4333333333333</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>0</v>
-      </c>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="inlineStr"/>
-      <c r="N103" t="n">
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>158</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4694,37 +4619,40 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="C104" t="n">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="D104" t="n">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="E104" t="n">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="F104" t="n">
-        <v>524000</v>
+        <v>1700</v>
       </c>
       <c r="G104" t="n">
-        <v>162.7333333333333</v>
+        <v>1312339.9233</v>
       </c>
       <c r="H104" t="n">
-        <v>164.4166666666667</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="n">
-        <v>0</v>
-      </c>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="inlineStr"/>
-      <c r="N104" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>158</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M104" t="n">
+        <v>1.051962025316456</v>
       </c>
     </row>
     <row r="105">
@@ -4732,36 +4660,33 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="C105" t="n">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D105" t="n">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="E105" t="n">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="F105" t="n">
-        <v>128391.7288</v>
+        <v>7928.1262</v>
       </c>
       <c r="G105" t="n">
-        <v>162.6</v>
+        <v>1312339.9233</v>
       </c>
       <c r="H105" t="n">
-        <v>164.4166666666667</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="inlineStr"/>
-      <c r="N105" t="n">
+      <c r="M105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4770,36 +4695,33 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C106" t="n">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="D106" t="n">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="E106" t="n">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="F106" t="n">
-        <v>1248.4456</v>
+        <v>583.0492</v>
       </c>
       <c r="G106" t="n">
-        <v>162.4666666666667</v>
+        <v>1311756.8741</v>
       </c>
       <c r="H106" t="n">
-        <v>164.4166666666667</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="inlineStr"/>
-      <c r="N106" t="n">
+      <c r="M106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4808,36 +4730,33 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C107" t="n">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="D107" t="n">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="E107" t="n">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="F107" t="n">
-        <v>29747.0827</v>
+        <v>27484.0525</v>
       </c>
       <c r="G107" t="n">
-        <v>162.4666666666667</v>
+        <v>1339240.9266</v>
       </c>
       <c r="H107" t="n">
-        <v>164.4</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="inlineStr"/>
-      <c r="N107" t="n">
+      <c r="M107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4846,36 +4765,33 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C108" t="n">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D108" t="n">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="E108" t="n">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="F108" t="n">
-        <v>20882.9186</v>
+        <v>14888.8858</v>
       </c>
       <c r="G108" t="n">
-        <v>162.4</v>
+        <v>1324352.0408</v>
       </c>
       <c r="H108" t="n">
-        <v>164.3833333333333</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="inlineStr"/>
-      <c r="N108" t="n">
+      <c r="M108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4884,36 +4800,33 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C109" t="n">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D109" t="n">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E109" t="n">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F109" t="n">
-        <v>229.0987</v>
+        <v>873.1695999999999</v>
       </c>
       <c r="G109" t="n">
-        <v>162.4</v>
+        <v>1323478.8712</v>
       </c>
       <c r="H109" t="n">
-        <v>164.35</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="n">
-        <v>0</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="inlineStr"/>
-      <c r="N109" t="n">
+      <c r="M109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4922,36 +4835,33 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C110" t="n">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D110" t="n">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E110" t="n">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F110" t="n">
-        <v>223.9913</v>
+        <v>420.2315</v>
       </c>
       <c r="G110" t="n">
-        <v>162.2666666666667</v>
+        <v>1323899.1027</v>
       </c>
       <c r="H110" t="n">
-        <v>164.3333333333333</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>0</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="inlineStr"/>
-      <c r="N110" t="n">
+      <c r="M110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4972,24 +4882,21 @@
         <v>163</v>
       </c>
       <c r="F111" t="n">
-        <v>165.6652</v>
+        <v>1129.8511</v>
       </c>
       <c r="G111" t="n">
-        <v>162.2666666666667</v>
+        <v>1322769.2516</v>
       </c>
       <c r="H111" t="n">
-        <v>164.3166666666667</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
-        <v>0</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="inlineStr"/>
-      <c r="N111" t="n">
+      <c r="M111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5001,33 +4908,30 @@
         <v>163</v>
       </c>
       <c r="C112" t="n">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D112" t="n">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E112" t="n">
         <v>163</v>
       </c>
       <c r="F112" t="n">
-        <v>194.2857</v>
+        <v>2678.5163</v>
       </c>
       <c r="G112" t="n">
-        <v>162.3333333333333</v>
+        <v>1325447.7679</v>
       </c>
       <c r="H112" t="n">
-        <v>164.2833333333333</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="n">
-        <v>0</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="inlineStr"/>
-      <c r="N112" t="n">
+      <c r="M112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5036,36 +4940,33 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C113" t="n">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D113" t="n">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E113" t="n">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F113" t="n">
-        <v>607.0853</v>
+        <v>660.2408</v>
       </c>
       <c r="G113" t="n">
-        <v>162.3333333333333</v>
+        <v>1324787.5271</v>
       </c>
       <c r="H113" t="n">
-        <v>164.2333333333333</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="n">
-        <v>0</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="inlineStr"/>
-      <c r="N113" t="n">
+      <c r="M113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5074,36 +4975,33 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C114" t="n">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D114" t="n">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E114" t="n">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F114" t="n">
-        <v>1000</v>
+        <v>287.8525</v>
       </c>
       <c r="G114" t="n">
-        <v>162.4</v>
+        <v>1325075.3796</v>
       </c>
       <c r="H114" t="n">
-        <v>164.2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="n">
-        <v>0</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="inlineStr"/>
-      <c r="N114" t="n">
+      <c r="M114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5112,36 +5010,33 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C115" t="n">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D115" t="n">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="E115" t="n">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="F115" t="n">
-        <v>1132.5696</v>
+        <v>291.9879</v>
       </c>
       <c r="G115" t="n">
-        <v>162.4666666666667</v>
+        <v>1325367.3675</v>
       </c>
       <c r="H115" t="n">
-        <v>164.2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="n">
-        <v>0</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="inlineStr"/>
-      <c r="N115" t="n">
+      <c r="M115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5150,36 +5045,33 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C116" t="n">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D116" t="n">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E116" t="n">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F116" t="n">
-        <v>500</v>
+        <v>583.0493</v>
       </c>
       <c r="G116" t="n">
-        <v>162.5333333333333</v>
+        <v>1324784.3182</v>
       </c>
       <c r="H116" t="n">
-        <v>164.2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="inlineStr"/>
-      <c r="N116" t="n">
+      <c r="M116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5188,36 +5080,33 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C117" t="n">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D117" t="n">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E117" t="n">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F117" t="n">
-        <v>156.8184</v>
+        <v>432.9491</v>
       </c>
       <c r="G117" t="n">
-        <v>162.6</v>
+        <v>1324784.3182</v>
       </c>
       <c r="H117" t="n">
-        <v>164.1666666666667</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="n">
-        <v>0</v>
-      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr"/>
-      <c r="N117" t="n">
+      <c r="M117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5226,36 +5115,33 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C118" t="n">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D118" t="n">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E118" t="n">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F118" t="n">
-        <v>2250</v>
+        <v>250</v>
       </c>
       <c r="G118" t="n">
-        <v>162.6666666666667</v>
+        <v>1325034.3182</v>
       </c>
       <c r="H118" t="n">
-        <v>164.1333333333333</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="n">
-        <v>0</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="inlineStr"/>
-      <c r="N118" t="n">
+      <c r="M118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5267,33 +5153,30 @@
         <v>163</v>
       </c>
       <c r="C119" t="n">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D119" t="n">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E119" t="n">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="F119" t="n">
-        <v>6213.5246</v>
+        <v>32199.5362</v>
       </c>
       <c r="G119" t="n">
-        <v>162.9333333333333</v>
+        <v>1325034.3182</v>
       </c>
       <c r="H119" t="n">
-        <v>164.1333333333333</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="n">
-        <v>0</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="inlineStr"/>
-      <c r="N119" t="n">
+      <c r="M119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5314,24 +5197,21 @@
         <v>164</v>
       </c>
       <c r="F120" t="n">
-        <v>298.9938</v>
+        <v>1761.1186</v>
       </c>
       <c r="G120" t="n">
-        <v>163</v>
+        <v>1323273.1996</v>
       </c>
       <c r="H120" t="n">
-        <v>164.1</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="n">
-        <v>0</v>
-      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="inlineStr"/>
-      <c r="N120" t="n">
+      <c r="M120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5340,36 +5220,33 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C121" t="n">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D121" t="n">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E121" t="n">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F121" t="n">
-        <v>118.6522</v>
+        <v>920</v>
       </c>
       <c r="G121" t="n">
-        <v>163.1333333333333</v>
+        <v>1322353.1996</v>
       </c>
       <c r="H121" t="n">
-        <v>164.0666666666667</v>
+        <v>0</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="n">
-        <v>0</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="inlineStr"/>
-      <c r="N121" t="n">
+      <c r="M121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5378,36 +5255,33 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C122" t="n">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D122" t="n">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E122" t="n">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F122" t="n">
-        <v>1</v>
+        <v>698.8684</v>
       </c>
       <c r="G122" t="n">
-        <v>163.3333333333333</v>
+        <v>1323052.068</v>
       </c>
       <c r="H122" t="n">
-        <v>164.05</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="n">
-        <v>0</v>
-      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="inlineStr"/>
-      <c r="N122" t="n">
+      <c r="M122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5419,33 +5293,30 @@
         <v>163</v>
       </c>
       <c r="C123" t="n">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D123" t="n">
         <v>163</v>
       </c>
       <c r="E123" t="n">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F123" t="n">
-        <v>671.2676</v>
+        <v>305.8261</v>
       </c>
       <c r="G123" t="n">
-        <v>163.3333333333333</v>
+        <v>1323052.068</v>
       </c>
       <c r="H123" t="n">
-        <v>163.9833333333333</v>
+        <v>0</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="n">
-        <v>0</v>
-      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="inlineStr"/>
-      <c r="N123" t="n">
+      <c r="M123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5457,33 +5328,30 @@
         <v>163</v>
       </c>
       <c r="C124" t="n">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D124" t="n">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E124" t="n">
         <v>163</v>
       </c>
       <c r="F124" t="n">
-        <v>138.4957</v>
+        <v>4610.6334</v>
       </c>
       <c r="G124" t="n">
-        <v>163.3333333333333</v>
+        <v>1327662.7014</v>
       </c>
       <c r="H124" t="n">
-        <v>163.9333333333333</v>
+        <v>0</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="n">
-        <v>0</v>
-      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
-      <c r="M124" t="inlineStr"/>
-      <c r="N124" t="n">
+      <c r="M124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5504,24 +5372,21 @@
         <v>163</v>
       </c>
       <c r="F125" t="n">
-        <v>920.8207</v>
+        <v>5.9554</v>
       </c>
       <c r="G125" t="n">
-        <v>163.3333333333333</v>
+        <v>1327656.746</v>
       </c>
       <c r="H125" t="n">
-        <v>163.8833333333333</v>
+        <v>0</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="n">
-        <v>0</v>
-      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
-      <c r="M125" t="inlineStr"/>
-      <c r="N125" t="n">
+      <c r="M125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5530,36 +5395,33 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C126" t="n">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D126" t="n">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E126" t="n">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="F126" t="n">
-        <v>500</v>
+        <v>14776.27</v>
       </c>
       <c r="G126" t="n">
-        <v>163.4</v>
+        <v>1312880.476</v>
       </c>
       <c r="H126" t="n">
-        <v>163.85</v>
+        <v>0</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="n">
-        <v>0</v>
-      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
-      <c r="M126" t="inlineStr"/>
-      <c r="N126" t="n">
+      <c r="M126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5568,36 +5430,33 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C127" t="n">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D127" t="n">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E127" t="n">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F127" t="n">
-        <v>729</v>
+        <v>180.0013</v>
       </c>
       <c r="G127" t="n">
-        <v>163.4666666666667</v>
+        <v>1312880.476</v>
       </c>
       <c r="H127" t="n">
-        <v>163.8166666666667</v>
+        <v>0</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="n">
-        <v>0</v>
-      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
-      <c r="M127" t="inlineStr"/>
-      <c r="N127" t="n">
+      <c r="M127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5606,36 +5465,33 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C128" t="n">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D128" t="n">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E128" t="n">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F128" t="n">
-        <v>7420.4268</v>
+        <v>5954.9679</v>
       </c>
       <c r="G128" t="n">
-        <v>163.6</v>
+        <v>1312880.476</v>
       </c>
       <c r="H128" t="n">
-        <v>163.7833333333333</v>
+        <v>0</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="n">
-        <v>0</v>
-      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
-      <c r="M128" t="inlineStr"/>
-      <c r="N128" t="n">
+      <c r="M128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5644,36 +5500,1048 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C129" t="n">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D129" t="n">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E129" t="n">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F129" t="n">
-        <v>2109.7666</v>
+        <v>1528585.2982</v>
       </c>
       <c r="G129" t="n">
-        <v>163.6666666666667</v>
+        <v>1312880.476</v>
       </c>
       <c r="H129" t="n">
-        <v>163.75</v>
+        <v>0</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="n">
-        <v>0</v>
-      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
-      <c r="M129" t="inlineStr"/>
-      <c r="N129" t="n">
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>162</v>
+      </c>
+      <c r="C130" t="n">
+        <v>162</v>
+      </c>
+      <c r="D130" t="n">
+        <v>162</v>
+      </c>
+      <c r="E130" t="n">
+        <v>162</v>
+      </c>
+      <c r="F130" t="n">
+        <v>1546113.1473</v>
+      </c>
+      <c r="G130" t="n">
+        <v>1312880.476</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>162</v>
+      </c>
+      <c r="C131" t="n">
+        <v>162</v>
+      </c>
+      <c r="D131" t="n">
+        <v>162</v>
+      </c>
+      <c r="E131" t="n">
+        <v>162</v>
+      </c>
+      <c r="F131" t="n">
+        <v>1551742.2289</v>
+      </c>
+      <c r="G131" t="n">
+        <v>1312880.476</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>162</v>
+      </c>
+      <c r="C132" t="n">
+        <v>162</v>
+      </c>
+      <c r="D132" t="n">
+        <v>162</v>
+      </c>
+      <c r="E132" t="n">
+        <v>162</v>
+      </c>
+      <c r="F132" t="n">
+        <v>292709.5201</v>
+      </c>
+      <c r="G132" t="n">
+        <v>1312880.476</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>162</v>
+      </c>
+      <c r="C133" t="n">
+        <v>162</v>
+      </c>
+      <c r="D133" t="n">
+        <v>162</v>
+      </c>
+      <c r="E133" t="n">
+        <v>162</v>
+      </c>
+      <c r="F133" t="n">
+        <v>524000</v>
+      </c>
+      <c r="G133" t="n">
+        <v>1312880.476</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>162</v>
+      </c>
+      <c r="C134" t="n">
+        <v>163</v>
+      </c>
+      <c r="D134" t="n">
+        <v>163</v>
+      </c>
+      <c r="E134" t="n">
+        <v>162</v>
+      </c>
+      <c r="F134" t="n">
+        <v>128391.7288</v>
+      </c>
+      <c r="G134" t="n">
+        <v>1441272.2048</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>162</v>
+      </c>
+      <c r="C135" t="n">
+        <v>162</v>
+      </c>
+      <c r="D135" t="n">
+        <v>162</v>
+      </c>
+      <c r="E135" t="n">
+        <v>162</v>
+      </c>
+      <c r="F135" t="n">
+        <v>1248.4456</v>
+      </c>
+      <c r="G135" t="n">
+        <v>1440023.7592</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>162</v>
+      </c>
+      <c r="C136" t="n">
+        <v>162</v>
+      </c>
+      <c r="D136" t="n">
+        <v>162</v>
+      </c>
+      <c r="E136" t="n">
+        <v>162</v>
+      </c>
+      <c r="F136" t="n">
+        <v>29747.0827</v>
+      </c>
+      <c r="G136" t="n">
+        <v>1440023.7592</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>162</v>
+      </c>
+      <c r="C137" t="n">
+        <v>162</v>
+      </c>
+      <c r="D137" t="n">
+        <v>162</v>
+      </c>
+      <c r="E137" t="n">
+        <v>162</v>
+      </c>
+      <c r="F137" t="n">
+        <v>20882.9186</v>
+      </c>
+      <c r="G137" t="n">
+        <v>1440023.7592</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>163</v>
+      </c>
+      <c r="C138" t="n">
+        <v>163</v>
+      </c>
+      <c r="D138" t="n">
+        <v>163</v>
+      </c>
+      <c r="E138" t="n">
+        <v>163</v>
+      </c>
+      <c r="F138" t="n">
+        <v>229.0987</v>
+      </c>
+      <c r="G138" t="n">
+        <v>1440252.8579</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>163</v>
+      </c>
+      <c r="C139" t="n">
+        <v>163</v>
+      </c>
+      <c r="D139" t="n">
+        <v>163</v>
+      </c>
+      <c r="E139" t="n">
+        <v>163</v>
+      </c>
+      <c r="F139" t="n">
+        <v>223.9913</v>
+      </c>
+      <c r="G139" t="n">
+        <v>1440252.8579</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>163</v>
+      </c>
+      <c r="C140" t="n">
+        <v>163</v>
+      </c>
+      <c r="D140" t="n">
+        <v>163</v>
+      </c>
+      <c r="E140" t="n">
+        <v>163</v>
+      </c>
+      <c r="F140" t="n">
+        <v>165.6652</v>
+      </c>
+      <c r="G140" t="n">
+        <v>1440252.8579</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>163</v>
+      </c>
+      <c r="C141" t="n">
+        <v>163</v>
+      </c>
+      <c r="D141" t="n">
+        <v>163</v>
+      </c>
+      <c r="E141" t="n">
+        <v>163</v>
+      </c>
+      <c r="F141" t="n">
+        <v>194.2857</v>
+      </c>
+      <c r="G141" t="n">
+        <v>1440252.8579</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>162</v>
+      </c>
+      <c r="C142" t="n">
+        <v>162</v>
+      </c>
+      <c r="D142" t="n">
+        <v>162</v>
+      </c>
+      <c r="E142" t="n">
+        <v>162</v>
+      </c>
+      <c r="F142" t="n">
+        <v>607.0853</v>
+      </c>
+      <c r="G142" t="n">
+        <v>1439645.7726</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>163</v>
+      </c>
+      <c r="C143" t="n">
+        <v>163</v>
+      </c>
+      <c r="D143" t="n">
+        <v>163</v>
+      </c>
+      <c r="E143" t="n">
+        <v>163</v>
+      </c>
+      <c r="F143" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G143" t="n">
+        <v>1440645.7726</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>163</v>
+      </c>
+      <c r="C144" t="n">
+        <v>163</v>
+      </c>
+      <c r="D144" t="n">
+        <v>163</v>
+      </c>
+      <c r="E144" t="n">
+        <v>163</v>
+      </c>
+      <c r="F144" t="n">
+        <v>1132.5696</v>
+      </c>
+      <c r="G144" t="n">
+        <v>1440645.7726</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>163</v>
+      </c>
+      <c r="C145" t="n">
+        <v>163</v>
+      </c>
+      <c r="D145" t="n">
+        <v>163</v>
+      </c>
+      <c r="E145" t="n">
+        <v>163</v>
+      </c>
+      <c r="F145" t="n">
+        <v>500</v>
+      </c>
+      <c r="G145" t="n">
+        <v>1440645.7726</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>163</v>
+      </c>
+      <c r="C146" t="n">
+        <v>163</v>
+      </c>
+      <c r="D146" t="n">
+        <v>163</v>
+      </c>
+      <c r="E146" t="n">
+        <v>163</v>
+      </c>
+      <c r="F146" t="n">
+        <v>156.8184</v>
+      </c>
+      <c r="G146" t="n">
+        <v>1440645.7726</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>163</v>
+      </c>
+      <c r="C147" t="n">
+        <v>163</v>
+      </c>
+      <c r="D147" t="n">
+        <v>163</v>
+      </c>
+      <c r="E147" t="n">
+        <v>163</v>
+      </c>
+      <c r="F147" t="n">
+        <v>2250</v>
+      </c>
+      <c r="G147" t="n">
+        <v>1440645.7726</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>163</v>
+      </c>
+      <c r="C148" t="n">
+        <v>166</v>
+      </c>
+      <c r="D148" t="n">
+        <v>166</v>
+      </c>
+      <c r="E148" t="n">
+        <v>163</v>
+      </c>
+      <c r="F148" t="n">
+        <v>6213.5246</v>
+      </c>
+      <c r="G148" t="n">
+        <v>1446859.2972</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>164</v>
+      </c>
+      <c r="C149" t="n">
+        <v>164</v>
+      </c>
+      <c r="D149" t="n">
+        <v>164</v>
+      </c>
+      <c r="E149" t="n">
+        <v>164</v>
+      </c>
+      <c r="F149" t="n">
+        <v>298.9938</v>
+      </c>
+      <c r="G149" t="n">
+        <v>1446560.3034</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>1</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>164</v>
+      </c>
+      <c r="C150" t="n">
+        <v>164</v>
+      </c>
+      <c r="D150" t="n">
+        <v>164</v>
+      </c>
+      <c r="E150" t="n">
+        <v>164</v>
+      </c>
+      <c r="F150" t="n">
+        <v>118.6522</v>
+      </c>
+      <c r="G150" t="n">
+        <v>1446560.3034</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>1</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>165</v>
+      </c>
+      <c r="C151" t="n">
+        <v>165</v>
+      </c>
+      <c r="D151" t="n">
+        <v>165</v>
+      </c>
+      <c r="E151" t="n">
+        <v>165</v>
+      </c>
+      <c r="F151" t="n">
+        <v>1</v>
+      </c>
+      <c r="G151" t="n">
+        <v>1446561.3034</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>1</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>163</v>
+      </c>
+      <c r="C152" t="n">
+        <v>162</v>
+      </c>
+      <c r="D152" t="n">
+        <v>163</v>
+      </c>
+      <c r="E152" t="n">
+        <v>162</v>
+      </c>
+      <c r="F152" t="n">
+        <v>671.2676</v>
+      </c>
+      <c r="G152" t="n">
+        <v>1445890.0358</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>1</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>163</v>
+      </c>
+      <c r="C153" t="n">
+        <v>163</v>
+      </c>
+      <c r="D153" t="n">
+        <v>163</v>
+      </c>
+      <c r="E153" t="n">
+        <v>163</v>
+      </c>
+      <c r="F153" t="n">
+        <v>138.4957</v>
+      </c>
+      <c r="G153" t="n">
+        <v>1446028.5315</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>163</v>
+      </c>
+      <c r="C154" t="n">
+        <v>163</v>
+      </c>
+      <c r="D154" t="n">
+        <v>163</v>
+      </c>
+      <c r="E154" t="n">
+        <v>163</v>
+      </c>
+      <c r="F154" t="n">
+        <v>920.8207</v>
+      </c>
+      <c r="G154" t="n">
+        <v>1446028.5315</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>163</v>
+      </c>
+      <c r="C155" t="n">
+        <v>164</v>
+      </c>
+      <c r="D155" t="n">
+        <v>164</v>
+      </c>
+      <c r="E155" t="n">
+        <v>163</v>
+      </c>
+      <c r="F155" t="n">
+        <v>500</v>
+      </c>
+      <c r="G155" t="n">
+        <v>1446528.5315</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>163</v>
+      </c>
+      <c r="C156" t="n">
+        <v>164</v>
+      </c>
+      <c r="D156" t="n">
+        <v>164</v>
+      </c>
+      <c r="E156" t="n">
+        <v>163</v>
+      </c>
+      <c r="F156" t="n">
+        <v>729</v>
+      </c>
+      <c r="G156" t="n">
+        <v>1446528.5315</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>164</v>
+      </c>
+      <c r="C157" t="n">
+        <v>164</v>
+      </c>
+      <c r="D157" t="n">
+        <v>164</v>
+      </c>
+      <c r="E157" t="n">
+        <v>164</v>
+      </c>
+      <c r="F157" t="n">
+        <v>7420.4268</v>
+      </c>
+      <c r="G157" t="n">
+        <v>1446528.5315</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>1</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>164</v>
+      </c>
+      <c r="C158" t="n">
+        <v>164</v>
+      </c>
+      <c r="D158" t="n">
+        <v>164</v>
+      </c>
+      <c r="E158" t="n">
+        <v>164</v>
+      </c>
+      <c r="F158" t="n">
+        <v>2109.7666</v>
+      </c>
+      <c r="G158" t="n">
+        <v>1446528.5315</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>1</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-11-02 BackTest ITC.xlsx
+++ b/BackTest/2019-11-02 BackTest ITC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M158"/>
+  <dimension ref="A1:N116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,31 +427,36 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C2" t="n">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="D2" t="n">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="E2" t="n">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="F2" t="n">
-        <v>139.3043</v>
+        <v>3342.5789</v>
       </c>
       <c r="G2" t="n">
-        <v>-97086.06360000001</v>
+        <v>-81912.40950000001</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -462,28 +467,29 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="C3" t="n">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="D3" t="n">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="E3" t="n">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="F3" t="n">
-        <v>170.5</v>
+        <v>16459.1045</v>
       </c>
       <c r="G3" t="n">
-        <v>-97086.06360000001</v>
+        <v>-81912.40950000001</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
@@ -492,37 +498,38 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="K3" t="n">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="C4" t="n">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="D4" t="n">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="E4" t="n">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="F4" t="n">
-        <v>4363.58</v>
+        <v>10667.9503</v>
       </c>
       <c r="G4" t="n">
-        <v>-97086.06360000001</v>
+        <v>-81912.40950000001</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
@@ -531,41 +538,42 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="K4" t="n">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C5" t="n">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="D5" t="n">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E5" t="n">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="F5" t="n">
-        <v>659.9566</v>
+        <v>2173.4452</v>
       </c>
       <c r="G5" t="n">
-        <v>-96426.107</v>
+        <v>-84085.85470000001</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
@@ -574,174 +582,182 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="K5" t="n">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C6" t="n">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="D6" t="n">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E6" t="n">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="F6" t="n">
-        <v>750</v>
+        <v>6252.6382</v>
       </c>
       <c r="G6" t="n">
-        <v>-96426.107</v>
+        <v>-84085.85470000001</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>163</v>
+      </c>
       <c r="K6" t="n">
-        <v>158</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C7" t="n">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D7" t="n">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E7" t="n">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="F7" t="n">
-        <v>139.1304</v>
+        <v>2709.7823</v>
       </c>
       <c r="G7" t="n">
-        <v>-96426.107</v>
+        <v>-86795.63700000002</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>163</v>
+      </c>
       <c r="K7" t="n">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C8" t="n">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="D8" t="n">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="E8" t="n">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="F8" t="n">
-        <v>1292</v>
+        <v>14372.6274</v>
       </c>
       <c r="G8" t="n">
-        <v>-96426.107</v>
+        <v>-72423.00960000002</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>162</v>
+      </c>
       <c r="K8" t="n">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="C9" t="n">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D9" t="n">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E9" t="n">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="F9" t="n">
-        <v>12088.4325</v>
+        <v>247.6951</v>
       </c>
       <c r="G9" t="n">
-        <v>-84337.67450000001</v>
+        <v>-72423.00960000002</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>164</v>
+      </c>
       <c r="K9" t="n">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
@@ -751,38 +767,41 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C10" t="n">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D10" t="n">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E10" t="n">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F10" t="n">
-        <v>150</v>
+        <v>5200.0003</v>
       </c>
       <c r="G10" t="n">
-        <v>-84487.67450000001</v>
+        <v>-77623.00990000002</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>164</v>
+      </c>
       <c r="K10" t="n">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
@@ -792,38 +811,41 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
+        <v>163</v>
+      </c>
+      <c r="C11" t="n">
+        <v>163</v>
+      </c>
+      <c r="D11" t="n">
+        <v>163</v>
+      </c>
+      <c r="E11" t="n">
+        <v>163</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1770.5912</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-75852.41870000002</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
         <v>160</v>
       </c>
-      <c r="C11" t="n">
-        <v>160</v>
-      </c>
-      <c r="D11" t="n">
-        <v>160</v>
-      </c>
-      <c r="E11" t="n">
-        <v>160</v>
-      </c>
-      <c r="F11" t="n">
-        <v>5656.7997</v>
-      </c>
-      <c r="G11" t="n">
-        <v>-78830.87480000001</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
       <c r="K11" t="n">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
@@ -833,38 +855,41 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C12" t="n">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="D12" t="n">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E12" t="n">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="F12" t="n">
-        <v>2837.6741</v>
+        <v>2250</v>
       </c>
       <c r="G12" t="n">
-        <v>-81668.54890000001</v>
+        <v>-75852.41870000002</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>163</v>
+      </c>
       <c r="K12" t="n">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="L12" t="inlineStr">
         <is>
@@ -874,38 +899,41 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C13" t="n">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D13" t="n">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E13" t="n">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F13" t="n">
-        <v>375.9628</v>
+        <v>4771.3378</v>
       </c>
       <c r="G13" t="n">
-        <v>-81292.58610000001</v>
+        <v>-75852.41870000002</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>163</v>
+      </c>
       <c r="K13" t="n">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
@@ -915,38 +943,41 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C14" t="n">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="D14" t="n">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E14" t="n">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="F14" t="n">
-        <v>289.381</v>
+        <v>20.0723</v>
       </c>
       <c r="G14" t="n">
-        <v>-81581.96710000001</v>
+        <v>-75852.41870000002</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>163</v>
+      </c>
       <c r="K14" t="n">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
@@ -956,38 +987,41 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C15" t="n">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="D15" t="n">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E15" t="n">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="F15" t="n">
-        <v>4359.4952</v>
+        <v>1733.3255</v>
       </c>
       <c r="G15" t="n">
-        <v>-81581.96710000001</v>
+        <v>-75852.41870000002</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>163</v>
+      </c>
       <c r="K15" t="n">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="L15" t="inlineStr">
         <is>
@@ -997,28 +1031,29 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C16" t="n">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="D16" t="n">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="E16" t="n">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="F16" t="n">
-        <v>668.3892</v>
+        <v>99.5924</v>
       </c>
       <c r="G16" t="n">
-        <v>-81581.96710000001</v>
+        <v>-75852.41870000002</v>
       </c>
       <c r="H16" t="n">
         <v>1</v>
@@ -1027,10 +1062,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="K16" t="n">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
@@ -1040,28 +1075,29 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C17" t="n">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="D17" t="n">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E17" t="n">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="F17" t="n">
-        <v>3200</v>
+        <v>2045.4022</v>
       </c>
       <c r="G17" t="n">
-        <v>-84781.96710000001</v>
+        <v>-75852.41870000002</v>
       </c>
       <c r="H17" t="n">
         <v>1</v>
@@ -1070,10 +1106,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="K17" t="n">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="L17" t="inlineStr">
         <is>
@@ -1083,28 +1119,29 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C18" t="n">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="D18" t="n">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E18" t="n">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="F18" t="n">
-        <v>108.0168</v>
+        <v>711.1214</v>
       </c>
       <c r="G18" t="n">
-        <v>-84673.95030000001</v>
+        <v>-75852.41870000002</v>
       </c>
       <c r="H18" t="n">
         <v>1</v>
@@ -1113,10 +1150,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="K18" t="n">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="L18" t="inlineStr">
         <is>
@@ -1126,38 +1163,41 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C19" t="n">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="D19" t="n">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E19" t="n">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="F19" t="n">
-        <v>28402.461</v>
+        <v>924.4579</v>
       </c>
       <c r="G19" t="n">
-        <v>-84673.95030000001</v>
+        <v>-75852.41870000002</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>163</v>
+      </c>
       <c r="K19" t="n">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="L19" t="inlineStr">
         <is>
@@ -1167,38 +1207,41 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="C20" t="n">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="D20" t="n">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="E20" t="n">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="F20" t="n">
-        <v>1354.9763</v>
+        <v>28116.585</v>
       </c>
       <c r="G20" t="n">
-        <v>-84673.95030000001</v>
+        <v>-47735.83370000002</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>163</v>
+      </c>
       <c r="K20" t="n">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="L20" t="inlineStr">
         <is>
@@ -1208,28 +1251,29 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C21" t="n">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="D21" t="n">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E21" t="n">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="F21" t="n">
-        <v>198.1673</v>
+        <v>255.1469</v>
       </c>
       <c r="G21" t="n">
-        <v>-84475.78300000001</v>
+        <v>-47990.98060000002</v>
       </c>
       <c r="H21" t="n">
         <v>1</v>
@@ -1238,10 +1282,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="K21" t="n">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="L21" t="inlineStr">
         <is>
@@ -1251,38 +1295,41 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C22" t="n">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D22" t="n">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E22" t="n">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F22" t="n">
-        <v>750</v>
+        <v>7560.3121</v>
       </c>
       <c r="G22" t="n">
-        <v>-83725.78300000001</v>
+        <v>-47990.98060000002</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>164</v>
+      </c>
       <c r="K22" t="n">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="L22" t="inlineStr">
         <is>
@@ -1292,28 +1339,29 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C23" t="n">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D23" t="n">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E23" t="n">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F23" t="n">
-        <v>132.2</v>
+        <v>255</v>
       </c>
       <c r="G23" t="n">
-        <v>-83725.78300000001</v>
+        <v>-48245.98060000002</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1323,7 +1371,7 @@
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="n">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="L23" t="inlineStr">
         <is>
@@ -1333,28 +1381,29 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C24" t="n">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D24" t="n">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E24" t="n">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="F24" t="n">
-        <v>2394.9164</v>
+        <v>119.7348</v>
       </c>
       <c r="G24" t="n">
-        <v>-83725.78300000001</v>
+        <v>-48126.24580000003</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1364,7 +1413,7 @@
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="n">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="L24" t="inlineStr">
         <is>
@@ -1374,6 +1423,7 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1386,16 +1436,16 @@
         <v>164</v>
       </c>
       <c r="D25" t="n">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E25" t="n">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F25" t="n">
-        <v>4338.5708</v>
+        <v>12759.1272</v>
       </c>
       <c r="G25" t="n">
-        <v>-79387.21220000001</v>
+        <v>-48126.24580000003</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1405,7 +1455,7 @@
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="n">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="L25" t="inlineStr">
         <is>
@@ -1415,28 +1465,29 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C26" t="n">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D26" t="n">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E26" t="n">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F26" t="n">
-        <v>121.951</v>
+        <v>251.2436</v>
       </c>
       <c r="G26" t="n">
-        <v>-79387.21220000001</v>
+        <v>-48377.48940000003</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1446,7 +1497,7 @@
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="n">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
@@ -1456,28 +1507,29 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C27" t="n">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D27" t="n">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E27" t="n">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F27" t="n">
-        <v>8056.8708</v>
+        <v>8808.8068</v>
       </c>
       <c r="G27" t="n">
-        <v>-87444.08300000001</v>
+        <v>-57186.29620000003</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1487,7 +1539,7 @@
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="n">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
@@ -1497,28 +1549,29 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C28" t="n">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D28" t="n">
         <v>162</v>
       </c>
       <c r="E28" t="n">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F28" t="n">
-        <v>3648</v>
+        <v>7123.1247</v>
       </c>
       <c r="G28" t="n">
-        <v>-91092.08300000001</v>
+        <v>-57186.29620000003</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1528,7 +1581,7 @@
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="n">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
@@ -1538,28 +1591,29 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C29" t="n">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D29" t="n">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E29" t="n">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F29" t="n">
-        <v>7805.9234</v>
+        <v>131.4609</v>
       </c>
       <c r="G29" t="n">
-        <v>-83286.15960000001</v>
+        <v>-57186.29620000003</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1569,7 +1623,7 @@
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="n">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="L29" t="inlineStr">
         <is>
@@ -1579,6 +1633,7 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1597,10 +1652,10 @@
         <v>163</v>
       </c>
       <c r="F30" t="n">
-        <v>1698.2609</v>
+        <v>314.8952</v>
       </c>
       <c r="G30" t="n">
-        <v>-83286.15960000001</v>
+        <v>-56871.40100000003</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1610,7 +1665,7 @@
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="n">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="L30" t="inlineStr">
         <is>
@@ -1620,28 +1675,29 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C31" t="n">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D31" t="n">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E31" t="n">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F31" t="n">
-        <v>4040</v>
+        <v>450</v>
       </c>
       <c r="G31" t="n">
-        <v>-83286.15960000001</v>
+        <v>-57321.40100000003</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1651,7 +1707,7 @@
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="n">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="L31" t="inlineStr">
         <is>
@@ -1661,6 +1717,7 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1679,10 +1736,10 @@
         <v>163</v>
       </c>
       <c r="F32" t="n">
-        <v>4776.0158</v>
+        <v>2041.9974</v>
       </c>
       <c r="G32" t="n">
-        <v>-88062.17540000001</v>
+        <v>-57321.40100000003</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1692,7 +1749,7 @@
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="n">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
@@ -1702,28 +1759,29 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C33" t="n">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D33" t="n">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E33" t="n">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F33" t="n">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="G33" t="n">
-        <v>-87062.17540000001</v>
+        <v>-57322.40100000003</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1733,7 +1791,7 @@
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="n">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
@@ -1743,6 +1801,7 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1761,10 +1820,10 @@
         <v>163</v>
       </c>
       <c r="F34" t="n">
-        <v>2000</v>
+        <v>1840.865</v>
       </c>
       <c r="G34" t="n">
-        <v>-89062.17540000001</v>
+        <v>-55481.53600000003</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1774,7 +1833,7 @@
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="n">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="L34" t="inlineStr">
         <is>
@@ -1784,28 +1843,29 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C35" t="n">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D35" t="n">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E35" t="n">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F35" t="n">
-        <v>652.1177</v>
+        <v>6754.3619</v>
       </c>
       <c r="G35" t="n">
-        <v>-89714.29310000001</v>
+        <v>-55481.53600000003</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1815,7 +1875,7 @@
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="n">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="L35" t="inlineStr">
         <is>
@@ -1825,6 +1885,7 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1834,19 +1895,19 @@
         <v>164</v>
       </c>
       <c r="C36" t="n">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D36" t="n">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E36" t="n">
         <v>164</v>
       </c>
       <c r="F36" t="n">
-        <v>1.6371</v>
+        <v>480</v>
       </c>
       <c r="G36" t="n">
-        <v>-89712.656</v>
+        <v>-55001.53600000003</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1856,7 +1917,7 @@
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="n">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="L36" t="inlineStr">
         <is>
@@ -1866,28 +1927,29 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C37" t="n">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D37" t="n">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E37" t="n">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F37" t="n">
-        <v>295.615</v>
+        <v>234.8681</v>
       </c>
       <c r="G37" t="n">
-        <v>-90008.27100000001</v>
+        <v>-55236.40410000003</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1897,7 +1959,7 @@
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="n">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
@@ -1907,28 +1969,29 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C38" t="n">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D38" t="n">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E38" t="n">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F38" t="n">
-        <v>1225.6269</v>
+        <v>8326.9902</v>
       </c>
       <c r="G38" t="n">
-        <v>-90008.27100000001</v>
+        <v>-55236.40410000003</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1938,7 +2001,7 @@
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="n">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="L38" t="inlineStr">
         <is>
@@ -1948,28 +2011,29 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C39" t="n">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D39" t="n">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E39" t="n">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="F39" t="n">
-        <v>4479.1325</v>
+        <v>1339605.5805</v>
       </c>
       <c r="G39" t="n">
-        <v>-90008.27100000001</v>
+        <v>1284369.1764</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1979,7 +2043,7 @@
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="n">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="L39" t="inlineStr">
         <is>
@@ -1989,28 +2053,29 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C40" t="n">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D40" t="n">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E40" t="n">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="F40" t="n">
-        <v>1368.7348</v>
+        <v>619101.9840000001</v>
       </c>
       <c r="G40" t="n">
-        <v>-90008.27100000001</v>
+        <v>1284369.1764</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2020,7 +2085,7 @@
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="n">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="L40" t="inlineStr">
         <is>
@@ -2030,28 +2095,29 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C41" t="n">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D41" t="n">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E41" t="n">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="F41" t="n">
-        <v>183.7028</v>
+        <v>21.3757</v>
       </c>
       <c r="G41" t="n">
-        <v>-90008.27100000001</v>
+        <v>1284369.1764</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2061,7 +2127,7 @@
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="n">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
@@ -2071,6 +2137,7 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2089,10 +2156,10 @@
         <v>163</v>
       </c>
       <c r="F42" t="n">
-        <v>4753.2826</v>
+        <v>7452.3191</v>
       </c>
       <c r="G42" t="n">
-        <v>-85254.9884</v>
+        <v>1276916.8573</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2102,7 +2169,7 @@
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="n">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="L42" t="inlineStr">
         <is>
@@ -2112,6 +2179,7 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2130,10 +2198,10 @@
         <v>163</v>
       </c>
       <c r="F43" t="n">
-        <v>1020.2332</v>
+        <v>3192.6001</v>
       </c>
       <c r="G43" t="n">
-        <v>-85254.9884</v>
+        <v>1276916.8573</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2143,7 +2211,7 @@
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="n">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="L43" t="inlineStr">
         <is>
@@ -2153,28 +2221,29 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C44" t="n">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D44" t="n">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E44" t="n">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="F44" t="n">
-        <v>3342.5789</v>
+        <v>1213.6242</v>
       </c>
       <c r="G44" t="n">
-        <v>-81912.40950000001</v>
+        <v>1278130.4815</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2184,7 +2253,7 @@
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="n">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
@@ -2194,28 +2263,29 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C45" t="n">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D45" t="n">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E45" t="n">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F45" t="n">
-        <v>16459.1045</v>
+        <v>10</v>
       </c>
       <c r="G45" t="n">
-        <v>-81912.40950000001</v>
+        <v>1278130.4815</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2225,7 +2295,7 @@
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="n">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
@@ -2235,28 +2305,29 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C46" t="n">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D46" t="n">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E46" t="n">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F46" t="n">
-        <v>10667.9503</v>
+        <v>31178.4337</v>
       </c>
       <c r="G46" t="n">
-        <v>-81912.40950000001</v>
+        <v>1309308.9152</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2266,7 +2337,7 @@
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="n">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="L46" t="inlineStr">
         <is>
@@ -2276,28 +2347,29 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C47" t="n">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D47" t="n">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="E47" t="n">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="F47" t="n">
-        <v>2173.4452</v>
+        <v>16305.9988</v>
       </c>
       <c r="G47" t="n">
-        <v>-84085.85470000001</v>
+        <v>1309308.9152</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2307,7 +2379,7 @@
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="n">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="L47" t="inlineStr">
         <is>
@@ -2317,28 +2389,29 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C48" t="n">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D48" t="n">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="E48" t="n">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="F48" t="n">
-        <v>6252.6382</v>
+        <v>1125.0166</v>
       </c>
       <c r="G48" t="n">
-        <v>-84085.85470000001</v>
+        <v>1309308.9152</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2348,7 +2421,7 @@
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="n">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="L48" t="inlineStr">
         <is>
@@ -2358,28 +2431,29 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C49" t="n">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="D49" t="n">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="E49" t="n">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="F49" t="n">
-        <v>2709.7823</v>
+        <v>1324.8518</v>
       </c>
       <c r="G49" t="n">
-        <v>-86795.63700000002</v>
+        <v>1309308.9152</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2389,7 +2463,7 @@
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="n">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="L49" t="inlineStr">
         <is>
@@ -2399,28 +2473,29 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C50" t="n">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D50" t="n">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E50" t="n">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="F50" t="n">
-        <v>14372.6274</v>
+        <v>704.731</v>
       </c>
       <c r="G50" t="n">
-        <v>-72423.00960000002</v>
+        <v>1309308.9152</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2430,7 +2505,7 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="n">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="L50" t="inlineStr">
         <is>
@@ -2440,28 +2515,29 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C51" t="n">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D51" t="n">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E51" t="n">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F51" t="n">
-        <v>247.6951</v>
+        <v>9636.054400000001</v>
       </c>
       <c r="G51" t="n">
-        <v>-72423.00960000002</v>
+        <v>1309308.9152</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2471,7 +2547,7 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="n">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="L51" t="inlineStr">
         <is>
@@ -2481,28 +2557,29 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C52" t="n">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="D52" t="n">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="E52" t="n">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="F52" t="n">
-        <v>5200.0003</v>
+        <v>4663.5098</v>
       </c>
       <c r="G52" t="n">
-        <v>-77623.00990000002</v>
+        <v>1309308.9152</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2512,7 +2589,7 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="n">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="L52" t="inlineStr">
         <is>
@@ -2522,28 +2599,29 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C53" t="n">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D53" t="n">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="E53" t="n">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="F53" t="n">
-        <v>1770.5912</v>
+        <v>6480.0936</v>
       </c>
       <c r="G53" t="n">
-        <v>-75852.41870000002</v>
+        <v>1309308.9152</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2553,7 +2631,7 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="n">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="L53" t="inlineStr">
         <is>
@@ -2563,28 +2641,29 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C54" t="n">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D54" t="n">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="E54" t="n">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="F54" t="n">
-        <v>2250</v>
+        <v>693.4496</v>
       </c>
       <c r="G54" t="n">
-        <v>-75852.41870000002</v>
+        <v>1309308.9152</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2594,7 +2673,7 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="n">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="L54" t="inlineStr">
         <is>
@@ -2604,28 +2683,29 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C55" t="n">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D55" t="n">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="E55" t="n">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="F55" t="n">
-        <v>4771.3378</v>
+        <v>826.9985</v>
       </c>
       <c r="G55" t="n">
-        <v>-75852.41870000002</v>
+        <v>1309308.9152</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2635,7 +2715,7 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="n">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="L55" t="inlineStr">
         <is>
@@ -2645,28 +2725,29 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C56" t="n">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D56" t="n">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="E56" t="n">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="F56" t="n">
-        <v>20.0723</v>
+        <v>1570.2579</v>
       </c>
       <c r="G56" t="n">
-        <v>-75852.41870000002</v>
+        <v>1309308.9152</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2676,7 +2757,7 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="n">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="L56" t="inlineStr">
         <is>
@@ -2686,28 +2767,29 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C57" t="n">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D57" t="n">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E57" t="n">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F57" t="n">
-        <v>1733.3255</v>
+        <v>254.1084</v>
       </c>
       <c r="G57" t="n">
-        <v>-75852.41870000002</v>
+        <v>1309054.8068</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2717,7 +2799,7 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="n">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="L57" t="inlineStr">
         <is>
@@ -2727,6 +2809,7 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2736,19 +2819,19 @@
         <v>163</v>
       </c>
       <c r="C58" t="n">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D58" t="n">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E58" t="n">
         <v>163</v>
       </c>
       <c r="F58" t="n">
-        <v>99.5924</v>
+        <v>2030.8773</v>
       </c>
       <c r="G58" t="n">
-        <v>-75852.41870000002</v>
+        <v>1309054.8068</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2758,7 +2841,7 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="n">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="L58" t="inlineStr">
         <is>
@@ -2768,28 +2851,29 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C59" t="n">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D59" t="n">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E59" t="n">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F59" t="n">
-        <v>2045.4022</v>
+        <v>465.1165</v>
       </c>
       <c r="G59" t="n">
-        <v>-75852.41870000002</v>
+        <v>1309519.9233</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2799,7 +2883,7 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="n">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="L59" t="inlineStr">
         <is>
@@ -2809,28 +2893,29 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C60" t="n">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D60" t="n">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E60" t="n">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F60" t="n">
-        <v>711.1214</v>
+        <v>16019.8749</v>
       </c>
       <c r="G60" t="n">
-        <v>-75852.41870000002</v>
+        <v>1309519.9233</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2840,7 +2925,7 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="n">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="L60" t="inlineStr">
         <is>
@@ -2850,28 +2935,29 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C61" t="n">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D61" t="n">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="E61" t="n">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="F61" t="n">
-        <v>924.4579</v>
+        <v>2820</v>
       </c>
       <c r="G61" t="n">
-        <v>-75852.41870000002</v>
+        <v>1312339.9233</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2881,7 +2967,7 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="n">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="L61" t="inlineStr">
         <is>
@@ -2891,151 +2977,143 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C62" t="n">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D62" t="n">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E62" t="n">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F62" t="n">
-        <v>28116.585</v>
+        <v>1700</v>
       </c>
       <c r="G62" t="n">
-        <v>-47735.83370000002</v>
+        <v>1312339.9233</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="n">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M62" t="n">
-        <v>1</v>
-      </c>
+        <v>1.019539877300614</v>
+      </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C63" t="n">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D63" t="n">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="E63" t="n">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="F63" t="n">
-        <v>255.1469</v>
+        <v>7928.1262</v>
       </c>
       <c r="G63" t="n">
-        <v>-47990.98060000002</v>
+        <v>1312339.9233</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>158</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C64" t="n">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D64" t="n">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E64" t="n">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="F64" t="n">
-        <v>7560.3121</v>
+        <v>583.0492</v>
       </c>
       <c r="G64" t="n">
-        <v>-47990.98060000002</v>
+        <v>1311756.8741</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>158</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C65" t="n">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="D65" t="n">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="E65" t="n">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="F65" t="n">
-        <v>255</v>
+        <v>27484.0525</v>
       </c>
       <c r="G65" t="n">
-        <v>-48245.98060000002</v>
+        <v>1339240.9266</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -3044,39 +3122,34 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>158</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C66" t="n">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D66" t="n">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E66" t="n">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F66" t="n">
-        <v>119.7348</v>
+        <v>14888.8858</v>
       </c>
       <c r="G66" t="n">
-        <v>-48126.24580000003</v>
+        <v>1324352.0408</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -3085,39 +3158,34 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>158</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C67" t="n">
         <v>164</v>
       </c>
       <c r="D67" t="n">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E67" t="n">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="F67" t="n">
-        <v>12759.1272</v>
+        <v>873.1695999999999</v>
       </c>
       <c r="G67" t="n">
-        <v>-48126.24580000003</v>
+        <v>1323478.8712</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -3126,39 +3194,34 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>158</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C68" t="n">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D68" t="n">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E68" t="n">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="F68" t="n">
-        <v>251.2436</v>
+        <v>420.2315</v>
       </c>
       <c r="G68" t="n">
-        <v>-48377.48940000003</v>
+        <v>1323899.1027</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3167,39 +3230,34 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>158</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C69" t="n">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D69" t="n">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E69" t="n">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F69" t="n">
-        <v>8808.8068</v>
+        <v>1129.8511</v>
       </c>
       <c r="G69" t="n">
-        <v>-57186.29620000003</v>
+        <v>1322769.2516</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3208,39 +3266,34 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>158</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C70" t="n">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="D70" t="n">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E70" t="n">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="F70" t="n">
-        <v>7123.1247</v>
+        <v>2678.5163</v>
       </c>
       <c r="G70" t="n">
-        <v>-57186.29620000003</v>
+        <v>1325447.7679</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3249,39 +3302,34 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>158</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C71" t="n">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D71" t="n">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E71" t="n">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="F71" t="n">
-        <v>131.4609</v>
+        <v>660.2408</v>
       </c>
       <c r="G71" t="n">
-        <v>-57186.29620000003</v>
+        <v>1324787.5271</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3290,39 +3338,34 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>158</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C72" t="n">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D72" t="n">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E72" t="n">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F72" t="n">
-        <v>314.8952</v>
+        <v>287.8525</v>
       </c>
       <c r="G72" t="n">
-        <v>-56871.40100000003</v>
+        <v>1325075.3796</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3331,39 +3374,34 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>158</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C73" t="n">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D73" t="n">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="E73" t="n">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="F73" t="n">
-        <v>450</v>
+        <v>291.9879</v>
       </c>
       <c r="G73" t="n">
-        <v>-57321.40100000003</v>
+        <v>1325367.3675</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3372,80 +3410,70 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>158</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C74" t="n">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D74" t="n">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E74" t="n">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F74" t="n">
-        <v>2041.9974</v>
+        <v>583.0493</v>
       </c>
       <c r="G74" t="n">
-        <v>-57321.40100000003</v>
+        <v>1324784.3182</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>158</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C75" t="n">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D75" t="n">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E75" t="n">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F75" t="n">
-        <v>1</v>
+        <v>432.9491</v>
       </c>
       <c r="G75" t="n">
-        <v>-57322.40100000003</v>
+        <v>1324784.3182</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3454,58 +3482,48 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>158</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C76" t="n">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D76" t="n">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E76" t="n">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F76" t="n">
-        <v>1840.865</v>
+        <v>250</v>
       </c>
       <c r="G76" t="n">
-        <v>-55481.53600000003</v>
+        <v>1325034.3182</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>158</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3515,38 +3533,33 @@
         <v>163</v>
       </c>
       <c r="C77" t="n">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D77" t="n">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E77" t="n">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="F77" t="n">
-        <v>6754.3619</v>
+        <v>32199.5362</v>
       </c>
       <c r="G77" t="n">
-        <v>-55481.53600000003</v>
+        <v>1325034.3182</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>158</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3556,168 +3569,148 @@
         <v>164</v>
       </c>
       <c r="C78" t="n">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D78" t="n">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E78" t="n">
         <v>164</v>
       </c>
       <c r="F78" t="n">
-        <v>480</v>
+        <v>1761.1186</v>
       </c>
       <c r="G78" t="n">
-        <v>-55001.53600000003</v>
+        <v>1323273.1996</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>158</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C79" t="n">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D79" t="n">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E79" t="n">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F79" t="n">
-        <v>234.8681</v>
+        <v>920</v>
       </c>
       <c r="G79" t="n">
-        <v>-55236.40410000003</v>
+        <v>1322353.1996</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>158</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C80" t="n">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D80" t="n">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E80" t="n">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F80" t="n">
-        <v>8326.9902</v>
+        <v>698.8684</v>
       </c>
       <c r="G80" t="n">
-        <v>-55236.40410000003</v>
+        <v>1323052.068</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>158</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C81" t="n">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D81" t="n">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E81" t="n">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F81" t="n">
-        <v>1339605.5805</v>
+        <v>305.8261</v>
       </c>
       <c r="G81" t="n">
-        <v>1284369.1764</v>
+        <v>1323052.068</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>158</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C82" t="n">
         <v>165</v>
@@ -3726,95 +3719,85 @@
         <v>165</v>
       </c>
       <c r="E82" t="n">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F82" t="n">
-        <v>619101.9840000001</v>
+        <v>4610.6334</v>
       </c>
       <c r="G82" t="n">
-        <v>1284369.1764</v>
+        <v>1327662.7014</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>158</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C83" t="n">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D83" t="n">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E83" t="n">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F83" t="n">
-        <v>21.3757</v>
+        <v>5.9554</v>
       </c>
       <c r="G83" t="n">
-        <v>1284369.1764</v>
+        <v>1327656.746</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>158</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C84" t="n">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D84" t="n">
         <v>163</v>
       </c>
       <c r="E84" t="n">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="F84" t="n">
-        <v>7452.3191</v>
+        <v>14776.27</v>
       </c>
       <c r="G84" t="n">
-        <v>1276916.8573</v>
+        <v>1312880.476</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3823,39 +3806,34 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>158</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C85" t="n">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D85" t="n">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E85" t="n">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F85" t="n">
-        <v>3192.6001</v>
+        <v>180.0013</v>
       </c>
       <c r="G85" t="n">
-        <v>1276916.8573</v>
+        <v>1312880.476</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3864,39 +3842,34 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>158</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C86" t="n">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D86" t="n">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E86" t="n">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F86" t="n">
-        <v>1213.6242</v>
+        <v>5954.9679</v>
       </c>
       <c r="G86" t="n">
-        <v>1278130.4815</v>
+        <v>1312880.476</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3905,39 +3878,34 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>158</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C87" t="n">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D87" t="n">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E87" t="n">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F87" t="n">
-        <v>10</v>
+        <v>1528585.2982</v>
       </c>
       <c r="G87" t="n">
-        <v>1278130.4815</v>
+        <v>1312880.476</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3946,244 +3914,214 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>158</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C88" t="n">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D88" t="n">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E88" t="n">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F88" t="n">
-        <v>31178.4337</v>
+        <v>1546113.1473</v>
       </c>
       <c r="G88" t="n">
-        <v>1309308.9152</v>
+        <v>1312880.476</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>158</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C89" t="n">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D89" t="n">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E89" t="n">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="F89" t="n">
-        <v>16305.9988</v>
+        <v>1551742.2289</v>
       </c>
       <c r="G89" t="n">
-        <v>1309308.9152</v>
+        <v>1312880.476</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>158</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C90" t="n">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D90" t="n">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E90" t="n">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="F90" t="n">
-        <v>1125.0166</v>
+        <v>292709.5201</v>
       </c>
       <c r="G90" t="n">
-        <v>1309308.9152</v>
+        <v>1312880.476</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>158</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C91" t="n">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D91" t="n">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E91" t="n">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="F91" t="n">
-        <v>1324.8518</v>
+        <v>524000</v>
       </c>
       <c r="G91" t="n">
-        <v>1309308.9152</v>
+        <v>1312880.476</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>158</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C92" t="n">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D92" t="n">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E92" t="n">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="F92" t="n">
-        <v>704.731</v>
+        <v>128391.7288</v>
       </c>
       <c r="G92" t="n">
-        <v>1309308.9152</v>
+        <v>1441272.2048</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>158</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C93" t="n">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D93" t="n">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E93" t="n">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="F93" t="n">
-        <v>9636.054400000001</v>
+        <v>1248.4456</v>
       </c>
       <c r="G93" t="n">
-        <v>1309308.9152</v>
+        <v>1440023.7592</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -4192,80 +4130,70 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>158</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C94" t="n">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D94" t="n">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E94" t="n">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="F94" t="n">
-        <v>4663.5098</v>
+        <v>29747.0827</v>
       </c>
       <c r="G94" t="n">
-        <v>1309308.9152</v>
+        <v>1440023.7592</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>158</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C95" t="n">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D95" t="n">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E95" t="n">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="F95" t="n">
-        <v>6480.0936</v>
+        <v>20882.9186</v>
       </c>
       <c r="G95" t="n">
-        <v>1309308.9152</v>
+        <v>1440023.7592</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4274,39 +4202,34 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>158</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C96" t="n">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D96" t="n">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E96" t="n">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F96" t="n">
-        <v>693.4496</v>
+        <v>229.0987</v>
       </c>
       <c r="G96" t="n">
-        <v>1309308.9152</v>
+        <v>1440252.8579</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4315,39 +4238,34 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>158</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C97" t="n">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D97" t="n">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E97" t="n">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F97" t="n">
-        <v>826.9985</v>
+        <v>223.9913</v>
       </c>
       <c r="G97" t="n">
-        <v>1309308.9152</v>
+        <v>1440252.8579</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4356,39 +4274,34 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>158</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C98" t="n">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D98" t="n">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E98" t="n">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F98" t="n">
-        <v>1570.2579</v>
+        <v>165.6652</v>
       </c>
       <c r="G98" t="n">
-        <v>1309308.9152</v>
+        <v>1440252.8579</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4397,39 +4310,34 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>158</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C99" t="n">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D99" t="n">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E99" t="n">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F99" t="n">
-        <v>254.1084</v>
+        <v>194.2857</v>
       </c>
       <c r="G99" t="n">
-        <v>1309054.8068</v>
+        <v>1440252.8579</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4438,80 +4346,70 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>158</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C100" t="n">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D100" t="n">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E100" t="n">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F100" t="n">
-        <v>2030.8773</v>
+        <v>607.0853</v>
       </c>
       <c r="G100" t="n">
-        <v>1309054.8068</v>
+        <v>1439645.7726</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>158</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C101" t="n">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D101" t="n">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E101" t="n">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F101" t="n">
-        <v>465.1165</v>
+        <v>1000</v>
       </c>
       <c r="G101" t="n">
-        <v>1309519.9233</v>
+        <v>1440645.7726</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4520,39 +4418,34 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>158</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C102" t="n">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D102" t="n">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E102" t="n">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F102" t="n">
-        <v>16019.8749</v>
+        <v>1132.5696</v>
       </c>
       <c r="G102" t="n">
-        <v>1309519.9233</v>
+        <v>1440645.7726</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4561,80 +4454,70 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>158</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C103" t="n">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D103" t="n">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="E103" t="n">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F103" t="n">
-        <v>2820</v>
+        <v>500</v>
       </c>
       <c r="G103" t="n">
-        <v>1312339.9233</v>
+        <v>1440645.7726</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>158</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C104" t="n">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D104" t="n">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="E104" t="n">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F104" t="n">
-        <v>1700</v>
+        <v>156.8184</v>
       </c>
       <c r="G104" t="n">
-        <v>1312339.9233</v>
+        <v>1440645.7726</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4643,39 +4526,34 @@
         <v>1</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>158</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
-        <v>1.051962025316456</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C105" t="n">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D105" t="n">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="E105" t="n">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F105" t="n">
-        <v>7928.1262</v>
+        <v>2250</v>
       </c>
       <c r="G105" t="n">
-        <v>1312339.9233</v>
+        <v>1440645.7726</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4689,13 +4567,14 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C106" t="n">
         <v>166</v>
@@ -4704,13 +4583,13 @@
         <v>166</v>
       </c>
       <c r="E106" t="n">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F106" t="n">
-        <v>583.0492</v>
+        <v>6213.5246</v>
       </c>
       <c r="G106" t="n">
-        <v>1311756.8741</v>
+        <v>1446859.2972</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4724,28 +4603,29 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C107" t="n">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D107" t="n">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="E107" t="n">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F107" t="n">
-        <v>27484.0525</v>
+        <v>298.9938</v>
       </c>
       <c r="G107" t="n">
-        <v>1339240.9266</v>
+        <v>1446560.3034</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4759,28 +4639,29 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C108" t="n">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D108" t="n">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E108" t="n">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F108" t="n">
-        <v>14888.8858</v>
+        <v>118.6522</v>
       </c>
       <c r="G108" t="n">
-        <v>1324352.0408</v>
+        <v>1446560.3034</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4794,6 +4675,7 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4803,25 +4685,25 @@
         <v>165</v>
       </c>
       <c r="C109" t="n">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D109" t="n">
         <v>165</v>
       </c>
       <c r="E109" t="n">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F109" t="n">
-        <v>873.1695999999999</v>
+        <v>1</v>
       </c>
       <c r="G109" t="n">
-        <v>1323478.8712</v>
+        <v>1446561.3034</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
@@ -4829,34 +4711,35 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C110" t="n">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D110" t="n">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E110" t="n">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F110" t="n">
-        <v>420.2315</v>
+        <v>671.2676</v>
       </c>
       <c r="G110" t="n">
-        <v>1323899.1027</v>
+        <v>1445890.0358</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
@@ -4864,6 +4747,7 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4882,16 +4766,16 @@
         <v>163</v>
       </c>
       <c r="F111" t="n">
-        <v>1129.8511</v>
+        <v>138.4957</v>
       </c>
       <c r="G111" t="n">
-        <v>1322769.2516</v>
+        <v>1446028.5315</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
@@ -4899,6 +4783,7 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4908,25 +4793,25 @@
         <v>163</v>
       </c>
       <c r="C112" t="n">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D112" t="n">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E112" t="n">
         <v>163</v>
       </c>
       <c r="F112" t="n">
-        <v>2678.5163</v>
+        <v>920.8207</v>
       </c>
       <c r="G112" t="n">
-        <v>1325447.7679</v>
+        <v>1446028.5315</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
@@ -4934,13 +4819,14 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C113" t="n">
         <v>164</v>
@@ -4949,19 +4835,19 @@
         <v>164</v>
       </c>
       <c r="E113" t="n">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F113" t="n">
-        <v>660.2408</v>
+        <v>500</v>
       </c>
       <c r="G113" t="n">
-        <v>1324787.5271</v>
+        <v>1446528.5315</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
@@ -4969,34 +4855,35 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C114" t="n">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D114" t="n">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E114" t="n">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F114" t="n">
-        <v>287.8525</v>
+        <v>729</v>
       </c>
       <c r="G114" t="n">
-        <v>1325075.3796</v>
+        <v>1446528.5315</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
@@ -5004,34 +4891,35 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C115" t="n">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D115" t="n">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E115" t="n">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F115" t="n">
-        <v>291.9879</v>
+        <v>7420.4268</v>
       </c>
       <c r="G115" t="n">
-        <v>1325367.3675</v>
+        <v>1446528.5315</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
@@ -5039,6 +4927,7 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -5057,10 +4946,10 @@
         <v>164</v>
       </c>
       <c r="F116" t="n">
-        <v>583.0493</v>
+        <v>2109.7666</v>
       </c>
       <c r="G116" t="n">
-        <v>1324784.3182</v>
+        <v>1446528.5315</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -5074,1476 +4963,7 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>164</v>
-      </c>
-      <c r="C117" t="n">
-        <v>164</v>
-      </c>
-      <c r="D117" t="n">
-        <v>164</v>
-      </c>
-      <c r="E117" t="n">
-        <v>164</v>
-      </c>
-      <c r="F117" t="n">
-        <v>432.9491</v>
-      </c>
-      <c r="G117" t="n">
-        <v>1324784.3182</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>164</v>
-      </c>
-      <c r="C118" t="n">
-        <v>165</v>
-      </c>
-      <c r="D118" t="n">
-        <v>165</v>
-      </c>
-      <c r="E118" t="n">
-        <v>164</v>
-      </c>
-      <c r="F118" t="n">
-        <v>250</v>
-      </c>
-      <c r="G118" t="n">
-        <v>1325034.3182</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>163</v>
-      </c>
-      <c r="C119" t="n">
-        <v>165</v>
-      </c>
-      <c r="D119" t="n">
-        <v>165</v>
-      </c>
-      <c r="E119" t="n">
-        <v>158</v>
-      </c>
-      <c r="F119" t="n">
-        <v>32199.5362</v>
-      </c>
-      <c r="G119" t="n">
-        <v>1325034.3182</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>164</v>
-      </c>
-      <c r="C120" t="n">
-        <v>164</v>
-      </c>
-      <c r="D120" t="n">
-        <v>164</v>
-      </c>
-      <c r="E120" t="n">
-        <v>164</v>
-      </c>
-      <c r="F120" t="n">
-        <v>1761.1186</v>
-      </c>
-      <c r="G120" t="n">
-        <v>1323273.1996</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>162</v>
-      </c>
-      <c r="C121" t="n">
-        <v>162</v>
-      </c>
-      <c r="D121" t="n">
-        <v>163</v>
-      </c>
-      <c r="E121" t="n">
-        <v>162</v>
-      </c>
-      <c r="F121" t="n">
-        <v>920</v>
-      </c>
-      <c r="G121" t="n">
-        <v>1322353.1996</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>163</v>
-      </c>
-      <c r="C122" t="n">
-        <v>163</v>
-      </c>
-      <c r="D122" t="n">
-        <v>163</v>
-      </c>
-      <c r="E122" t="n">
-        <v>163</v>
-      </c>
-      <c r="F122" t="n">
-        <v>698.8684</v>
-      </c>
-      <c r="G122" t="n">
-        <v>1323052.068</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>163</v>
-      </c>
-      <c r="C123" t="n">
-        <v>163</v>
-      </c>
-      <c r="D123" t="n">
-        <v>163</v>
-      </c>
-      <c r="E123" t="n">
-        <v>163</v>
-      </c>
-      <c r="F123" t="n">
-        <v>305.8261</v>
-      </c>
-      <c r="G123" t="n">
-        <v>1323052.068</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>163</v>
-      </c>
-      <c r="C124" t="n">
-        <v>165</v>
-      </c>
-      <c r="D124" t="n">
-        <v>165</v>
-      </c>
-      <c r="E124" t="n">
-        <v>163</v>
-      </c>
-      <c r="F124" t="n">
-        <v>4610.6334</v>
-      </c>
-      <c r="G124" t="n">
-        <v>1327662.7014</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>163</v>
-      </c>
-      <c r="C125" t="n">
-        <v>163</v>
-      </c>
-      <c r="D125" t="n">
-        <v>163</v>
-      </c>
-      <c r="E125" t="n">
-        <v>163</v>
-      </c>
-      <c r="F125" t="n">
-        <v>5.9554</v>
-      </c>
-      <c r="G125" t="n">
-        <v>1327656.746</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>162</v>
-      </c>
-      <c r="C126" t="n">
-        <v>162</v>
-      </c>
-      <c r="D126" t="n">
-        <v>163</v>
-      </c>
-      <c r="E126" t="n">
-        <v>158</v>
-      </c>
-      <c r="F126" t="n">
-        <v>14776.27</v>
-      </c>
-      <c r="G126" t="n">
-        <v>1312880.476</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>162</v>
-      </c>
-      <c r="C127" t="n">
-        <v>162</v>
-      </c>
-      <c r="D127" t="n">
-        <v>162</v>
-      </c>
-      <c r="E127" t="n">
-        <v>162</v>
-      </c>
-      <c r="F127" t="n">
-        <v>180.0013</v>
-      </c>
-      <c r="G127" t="n">
-        <v>1312880.476</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>162</v>
-      </c>
-      <c r="C128" t="n">
-        <v>162</v>
-      </c>
-      <c r="D128" t="n">
-        <v>162</v>
-      </c>
-      <c r="E128" t="n">
-        <v>162</v>
-      </c>
-      <c r="F128" t="n">
-        <v>5954.9679</v>
-      </c>
-      <c r="G128" t="n">
-        <v>1312880.476</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>162</v>
-      </c>
-      <c r="C129" t="n">
-        <v>162</v>
-      </c>
-      <c r="D129" t="n">
-        <v>162</v>
-      </c>
-      <c r="E129" t="n">
-        <v>162</v>
-      </c>
-      <c r="F129" t="n">
-        <v>1528585.2982</v>
-      </c>
-      <c r="G129" t="n">
-        <v>1312880.476</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>162</v>
-      </c>
-      <c r="C130" t="n">
-        <v>162</v>
-      </c>
-      <c r="D130" t="n">
-        <v>162</v>
-      </c>
-      <c r="E130" t="n">
-        <v>162</v>
-      </c>
-      <c r="F130" t="n">
-        <v>1546113.1473</v>
-      </c>
-      <c r="G130" t="n">
-        <v>1312880.476</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>162</v>
-      </c>
-      <c r="C131" t="n">
-        <v>162</v>
-      </c>
-      <c r="D131" t="n">
-        <v>162</v>
-      </c>
-      <c r="E131" t="n">
-        <v>162</v>
-      </c>
-      <c r="F131" t="n">
-        <v>1551742.2289</v>
-      </c>
-      <c r="G131" t="n">
-        <v>1312880.476</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>162</v>
-      </c>
-      <c r="C132" t="n">
-        <v>162</v>
-      </c>
-      <c r="D132" t="n">
-        <v>162</v>
-      </c>
-      <c r="E132" t="n">
-        <v>162</v>
-      </c>
-      <c r="F132" t="n">
-        <v>292709.5201</v>
-      </c>
-      <c r="G132" t="n">
-        <v>1312880.476</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>162</v>
-      </c>
-      <c r="C133" t="n">
-        <v>162</v>
-      </c>
-      <c r="D133" t="n">
-        <v>162</v>
-      </c>
-      <c r="E133" t="n">
-        <v>162</v>
-      </c>
-      <c r="F133" t="n">
-        <v>524000</v>
-      </c>
-      <c r="G133" t="n">
-        <v>1312880.476</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>162</v>
-      </c>
-      <c r="C134" t="n">
-        <v>163</v>
-      </c>
-      <c r="D134" t="n">
-        <v>163</v>
-      </c>
-      <c r="E134" t="n">
-        <v>162</v>
-      </c>
-      <c r="F134" t="n">
-        <v>128391.7288</v>
-      </c>
-      <c r="G134" t="n">
-        <v>1441272.2048</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>162</v>
-      </c>
-      <c r="C135" t="n">
-        <v>162</v>
-      </c>
-      <c r="D135" t="n">
-        <v>162</v>
-      </c>
-      <c r="E135" t="n">
-        <v>162</v>
-      </c>
-      <c r="F135" t="n">
-        <v>1248.4456</v>
-      </c>
-      <c r="G135" t="n">
-        <v>1440023.7592</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>162</v>
-      </c>
-      <c r="C136" t="n">
-        <v>162</v>
-      </c>
-      <c r="D136" t="n">
-        <v>162</v>
-      </c>
-      <c r="E136" t="n">
-        <v>162</v>
-      </c>
-      <c r="F136" t="n">
-        <v>29747.0827</v>
-      </c>
-      <c r="G136" t="n">
-        <v>1440023.7592</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>162</v>
-      </c>
-      <c r="C137" t="n">
-        <v>162</v>
-      </c>
-      <c r="D137" t="n">
-        <v>162</v>
-      </c>
-      <c r="E137" t="n">
-        <v>162</v>
-      </c>
-      <c r="F137" t="n">
-        <v>20882.9186</v>
-      </c>
-      <c r="G137" t="n">
-        <v>1440023.7592</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>163</v>
-      </c>
-      <c r="C138" t="n">
-        <v>163</v>
-      </c>
-      <c r="D138" t="n">
-        <v>163</v>
-      </c>
-      <c r="E138" t="n">
-        <v>163</v>
-      </c>
-      <c r="F138" t="n">
-        <v>229.0987</v>
-      </c>
-      <c r="G138" t="n">
-        <v>1440252.8579</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>163</v>
-      </c>
-      <c r="C139" t="n">
-        <v>163</v>
-      </c>
-      <c r="D139" t="n">
-        <v>163</v>
-      </c>
-      <c r="E139" t="n">
-        <v>163</v>
-      </c>
-      <c r="F139" t="n">
-        <v>223.9913</v>
-      </c>
-      <c r="G139" t="n">
-        <v>1440252.8579</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>163</v>
-      </c>
-      <c r="C140" t="n">
-        <v>163</v>
-      </c>
-      <c r="D140" t="n">
-        <v>163</v>
-      </c>
-      <c r="E140" t="n">
-        <v>163</v>
-      </c>
-      <c r="F140" t="n">
-        <v>165.6652</v>
-      </c>
-      <c r="G140" t="n">
-        <v>1440252.8579</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>163</v>
-      </c>
-      <c r="C141" t="n">
-        <v>163</v>
-      </c>
-      <c r="D141" t="n">
-        <v>163</v>
-      </c>
-      <c r="E141" t="n">
-        <v>163</v>
-      </c>
-      <c r="F141" t="n">
-        <v>194.2857</v>
-      </c>
-      <c r="G141" t="n">
-        <v>1440252.8579</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>162</v>
-      </c>
-      <c r="C142" t="n">
-        <v>162</v>
-      </c>
-      <c r="D142" t="n">
-        <v>162</v>
-      </c>
-      <c r="E142" t="n">
-        <v>162</v>
-      </c>
-      <c r="F142" t="n">
-        <v>607.0853</v>
-      </c>
-      <c r="G142" t="n">
-        <v>1439645.7726</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>163</v>
-      </c>
-      <c r="C143" t="n">
-        <v>163</v>
-      </c>
-      <c r="D143" t="n">
-        <v>163</v>
-      </c>
-      <c r="E143" t="n">
-        <v>163</v>
-      </c>
-      <c r="F143" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G143" t="n">
-        <v>1440645.7726</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>163</v>
-      </c>
-      <c r="C144" t="n">
-        <v>163</v>
-      </c>
-      <c r="D144" t="n">
-        <v>163</v>
-      </c>
-      <c r="E144" t="n">
-        <v>163</v>
-      </c>
-      <c r="F144" t="n">
-        <v>1132.5696</v>
-      </c>
-      <c r="G144" t="n">
-        <v>1440645.7726</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>163</v>
-      </c>
-      <c r="C145" t="n">
-        <v>163</v>
-      </c>
-      <c r="D145" t="n">
-        <v>163</v>
-      </c>
-      <c r="E145" t="n">
-        <v>163</v>
-      </c>
-      <c r="F145" t="n">
-        <v>500</v>
-      </c>
-      <c r="G145" t="n">
-        <v>1440645.7726</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>163</v>
-      </c>
-      <c r="C146" t="n">
-        <v>163</v>
-      </c>
-      <c r="D146" t="n">
-        <v>163</v>
-      </c>
-      <c r="E146" t="n">
-        <v>163</v>
-      </c>
-      <c r="F146" t="n">
-        <v>156.8184</v>
-      </c>
-      <c r="G146" t="n">
-        <v>1440645.7726</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>163</v>
-      </c>
-      <c r="C147" t="n">
-        <v>163</v>
-      </c>
-      <c r="D147" t="n">
-        <v>163</v>
-      </c>
-      <c r="E147" t="n">
-        <v>163</v>
-      </c>
-      <c r="F147" t="n">
-        <v>2250</v>
-      </c>
-      <c r="G147" t="n">
-        <v>1440645.7726</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>163</v>
-      </c>
-      <c r="C148" t="n">
-        <v>166</v>
-      </c>
-      <c r="D148" t="n">
-        <v>166</v>
-      </c>
-      <c r="E148" t="n">
-        <v>163</v>
-      </c>
-      <c r="F148" t="n">
-        <v>6213.5246</v>
-      </c>
-      <c r="G148" t="n">
-        <v>1446859.2972</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>164</v>
-      </c>
-      <c r="C149" t="n">
-        <v>164</v>
-      </c>
-      <c r="D149" t="n">
-        <v>164</v>
-      </c>
-      <c r="E149" t="n">
-        <v>164</v>
-      </c>
-      <c r="F149" t="n">
-        <v>298.9938</v>
-      </c>
-      <c r="G149" t="n">
-        <v>1446560.3034</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="n">
-        <v>1</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>164</v>
-      </c>
-      <c r="C150" t="n">
-        <v>164</v>
-      </c>
-      <c r="D150" t="n">
-        <v>164</v>
-      </c>
-      <c r="E150" t="n">
-        <v>164</v>
-      </c>
-      <c r="F150" t="n">
-        <v>118.6522</v>
-      </c>
-      <c r="G150" t="n">
-        <v>1446560.3034</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="n">
-        <v>1</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>165</v>
-      </c>
-      <c r="C151" t="n">
-        <v>165</v>
-      </c>
-      <c r="D151" t="n">
-        <v>165</v>
-      </c>
-      <c r="E151" t="n">
-        <v>165</v>
-      </c>
-      <c r="F151" t="n">
-        <v>1</v>
-      </c>
-      <c r="G151" t="n">
-        <v>1446561.3034</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>1</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>163</v>
-      </c>
-      <c r="C152" t="n">
-        <v>162</v>
-      </c>
-      <c r="D152" t="n">
-        <v>163</v>
-      </c>
-      <c r="E152" t="n">
-        <v>162</v>
-      </c>
-      <c r="F152" t="n">
-        <v>671.2676</v>
-      </c>
-      <c r="G152" t="n">
-        <v>1445890.0358</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="n">
-        <v>1</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>163</v>
-      </c>
-      <c r="C153" t="n">
-        <v>163</v>
-      </c>
-      <c r="D153" t="n">
-        <v>163</v>
-      </c>
-      <c r="E153" t="n">
-        <v>163</v>
-      </c>
-      <c r="F153" t="n">
-        <v>138.4957</v>
-      </c>
-      <c r="G153" t="n">
-        <v>1446028.5315</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>163</v>
-      </c>
-      <c r="C154" t="n">
-        <v>163</v>
-      </c>
-      <c r="D154" t="n">
-        <v>163</v>
-      </c>
-      <c r="E154" t="n">
-        <v>163</v>
-      </c>
-      <c r="F154" t="n">
-        <v>920.8207</v>
-      </c>
-      <c r="G154" t="n">
-        <v>1446028.5315</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>163</v>
-      </c>
-      <c r="C155" t="n">
-        <v>164</v>
-      </c>
-      <c r="D155" t="n">
-        <v>164</v>
-      </c>
-      <c r="E155" t="n">
-        <v>163</v>
-      </c>
-      <c r="F155" t="n">
-        <v>500</v>
-      </c>
-      <c r="G155" t="n">
-        <v>1446528.5315</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>163</v>
-      </c>
-      <c r="C156" t="n">
-        <v>164</v>
-      </c>
-      <c r="D156" t="n">
-        <v>164</v>
-      </c>
-      <c r="E156" t="n">
-        <v>163</v>
-      </c>
-      <c r="F156" t="n">
-        <v>729</v>
-      </c>
-      <c r="G156" t="n">
-        <v>1446528.5315</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>164</v>
-      </c>
-      <c r="C157" t="n">
-        <v>164</v>
-      </c>
-      <c r="D157" t="n">
-        <v>164</v>
-      </c>
-      <c r="E157" t="n">
-        <v>164</v>
-      </c>
-      <c r="F157" t="n">
-        <v>7420.4268</v>
-      </c>
-      <c r="G157" t="n">
-        <v>1446528.5315</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="n">
-        <v>1</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>164</v>
-      </c>
-      <c r="C158" t="n">
-        <v>164</v>
-      </c>
-      <c r="D158" t="n">
-        <v>164</v>
-      </c>
-      <c r="E158" t="n">
-        <v>164</v>
-      </c>
-      <c r="F158" t="n">
-        <v>2109.7666</v>
-      </c>
-      <c r="G158" t="n">
-        <v>1446528.5315</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>1</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
+      <c r="N116" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-11-02 BackTest ITC.xlsx
+++ b/BackTest/2019-11-02 BackTest ITC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N116"/>
+  <dimension ref="A1:N187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,25 +438,25 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C2" t="n">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D2" t="n">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E2" t="n">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F2" t="n">
-        <v>3342.5789</v>
+        <v>1819.0182</v>
       </c>
       <c r="G2" t="n">
-        <v>-81912.40950000001</v>
+        <v>7773.511899999998</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -474,35 +474,31 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C3" t="n">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D3" t="n">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E3" t="n">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F3" t="n">
-        <v>16459.1045</v>
+        <v>21593.3486</v>
       </c>
       <c r="G3" t="n">
-        <v>-81912.40950000001</v>
+        <v>29366.8605</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>164</v>
-      </c>
-      <c r="K3" t="n">
-        <v>164</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
@@ -514,40 +510,32 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C4" t="n">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D4" t="n">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E4" t="n">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F4" t="n">
-        <v>10667.9503</v>
+        <v>776.4131</v>
       </c>
       <c r="G4" t="n">
-        <v>-81912.40950000001</v>
+        <v>30143.2736</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>164</v>
-      </c>
-      <c r="K4" t="n">
-        <v>164</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -558,40 +546,32 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C5" t="n">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D5" t="n">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E5" t="n">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F5" t="n">
-        <v>2173.4452</v>
+        <v>32374.2088</v>
       </c>
       <c r="G5" t="n">
-        <v>-84085.85470000001</v>
+        <v>-2230.9352</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>164</v>
-      </c>
-      <c r="K5" t="n">
-        <v>164</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -602,35 +582,31 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C6" t="n">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D6" t="n">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E6" t="n">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F6" t="n">
-        <v>6252.6382</v>
+        <v>310</v>
       </c>
       <c r="G6" t="n">
-        <v>-84085.85470000001</v>
+        <v>-2230.9352</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>163</v>
-      </c>
-      <c r="K6" t="n">
-        <v>163</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
@@ -654,28 +630,20 @@
         <v>162</v>
       </c>
       <c r="F7" t="n">
-        <v>2709.7823</v>
+        <v>150</v>
       </c>
       <c r="G7" t="n">
-        <v>-86795.63700000002</v>
+        <v>-2230.9352</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>163</v>
-      </c>
-      <c r="K7" t="n">
-        <v>163</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -689,37 +657,29 @@
         <v>162</v>
       </c>
       <c r="C8" t="n">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D8" t="n">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E8" t="n">
         <v>162</v>
       </c>
       <c r="F8" t="n">
-        <v>14372.6274</v>
+        <v>750</v>
       </c>
       <c r="G8" t="n">
-        <v>-72423.00960000002</v>
+        <v>-2230.9352</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>162</v>
-      </c>
-      <c r="K8" t="n">
-        <v>163</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -730,40 +690,32 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C9" t="n">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D9" t="n">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E9" t="n">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F9" t="n">
-        <v>247.6951</v>
+        <v>312.7171</v>
       </c>
       <c r="G9" t="n">
-        <v>-72423.00960000002</v>
+        <v>-2230.9352</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>164</v>
-      </c>
-      <c r="K9" t="n">
-        <v>163</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -774,40 +726,32 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C10" t="n">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D10" t="n">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E10" t="n">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F10" t="n">
-        <v>5200.0003</v>
+        <v>1876.8584</v>
       </c>
       <c r="G10" t="n">
-        <v>-77623.00990000002</v>
+        <v>-4107.7936</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>164</v>
-      </c>
-      <c r="K10" t="n">
-        <v>163</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -818,40 +762,32 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C11" t="n">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D11" t="n">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E11" t="n">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F11" t="n">
-        <v>1770.5912</v>
+        <v>98.782</v>
       </c>
       <c r="G11" t="n">
-        <v>-75852.41870000002</v>
+        <v>-4009.0116</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>160</v>
-      </c>
-      <c r="K11" t="n">
-        <v>163</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -862,40 +798,32 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C12" t="n">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D12" t="n">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E12" t="n">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F12" t="n">
-        <v>2250</v>
+        <v>334.5797</v>
       </c>
       <c r="G12" t="n">
-        <v>-75852.41870000002</v>
+        <v>-4009.0116</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>163</v>
-      </c>
-      <c r="K12" t="n">
-        <v>163</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -906,40 +834,32 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C13" t="n">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D13" t="n">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E13" t="n">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F13" t="n">
-        <v>4771.3378</v>
+        <v>62.5</v>
       </c>
       <c r="G13" t="n">
-        <v>-75852.41870000002</v>
+        <v>-3946.5116</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>163</v>
-      </c>
-      <c r="K13" t="n">
-        <v>163</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -950,40 +870,32 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C14" t="n">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D14" t="n">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E14" t="n">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F14" t="n">
-        <v>20.0723</v>
+        <v>2640.9633</v>
       </c>
       <c r="G14" t="n">
-        <v>-75852.41870000002</v>
+        <v>-6587.474899999999</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>163</v>
-      </c>
-      <c r="K14" t="n">
-        <v>163</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -994,40 +906,32 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C15" t="n">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D15" t="n">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E15" t="n">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F15" t="n">
-        <v>1733.3255</v>
+        <v>1814.5506</v>
       </c>
       <c r="G15" t="n">
-        <v>-75852.41870000002</v>
+        <v>-8402.0255</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>163</v>
-      </c>
-      <c r="K15" t="n">
-        <v>163</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1038,22 +942,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C16" t="n">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D16" t="n">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E16" t="n">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F16" t="n">
-        <v>99.5924</v>
+        <v>4183.9924</v>
       </c>
       <c r="G16" t="n">
-        <v>-75852.41870000002</v>
+        <v>-4218.0331</v>
       </c>
       <c r="H16" t="n">
         <v>1</v>
@@ -1062,14 +966,12 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>163</v>
-      </c>
-      <c r="K16" t="n">
-        <v>163</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M16" t="n">
@@ -1082,35 +984,31 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C17" t="n">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D17" t="n">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E17" t="n">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F17" t="n">
-        <v>2045.4022</v>
+        <v>500</v>
       </c>
       <c r="G17" t="n">
-        <v>-75852.41870000002</v>
+        <v>-4218.0331</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>163</v>
-      </c>
-      <c r="K17" t="n">
-        <v>163</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1126,35 +1024,31 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C18" t="n">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D18" t="n">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E18" t="n">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F18" t="n">
-        <v>711.1214</v>
+        <v>6640</v>
       </c>
       <c r="G18" t="n">
-        <v>-75852.41870000002</v>
+        <v>-4218.0331</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>163</v>
-      </c>
-      <c r="K18" t="n">
-        <v>163</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1170,35 +1064,31 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C19" t="n">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D19" t="n">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E19" t="n">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F19" t="n">
-        <v>924.4579</v>
+        <v>20022.1853</v>
       </c>
       <c r="G19" t="n">
-        <v>-75852.41870000002</v>
+        <v>-4218.0331</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>163</v>
-      </c>
-      <c r="K19" t="n">
-        <v>163</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1214,35 +1104,31 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C20" t="n">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D20" t="n">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E20" t="n">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F20" t="n">
-        <v>28116.585</v>
+        <v>62.1118</v>
       </c>
       <c r="G20" t="n">
-        <v>-47735.83370000002</v>
+        <v>-4218.0331</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>163</v>
-      </c>
-      <c r="K20" t="n">
-        <v>163</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1258,35 +1144,31 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C21" t="n">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D21" t="n">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E21" t="n">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F21" t="n">
-        <v>255.1469</v>
+        <v>12174.8652</v>
       </c>
       <c r="G21" t="n">
-        <v>-47990.98060000002</v>
+        <v>-4218.0331</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>165</v>
-      </c>
-      <c r="K21" t="n">
-        <v>163</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1302,35 +1184,31 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C22" t="n">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D22" t="n">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E22" t="n">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F22" t="n">
-        <v>7560.3121</v>
+        <v>104.3946</v>
       </c>
       <c r="G22" t="n">
-        <v>-47990.98060000002</v>
+        <v>-4322.427699999999</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>164</v>
-      </c>
-      <c r="K22" t="n">
-        <v>163</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1346,22 +1224,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C23" t="n">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="D23" t="n">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="E23" t="n">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="F23" t="n">
-        <v>255</v>
+        <v>264.2903</v>
       </c>
       <c r="G23" t="n">
-        <v>-48245.98060000002</v>
+        <v>-4586.717999999999</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1370,9 +1248,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>163</v>
-      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1388,22 +1264,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C24" t="n">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="D24" t="n">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="E24" t="n">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="F24" t="n">
-        <v>119.7348</v>
+        <v>264.2903</v>
       </c>
       <c r="G24" t="n">
-        <v>-48126.24580000003</v>
+        <v>-4851.008299999999</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1412,9 +1288,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>163</v>
-      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1430,22 +1304,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C25" t="n">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="D25" t="n">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="E25" t="n">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="F25" t="n">
-        <v>12759.1272</v>
+        <v>93244.6323</v>
       </c>
       <c r="G25" t="n">
-        <v>-48126.24580000003</v>
+        <v>-98095.6406</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1454,9 +1328,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>163</v>
-      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1472,33 +1344,33 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C26" t="n">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D26" t="n">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="E26" t="n">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="F26" t="n">
-        <v>251.2436</v>
+        <v>878.09</v>
       </c>
       <c r="G26" t="n">
-        <v>-48377.48940000003</v>
+        <v>-97217.5506</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>163</v>
-      </c>
+      <c r="J26" t="n">
+        <v>153</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1514,33 +1386,33 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C27" t="n">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D27" t="n">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E27" t="n">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F27" t="n">
-        <v>8808.8068</v>
+        <v>131.487</v>
       </c>
       <c r="G27" t="n">
-        <v>-57186.29620000003</v>
+        <v>-97086.06360000001</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>163</v>
-      </c>
+      <c r="J27" t="n">
+        <v>157</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1556,33 +1428,33 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C28" t="n">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D28" t="n">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E28" t="n">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F28" t="n">
-        <v>7123.1247</v>
+        <v>2256.9231</v>
       </c>
       <c r="G28" t="n">
-        <v>-57186.29620000003</v>
+        <v>-97086.06360000001</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>163</v>
-      </c>
+      <c r="J28" t="n">
+        <v>158</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1598,33 +1470,33 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C29" t="n">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D29" t="n">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E29" t="n">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F29" t="n">
-        <v>131.4609</v>
+        <v>269.987</v>
       </c>
       <c r="G29" t="n">
-        <v>-57186.29620000003</v>
+        <v>-97086.06360000001</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>163</v>
-      </c>
+      <c r="J29" t="n">
+        <v>158</v>
+      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1640,33 +1512,33 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C30" t="n">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D30" t="n">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="E30" t="n">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="F30" t="n">
-        <v>314.8952</v>
+        <v>485.7265</v>
       </c>
       <c r="G30" t="n">
-        <v>-56871.40100000003</v>
+        <v>-97086.06360000001</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>163</v>
-      </c>
+      <c r="J30" t="n">
+        <v>158</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1682,33 +1554,33 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C31" t="n">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="D31" t="n">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="E31" t="n">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="F31" t="n">
-        <v>450</v>
+        <v>139.3043</v>
       </c>
       <c r="G31" t="n">
-        <v>-57321.40100000003</v>
+        <v>-97086.06360000001</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>163</v>
-      </c>
+      <c r="J31" t="n">
+        <v>158</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1724,33 +1596,33 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C32" t="n">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="D32" t="n">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="E32" t="n">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="F32" t="n">
-        <v>2041.9974</v>
+        <v>170.5</v>
       </c>
       <c r="G32" t="n">
-        <v>-57321.40100000003</v>
+        <v>-97086.06360000001</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>163</v>
-      </c>
+      <c r="J32" t="n">
+        <v>158</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1766,33 +1638,33 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C33" t="n">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D33" t="n">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E33" t="n">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F33" t="n">
-        <v>1</v>
+        <v>4363.58</v>
       </c>
       <c r="G33" t="n">
-        <v>-57322.40100000003</v>
+        <v>-97086.06360000001</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>163</v>
-      </c>
+      <c r="J33" t="n">
+        <v>158</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1808,33 +1680,33 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C34" t="n">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D34" t="n">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E34" t="n">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F34" t="n">
-        <v>1840.865</v>
+        <v>659.9566</v>
       </c>
       <c r="G34" t="n">
-        <v>-55481.53600000003</v>
+        <v>-96426.107</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>163</v>
-      </c>
+      <c r="J34" t="n">
+        <v>158</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1850,33 +1722,33 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C35" t="n">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D35" t="n">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E35" t="n">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F35" t="n">
-        <v>6754.3619</v>
+        <v>750</v>
       </c>
       <c r="G35" t="n">
-        <v>-55481.53600000003</v>
+        <v>-96426.107</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>163</v>
-      </c>
+      <c r="J35" t="n">
+        <v>159</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1892,33 +1764,33 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C36" t="n">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="D36" t="n">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="E36" t="n">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="F36" t="n">
-        <v>480</v>
+        <v>139.1304</v>
       </c>
       <c r="G36" t="n">
-        <v>-55001.53600000003</v>
+        <v>-96426.107</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>163</v>
-      </c>
+      <c r="J36" t="n">
+        <v>159</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1934,33 +1806,33 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C37" t="n">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="D37" t="n">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="E37" t="n">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="F37" t="n">
-        <v>234.8681</v>
+        <v>1292</v>
       </c>
       <c r="G37" t="n">
-        <v>-55236.40410000003</v>
+        <v>-96426.107</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>163</v>
-      </c>
+      <c r="J37" t="n">
+        <v>159</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1976,33 +1848,33 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C38" t="n">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D38" t="n">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E38" t="n">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="F38" t="n">
-        <v>8326.9902</v>
+        <v>12088.4325</v>
       </c>
       <c r="G38" t="n">
-        <v>-55236.40410000003</v>
+        <v>-84337.67450000001</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>163</v>
-      </c>
+      <c r="J38" t="n">
+        <v>159</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2018,22 +1890,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C39" t="n">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="D39" t="n">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="E39" t="n">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="F39" t="n">
-        <v>1339605.5805</v>
+        <v>150</v>
       </c>
       <c r="G39" t="n">
-        <v>1284369.1764</v>
+        <v>-84487.67450000001</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2042,9 +1914,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>163</v>
-      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2060,33 +1930,33 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C40" t="n">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D40" t="n">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="E40" t="n">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="F40" t="n">
-        <v>619101.9840000001</v>
+        <v>5656.7997</v>
       </c>
       <c r="G40" t="n">
-        <v>1284369.1764</v>
+        <v>-78830.87480000001</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>163</v>
-      </c>
+      <c r="J40" t="n">
+        <v>159</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2102,33 +1972,33 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C41" t="n">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="D41" t="n">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="E41" t="n">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="F41" t="n">
-        <v>21.3757</v>
+        <v>2837.6741</v>
       </c>
       <c r="G41" t="n">
-        <v>1284369.1764</v>
+        <v>-81668.54890000001</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>163</v>
-      </c>
+      <c r="J41" t="n">
+        <v>160</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2144,33 +2014,33 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C42" t="n">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D42" t="n">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E42" t="n">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F42" t="n">
-        <v>7452.3191</v>
+        <v>375.9628</v>
       </c>
       <c r="G42" t="n">
-        <v>1276916.8573</v>
+        <v>-81292.58610000001</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>163</v>
-      </c>
+      <c r="J42" t="n">
+        <v>159</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2186,22 +2056,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C43" t="n">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D43" t="n">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E43" t="n">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F43" t="n">
-        <v>3192.6001</v>
+        <v>289.381</v>
       </c>
       <c r="G43" t="n">
-        <v>1276916.8573</v>
+        <v>-81581.96710000001</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2210,9 +2080,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>163</v>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2228,33 +2096,33 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C44" t="n">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="D44" t="n">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="E44" t="n">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="F44" t="n">
-        <v>1213.6242</v>
+        <v>4359.4952</v>
       </c>
       <c r="G44" t="n">
-        <v>1278130.4815</v>
+        <v>-81581.96710000001</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>163</v>
-      </c>
+      <c r="J44" t="n">
+        <v>159</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2270,33 +2138,33 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C45" t="n">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="D45" t="n">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="E45" t="n">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="F45" t="n">
-        <v>10</v>
+        <v>668.3892</v>
       </c>
       <c r="G45" t="n">
-        <v>1278130.4815</v>
+        <v>-81581.96710000001</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>163</v>
-      </c>
+      <c r="J45" t="n">
+        <v>159</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2312,22 +2180,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C46" t="n">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="D46" t="n">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="E46" t="n">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="F46" t="n">
-        <v>31178.4337</v>
+        <v>3200</v>
       </c>
       <c r="G46" t="n">
-        <v>1309308.9152</v>
+        <v>-84781.96710000001</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2336,9 +2204,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>163</v>
-      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2354,22 +2220,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="C47" t="n">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="D47" t="n">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="E47" t="n">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="F47" t="n">
-        <v>16305.9988</v>
+        <v>108.0168</v>
       </c>
       <c r="G47" t="n">
-        <v>1309308.9152</v>
+        <v>-84673.95030000001</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2378,9 +2244,7 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>163</v>
-      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2396,22 +2260,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="C48" t="n">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="D48" t="n">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="E48" t="n">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="F48" t="n">
-        <v>1125.0166</v>
+        <v>28402.461</v>
       </c>
       <c r="G48" t="n">
-        <v>1309308.9152</v>
+        <v>-84673.95030000001</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2420,9 +2284,7 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>163</v>
-      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2438,22 +2300,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="C49" t="n">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="D49" t="n">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="E49" t="n">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="F49" t="n">
-        <v>1324.8518</v>
+        <v>1354.9763</v>
       </c>
       <c r="G49" t="n">
-        <v>1309308.9152</v>
+        <v>-84673.95030000001</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2462,9 +2324,7 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>163</v>
-      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2480,33 +2340,33 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C50" t="n">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D50" t="n">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="E50" t="n">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="F50" t="n">
-        <v>704.731</v>
+        <v>198.1673</v>
       </c>
       <c r="G50" t="n">
-        <v>1309308.9152</v>
+        <v>-84475.78300000001</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>163</v>
-      </c>
+      <c r="J50" t="n">
+        <v>159</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2522,33 +2382,33 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C51" t="n">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D51" t="n">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="E51" t="n">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="F51" t="n">
-        <v>9636.054400000001</v>
+        <v>750</v>
       </c>
       <c r="G51" t="n">
-        <v>1309308.9152</v>
+        <v>-83725.78300000001</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>163</v>
-      </c>
+      <c r="J51" t="n">
+        <v>160</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2564,22 +2424,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C52" t="n">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D52" t="n">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="E52" t="n">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="F52" t="n">
-        <v>4663.5098</v>
+        <v>132.2</v>
       </c>
       <c r="G52" t="n">
-        <v>1309308.9152</v>
+        <v>-83725.78300000001</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2588,9 +2448,7 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>163</v>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2606,22 +2464,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C53" t="n">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D53" t="n">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="E53" t="n">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="F53" t="n">
-        <v>6480.0936</v>
+        <v>2394.9164</v>
       </c>
       <c r="G53" t="n">
-        <v>1309308.9152</v>
+        <v>-83725.78300000001</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2630,9 +2488,7 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>163</v>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2648,22 +2504,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C54" t="n">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D54" t="n">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E54" t="n">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="F54" t="n">
-        <v>693.4496</v>
+        <v>4338.5708</v>
       </c>
       <c r="G54" t="n">
-        <v>1309308.9152</v>
+        <v>-79387.21220000001</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2672,9 +2528,7 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>163</v>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2690,22 +2544,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C55" t="n">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D55" t="n">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E55" t="n">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F55" t="n">
-        <v>826.9985</v>
+        <v>121.951</v>
       </c>
       <c r="G55" t="n">
-        <v>1309308.9152</v>
+        <v>-79387.21220000001</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2714,9 +2568,7 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>163</v>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2732,22 +2584,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C56" t="n">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D56" t="n">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E56" t="n">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="F56" t="n">
-        <v>1570.2579</v>
+        <v>8056.8708</v>
       </c>
       <c r="G56" t="n">
-        <v>1309308.9152</v>
+        <v>-87444.08300000001</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2756,9 +2608,7 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>163</v>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2774,22 +2624,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C57" t="n">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D57" t="n">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E57" t="n">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F57" t="n">
-        <v>254.1084</v>
+        <v>3648</v>
       </c>
       <c r="G57" t="n">
-        <v>1309054.8068</v>
+        <v>-91092.08300000001</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2798,9 +2648,7 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>163</v>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2828,10 +2676,10 @@
         <v>163</v>
       </c>
       <c r="F58" t="n">
-        <v>2030.8773</v>
+        <v>7805.9234</v>
       </c>
       <c r="G58" t="n">
-        <v>1309054.8068</v>
+        <v>-83286.15960000001</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2840,9 +2688,7 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>163</v>
-      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2858,22 +2704,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C59" t="n">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D59" t="n">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E59" t="n">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F59" t="n">
-        <v>465.1165</v>
+        <v>1698.2609</v>
       </c>
       <c r="G59" t="n">
-        <v>1309519.9233</v>
+        <v>-83286.15960000001</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2882,9 +2728,7 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>163</v>
-      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2900,22 +2744,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C60" t="n">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D60" t="n">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E60" t="n">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F60" t="n">
-        <v>16019.8749</v>
+        <v>4040</v>
       </c>
       <c r="G60" t="n">
-        <v>1309519.9233</v>
+        <v>-83286.15960000001</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2924,9 +2768,7 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>163</v>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2942,22 +2784,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C61" t="n">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D61" t="n">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="E61" t="n">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F61" t="n">
-        <v>2820</v>
+        <v>4776.0158</v>
       </c>
       <c r="G61" t="n">
-        <v>1312339.9233</v>
+        <v>-88062.17540000001</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2966,9 +2808,7 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>163</v>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2984,40 +2824,38 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C62" t="n">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D62" t="n">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E62" t="n">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F62" t="n">
-        <v>1700</v>
+        <v>1000</v>
       </c>
       <c r="G62" t="n">
-        <v>1312339.9233</v>
+        <v>-87062.17540000001</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>163</v>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M62" t="n">
-        <v>1.019539877300614</v>
+        <v>1</v>
       </c>
       <c r="N62" t="inlineStr"/>
     </row>
@@ -3026,32 +2864,36 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C63" t="n">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D63" t="n">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="E63" t="n">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F63" t="n">
-        <v>7928.1262</v>
+        <v>2000</v>
       </c>
       <c r="G63" t="n">
-        <v>1312339.9233</v>
+        <v>-89062.17540000001</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -3062,32 +2904,36 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C64" t="n">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D64" t="n">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E64" t="n">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="F64" t="n">
-        <v>583.0492</v>
+        <v>652.1177</v>
       </c>
       <c r="G64" t="n">
-        <v>1311756.8741</v>
+        <v>-89714.29310000001</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -3098,22 +2944,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C65" t="n">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D65" t="n">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="E65" t="n">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F65" t="n">
-        <v>27484.0525</v>
+        <v>1.6371</v>
       </c>
       <c r="G65" t="n">
-        <v>1339240.9266</v>
+        <v>-89712.656</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -3123,7 +2969,11 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -3134,22 +2984,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C66" t="n">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D66" t="n">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E66" t="n">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F66" t="n">
-        <v>14888.8858</v>
+        <v>295.615</v>
       </c>
       <c r="G66" t="n">
-        <v>1324352.0408</v>
+        <v>-90008.27100000001</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -3159,7 +3009,11 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -3170,22 +3024,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C67" t="n">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D67" t="n">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E67" t="n">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F67" t="n">
-        <v>873.1695999999999</v>
+        <v>1225.6269</v>
       </c>
       <c r="G67" t="n">
-        <v>1323478.8712</v>
+        <v>-90008.27100000001</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -3195,7 +3049,11 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -3206,22 +3064,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C68" t="n">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D68" t="n">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E68" t="n">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F68" t="n">
-        <v>420.2315</v>
+        <v>4479.1325</v>
       </c>
       <c r="G68" t="n">
-        <v>1323899.1027</v>
+        <v>-90008.27100000001</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3231,7 +3089,11 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -3242,22 +3104,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C69" t="n">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D69" t="n">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E69" t="n">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F69" t="n">
-        <v>1129.8511</v>
+        <v>1368.7348</v>
       </c>
       <c r="G69" t="n">
-        <v>1322769.2516</v>
+        <v>-90008.27100000001</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3267,7 +3129,11 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3278,22 +3144,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C70" t="n">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D70" t="n">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E70" t="n">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F70" t="n">
-        <v>2678.5163</v>
+        <v>183.7028</v>
       </c>
       <c r="G70" t="n">
-        <v>1325447.7679</v>
+        <v>-90008.27100000001</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3303,7 +3169,11 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3314,22 +3184,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C71" t="n">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D71" t="n">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E71" t="n">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F71" t="n">
-        <v>660.2408</v>
+        <v>4753.2826</v>
       </c>
       <c r="G71" t="n">
-        <v>1324787.5271</v>
+        <v>-85254.9884</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3339,7 +3209,11 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3350,22 +3224,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C72" t="n">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D72" t="n">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E72" t="n">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F72" t="n">
-        <v>287.8525</v>
+        <v>1020.2332</v>
       </c>
       <c r="G72" t="n">
-        <v>1325075.3796</v>
+        <v>-85254.9884</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3375,7 +3249,11 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3386,22 +3264,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C73" t="n">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D73" t="n">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E73" t="n">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="F73" t="n">
-        <v>291.9879</v>
+        <v>3342.5789</v>
       </c>
       <c r="G73" t="n">
-        <v>1325367.3675</v>
+        <v>-81912.40950000001</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3411,7 +3289,11 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3434,20 +3316,24 @@
         <v>164</v>
       </c>
       <c r="F74" t="n">
-        <v>583.0493</v>
+        <v>16459.1045</v>
       </c>
       <c r="G74" t="n">
-        <v>1324784.3182</v>
+        <v>-81912.40950000001</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3470,10 +3356,10 @@
         <v>164</v>
       </c>
       <c r="F75" t="n">
-        <v>432.9491</v>
+        <v>10667.9503</v>
       </c>
       <c r="G75" t="n">
-        <v>1324784.3182</v>
+        <v>-81912.40950000001</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3483,7 +3369,11 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3494,32 +3384,36 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C76" t="n">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D76" t="n">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E76" t="n">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F76" t="n">
-        <v>250</v>
+        <v>2173.4452</v>
       </c>
       <c r="G76" t="n">
-        <v>1325034.3182</v>
+        <v>-84085.85470000001</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3533,29 +3427,33 @@
         <v>163</v>
       </c>
       <c r="C77" t="n">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D77" t="n">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E77" t="n">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="F77" t="n">
-        <v>32199.5362</v>
+        <v>6252.6382</v>
       </c>
       <c r="G77" t="n">
-        <v>1325034.3182</v>
+        <v>-84085.85470000001</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3566,32 +3464,36 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C78" t="n">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D78" t="n">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E78" t="n">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F78" t="n">
-        <v>1761.1186</v>
+        <v>2709.7823</v>
       </c>
       <c r="G78" t="n">
-        <v>1323273.1996</v>
+        <v>-86795.63700000002</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3605,29 +3507,33 @@
         <v>162</v>
       </c>
       <c r="C79" t="n">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D79" t="n">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E79" t="n">
         <v>162</v>
       </c>
       <c r="F79" t="n">
-        <v>920</v>
+        <v>14372.6274</v>
       </c>
       <c r="G79" t="n">
-        <v>1322353.1996</v>
+        <v>-72423.00960000002</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3638,32 +3544,36 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C80" t="n">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D80" t="n">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E80" t="n">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F80" t="n">
-        <v>698.8684</v>
+        <v>247.6951</v>
       </c>
       <c r="G80" t="n">
-        <v>1323052.068</v>
+        <v>-72423.00960000002</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3674,32 +3584,36 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C81" t="n">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D81" t="n">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E81" t="n">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F81" t="n">
-        <v>305.8261</v>
+        <v>5200.0003</v>
       </c>
       <c r="G81" t="n">
-        <v>1323052.068</v>
+        <v>-77623.00990000002</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3713,29 +3627,33 @@
         <v>163</v>
       </c>
       <c r="C82" t="n">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D82" t="n">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E82" t="n">
         <v>163</v>
       </c>
       <c r="F82" t="n">
-        <v>4610.6334</v>
+        <v>1770.5912</v>
       </c>
       <c r="G82" t="n">
-        <v>1327662.7014</v>
+        <v>-75852.41870000002</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3758,20 +3676,24 @@
         <v>163</v>
       </c>
       <c r="F83" t="n">
-        <v>5.9554</v>
+        <v>2250</v>
       </c>
       <c r="G83" t="n">
-        <v>1327656.746</v>
+        <v>-75852.41870000002</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3782,22 +3704,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C84" t="n">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D84" t="n">
         <v>163</v>
       </c>
       <c r="E84" t="n">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="F84" t="n">
-        <v>14776.27</v>
+        <v>4771.3378</v>
       </c>
       <c r="G84" t="n">
-        <v>1312880.476</v>
+        <v>-75852.41870000002</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3807,7 +3729,11 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3818,22 +3744,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C85" t="n">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D85" t="n">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E85" t="n">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F85" t="n">
-        <v>180.0013</v>
+        <v>20.0723</v>
       </c>
       <c r="G85" t="n">
-        <v>1312880.476</v>
+        <v>-75852.41870000002</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3843,7 +3769,11 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3854,22 +3784,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C86" t="n">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D86" t="n">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E86" t="n">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F86" t="n">
-        <v>5954.9679</v>
+        <v>1733.3255</v>
       </c>
       <c r="G86" t="n">
-        <v>1312880.476</v>
+        <v>-75852.41870000002</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3879,7 +3809,11 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3890,22 +3824,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C87" t="n">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D87" t="n">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E87" t="n">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F87" t="n">
-        <v>1528585.2982</v>
+        <v>99.5924</v>
       </c>
       <c r="G87" t="n">
-        <v>1312880.476</v>
+        <v>-75852.41870000002</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3915,7 +3849,11 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3926,32 +3864,36 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C88" t="n">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D88" t="n">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E88" t="n">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F88" t="n">
-        <v>1546113.1473</v>
+        <v>2045.4022</v>
       </c>
       <c r="G88" t="n">
-        <v>1312880.476</v>
+        <v>-75852.41870000002</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3962,32 +3904,36 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C89" t="n">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D89" t="n">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E89" t="n">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F89" t="n">
-        <v>1551742.2289</v>
+        <v>711.1214</v>
       </c>
       <c r="G89" t="n">
-        <v>1312880.476</v>
+        <v>-75852.41870000002</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3998,32 +3944,36 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C90" t="n">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D90" t="n">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E90" t="n">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F90" t="n">
-        <v>292709.5201</v>
+        <v>924.4579</v>
       </c>
       <c r="G90" t="n">
-        <v>1312880.476</v>
+        <v>-75852.41870000002</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -4034,32 +3984,36 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C91" t="n">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D91" t="n">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E91" t="n">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="F91" t="n">
-        <v>524000</v>
+        <v>28116.585</v>
       </c>
       <c r="G91" t="n">
-        <v>1312880.476</v>
+        <v>-47735.83370000002</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -4070,32 +4024,36 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C92" t="n">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D92" t="n">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E92" t="n">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F92" t="n">
-        <v>128391.7288</v>
+        <v>255.1469</v>
       </c>
       <c r="G92" t="n">
-        <v>1441272.2048</v>
+        <v>-47990.98060000002</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -4106,22 +4064,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C93" t="n">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D93" t="n">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E93" t="n">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F93" t="n">
-        <v>1248.4456</v>
+        <v>7560.3121</v>
       </c>
       <c r="G93" t="n">
-        <v>1440023.7592</v>
+        <v>-47990.98060000002</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -4131,7 +4089,11 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -4142,32 +4104,36 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C94" t="n">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D94" t="n">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E94" t="n">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F94" t="n">
-        <v>29747.0827</v>
+        <v>255</v>
       </c>
       <c r="G94" t="n">
-        <v>1440023.7592</v>
+        <v>-48245.98060000002</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -4178,22 +4144,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C95" t="n">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D95" t="n">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E95" t="n">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F95" t="n">
-        <v>20882.9186</v>
+        <v>119.7348</v>
       </c>
       <c r="G95" t="n">
-        <v>1440023.7592</v>
+        <v>-48126.24580000003</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4203,7 +4169,11 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4214,22 +4184,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C96" t="n">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D96" t="n">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="E96" t="n">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F96" t="n">
-        <v>229.0987</v>
+        <v>12759.1272</v>
       </c>
       <c r="G96" t="n">
-        <v>1440252.8579</v>
+        <v>-48126.24580000003</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4239,7 +4209,11 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4250,22 +4224,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C97" t="n">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D97" t="n">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E97" t="n">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F97" t="n">
-        <v>223.9913</v>
+        <v>251.2436</v>
       </c>
       <c r="G97" t="n">
-        <v>1440252.8579</v>
+        <v>-48377.48940000003</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4275,7 +4249,11 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4286,22 +4264,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C98" t="n">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D98" t="n">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E98" t="n">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F98" t="n">
-        <v>165.6652</v>
+        <v>8808.8068</v>
       </c>
       <c r="G98" t="n">
-        <v>1440252.8579</v>
+        <v>-57186.29620000003</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4311,7 +4289,11 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4322,22 +4304,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C99" t="n">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D99" t="n">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E99" t="n">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F99" t="n">
-        <v>194.2857</v>
+        <v>7123.1247</v>
       </c>
       <c r="G99" t="n">
-        <v>1440252.8579</v>
+        <v>-57186.29620000003</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4347,7 +4329,11 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4358,32 +4344,36 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C100" t="n">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D100" t="n">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E100" t="n">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F100" t="n">
-        <v>607.0853</v>
+        <v>131.4609</v>
       </c>
       <c r="G100" t="n">
-        <v>1439645.7726</v>
+        <v>-57186.29620000003</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4397,19 +4387,19 @@
         <v>163</v>
       </c>
       <c r="C101" t="n">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D101" t="n">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E101" t="n">
         <v>163</v>
       </c>
       <c r="F101" t="n">
-        <v>1000</v>
+        <v>314.8952</v>
       </c>
       <c r="G101" t="n">
-        <v>1440645.7726</v>
+        <v>-56871.40100000003</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4419,7 +4409,11 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4442,10 +4436,10 @@
         <v>163</v>
       </c>
       <c r="F102" t="n">
-        <v>1132.5696</v>
+        <v>450</v>
       </c>
       <c r="G102" t="n">
-        <v>1440645.7726</v>
+        <v>-57321.40100000003</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4455,7 +4449,11 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4478,20 +4476,24 @@
         <v>163</v>
       </c>
       <c r="F103" t="n">
-        <v>500</v>
+        <v>2041.9974</v>
       </c>
       <c r="G103" t="n">
-        <v>1440645.7726</v>
+        <v>-57321.40100000003</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4502,32 +4504,36 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C104" t="n">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D104" t="n">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E104" t="n">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F104" t="n">
-        <v>156.8184</v>
+        <v>1</v>
       </c>
       <c r="G104" t="n">
-        <v>1440645.7726</v>
+        <v>-57322.40100000003</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4550,20 +4556,24 @@
         <v>163</v>
       </c>
       <c r="F105" t="n">
-        <v>2250</v>
+        <v>1840.865</v>
       </c>
       <c r="G105" t="n">
-        <v>1440645.7726</v>
+        <v>-55481.53600000003</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4577,29 +4587,33 @@
         <v>163</v>
       </c>
       <c r="C106" t="n">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D106" t="n">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E106" t="n">
         <v>163</v>
       </c>
       <c r="F106" t="n">
-        <v>6213.5246</v>
+        <v>6754.3619</v>
       </c>
       <c r="G106" t="n">
-        <v>1446859.2972</v>
+        <v>-55481.53600000003</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4613,29 +4627,33 @@
         <v>164</v>
       </c>
       <c r="C107" t="n">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D107" t="n">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E107" t="n">
         <v>164</v>
       </c>
       <c r="F107" t="n">
-        <v>298.9938</v>
+        <v>480</v>
       </c>
       <c r="G107" t="n">
-        <v>1446560.3034</v>
+        <v>-55001.53600000003</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4658,20 +4676,24 @@
         <v>164</v>
       </c>
       <c r="F108" t="n">
-        <v>118.6522</v>
+        <v>234.8681</v>
       </c>
       <c r="G108" t="n">
-        <v>1446560.3034</v>
+        <v>-55236.40410000003</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4685,29 +4707,33 @@
         <v>165</v>
       </c>
       <c r="C109" t="n">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D109" t="n">
         <v>165</v>
       </c>
       <c r="E109" t="n">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F109" t="n">
-        <v>1</v>
+        <v>8326.9902</v>
       </c>
       <c r="G109" t="n">
-        <v>1446561.3034</v>
+        <v>-55236.40410000003</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4718,32 +4744,36 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C110" t="n">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D110" t="n">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E110" t="n">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="F110" t="n">
-        <v>671.2676</v>
+        <v>1339605.5805</v>
       </c>
       <c r="G110" t="n">
-        <v>1445890.0358</v>
+        <v>1284369.1764</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4754,32 +4784,36 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C111" t="n">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D111" t="n">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E111" t="n">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F111" t="n">
-        <v>138.4957</v>
+        <v>619101.9840000001</v>
       </c>
       <c r="G111" t="n">
-        <v>1446028.5315</v>
+        <v>1284369.1764</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4790,32 +4824,36 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C112" t="n">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D112" t="n">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E112" t="n">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F112" t="n">
-        <v>920.8207</v>
+        <v>21.3757</v>
       </c>
       <c r="G112" t="n">
-        <v>1446028.5315</v>
+        <v>1284369.1764</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4829,29 +4867,33 @@
         <v>163</v>
       </c>
       <c r="C113" t="n">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D113" t="n">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E113" t="n">
         <v>163</v>
       </c>
       <c r="F113" t="n">
-        <v>500</v>
+        <v>7452.3191</v>
       </c>
       <c r="G113" t="n">
-        <v>1446528.5315</v>
+        <v>1276916.8573</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4865,29 +4907,33 @@
         <v>163</v>
       </c>
       <c r="C114" t="n">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D114" t="n">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E114" t="n">
         <v>163</v>
       </c>
       <c r="F114" t="n">
-        <v>729</v>
+        <v>3192.6001</v>
       </c>
       <c r="G114" t="n">
-        <v>1446528.5315</v>
+        <v>1276916.8573</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4898,32 +4944,36 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C115" t="n">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D115" t="n">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E115" t="n">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F115" t="n">
-        <v>7420.4268</v>
+        <v>1213.6242</v>
       </c>
       <c r="G115" t="n">
-        <v>1446528.5315</v>
+        <v>1278130.4815</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4934,36 +4984,2666 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C116" t="n">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D116" t="n">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E116" t="n">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F116" t="n">
-        <v>2109.7666</v>
+        <v>10</v>
       </c>
       <c r="G116" t="n">
-        <v>1446528.5315</v>
+        <v>1278130.4815</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
       <c r="N116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>165</v>
+      </c>
+      <c r="C117" t="n">
+        <v>166</v>
+      </c>
+      <c r="D117" t="n">
+        <v>166</v>
+      </c>
+      <c r="E117" t="n">
+        <v>165</v>
+      </c>
+      <c r="F117" t="n">
+        <v>31178.4337</v>
+      </c>
+      <c r="G117" t="n">
+        <v>1309308.9152</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+      <c r="N117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>166</v>
+      </c>
+      <c r="C118" t="n">
+        <v>166</v>
+      </c>
+      <c r="D118" t="n">
+        <v>167</v>
+      </c>
+      <c r="E118" t="n">
+        <v>166</v>
+      </c>
+      <c r="F118" t="n">
+        <v>16305.9988</v>
+      </c>
+      <c r="G118" t="n">
+        <v>1309308.9152</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+      <c r="N118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>166</v>
+      </c>
+      <c r="C119" t="n">
+        <v>166</v>
+      </c>
+      <c r="D119" t="n">
+        <v>166</v>
+      </c>
+      <c r="E119" t="n">
+        <v>166</v>
+      </c>
+      <c r="F119" t="n">
+        <v>1125.0166</v>
+      </c>
+      <c r="G119" t="n">
+        <v>1309308.9152</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+      <c r="N119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>166</v>
+      </c>
+      <c r="C120" t="n">
+        <v>166</v>
+      </c>
+      <c r="D120" t="n">
+        <v>166</v>
+      </c>
+      <c r="E120" t="n">
+        <v>166</v>
+      </c>
+      <c r="F120" t="n">
+        <v>1324.8518</v>
+      </c>
+      <c r="G120" t="n">
+        <v>1309308.9152</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+      <c r="N120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>166</v>
+      </c>
+      <c r="C121" t="n">
+        <v>166</v>
+      </c>
+      <c r="D121" t="n">
+        <v>166</v>
+      </c>
+      <c r="E121" t="n">
+        <v>166</v>
+      </c>
+      <c r="F121" t="n">
+        <v>704.731</v>
+      </c>
+      <c r="G121" t="n">
+        <v>1309308.9152</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+      <c r="N121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>166</v>
+      </c>
+      <c r="C122" t="n">
+        <v>166</v>
+      </c>
+      <c r="D122" t="n">
+        <v>166</v>
+      </c>
+      <c r="E122" t="n">
+        <v>166</v>
+      </c>
+      <c r="F122" t="n">
+        <v>9636.054400000001</v>
+      </c>
+      <c r="G122" t="n">
+        <v>1309308.9152</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+      <c r="N122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>166</v>
+      </c>
+      <c r="C123" t="n">
+        <v>166</v>
+      </c>
+      <c r="D123" t="n">
+        <v>166</v>
+      </c>
+      <c r="E123" t="n">
+        <v>166</v>
+      </c>
+      <c r="F123" t="n">
+        <v>4663.5098</v>
+      </c>
+      <c r="G123" t="n">
+        <v>1309308.9152</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+      <c r="N123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>166</v>
+      </c>
+      <c r="C124" t="n">
+        <v>166</v>
+      </c>
+      <c r="D124" t="n">
+        <v>166</v>
+      </c>
+      <c r="E124" t="n">
+        <v>166</v>
+      </c>
+      <c r="F124" t="n">
+        <v>6480.0936</v>
+      </c>
+      <c r="G124" t="n">
+        <v>1309308.9152</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+      <c r="N124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>166</v>
+      </c>
+      <c r="C125" t="n">
+        <v>166</v>
+      </c>
+      <c r="D125" t="n">
+        <v>166</v>
+      </c>
+      <c r="E125" t="n">
+        <v>166</v>
+      </c>
+      <c r="F125" t="n">
+        <v>693.4496</v>
+      </c>
+      <c r="G125" t="n">
+        <v>1309308.9152</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+      <c r="N125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>166</v>
+      </c>
+      <c r="C126" t="n">
+        <v>166</v>
+      </c>
+      <c r="D126" t="n">
+        <v>166</v>
+      </c>
+      <c r="E126" t="n">
+        <v>166</v>
+      </c>
+      <c r="F126" t="n">
+        <v>826.9985</v>
+      </c>
+      <c r="G126" t="n">
+        <v>1309308.9152</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+      <c r="N126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>166</v>
+      </c>
+      <c r="C127" t="n">
+        <v>166</v>
+      </c>
+      <c r="D127" t="n">
+        <v>166</v>
+      </c>
+      <c r="E127" t="n">
+        <v>166</v>
+      </c>
+      <c r="F127" t="n">
+        <v>1570.2579</v>
+      </c>
+      <c r="G127" t="n">
+        <v>1309308.9152</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+      <c r="N127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>164</v>
+      </c>
+      <c r="C128" t="n">
+        <v>164</v>
+      </c>
+      <c r="D128" t="n">
+        <v>164</v>
+      </c>
+      <c r="E128" t="n">
+        <v>164</v>
+      </c>
+      <c r="F128" t="n">
+        <v>254.1084</v>
+      </c>
+      <c r="G128" t="n">
+        <v>1309054.8068</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+      <c r="N128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>163</v>
+      </c>
+      <c r="C129" t="n">
+        <v>164</v>
+      </c>
+      <c r="D129" t="n">
+        <v>164</v>
+      </c>
+      <c r="E129" t="n">
+        <v>163</v>
+      </c>
+      <c r="F129" t="n">
+        <v>2030.8773</v>
+      </c>
+      <c r="G129" t="n">
+        <v>1309054.8068</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>165</v>
+      </c>
+      <c r="C130" t="n">
+        <v>165</v>
+      </c>
+      <c r="D130" t="n">
+        <v>165</v>
+      </c>
+      <c r="E130" t="n">
+        <v>165</v>
+      </c>
+      <c r="F130" t="n">
+        <v>465.1165</v>
+      </c>
+      <c r="G130" t="n">
+        <v>1309519.9233</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>165</v>
+      </c>
+      <c r="C131" t="n">
+        <v>165</v>
+      </c>
+      <c r="D131" t="n">
+        <v>165</v>
+      </c>
+      <c r="E131" t="n">
+        <v>165</v>
+      </c>
+      <c r="F131" t="n">
+        <v>16019.8749</v>
+      </c>
+      <c r="G131" t="n">
+        <v>1309519.9233</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>167</v>
+      </c>
+      <c r="C132" t="n">
+        <v>167</v>
+      </c>
+      <c r="D132" t="n">
+        <v>167</v>
+      </c>
+      <c r="E132" t="n">
+        <v>167</v>
+      </c>
+      <c r="F132" t="n">
+        <v>2820</v>
+      </c>
+      <c r="G132" t="n">
+        <v>1312339.9233</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>167</v>
+      </c>
+      <c r="C133" t="n">
+        <v>167</v>
+      </c>
+      <c r="D133" t="n">
+        <v>167</v>
+      </c>
+      <c r="E133" t="n">
+        <v>167</v>
+      </c>
+      <c r="F133" t="n">
+        <v>1700</v>
+      </c>
+      <c r="G133" t="n">
+        <v>1312339.9233</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>167</v>
+      </c>
+      <c r="C134" t="n">
+        <v>167</v>
+      </c>
+      <c r="D134" t="n">
+        <v>167</v>
+      </c>
+      <c r="E134" t="n">
+        <v>167</v>
+      </c>
+      <c r="F134" t="n">
+        <v>7928.1262</v>
+      </c>
+      <c r="G134" t="n">
+        <v>1312339.9233</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>1</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>166</v>
+      </c>
+      <c r="C135" t="n">
+        <v>166</v>
+      </c>
+      <c r="D135" t="n">
+        <v>166</v>
+      </c>
+      <c r="E135" t="n">
+        <v>166</v>
+      </c>
+      <c r="F135" t="n">
+        <v>583.0492</v>
+      </c>
+      <c r="G135" t="n">
+        <v>1311756.8741</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>166</v>
+      </c>
+      <c r="C136" t="n">
+        <v>168</v>
+      </c>
+      <c r="D136" t="n">
+        <v>168</v>
+      </c>
+      <c r="E136" t="n">
+        <v>166</v>
+      </c>
+      <c r="F136" t="n">
+        <v>27484.0525</v>
+      </c>
+      <c r="G136" t="n">
+        <v>1339240.9266</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>166</v>
+      </c>
+      <c r="C137" t="n">
+        <v>165</v>
+      </c>
+      <c r="D137" t="n">
+        <v>166</v>
+      </c>
+      <c r="E137" t="n">
+        <v>165</v>
+      </c>
+      <c r="F137" t="n">
+        <v>14888.8858</v>
+      </c>
+      <c r="G137" t="n">
+        <v>1324352.0408</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>1</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>165</v>
+      </c>
+      <c r="C138" t="n">
+        <v>164</v>
+      </c>
+      <c r="D138" t="n">
+        <v>165</v>
+      </c>
+      <c r="E138" t="n">
+        <v>164</v>
+      </c>
+      <c r="F138" t="n">
+        <v>873.1695999999999</v>
+      </c>
+      <c r="G138" t="n">
+        <v>1323478.8712</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>1</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>165</v>
+      </c>
+      <c r="C139" t="n">
+        <v>165</v>
+      </c>
+      <c r="D139" t="n">
+        <v>165</v>
+      </c>
+      <c r="E139" t="n">
+        <v>165</v>
+      </c>
+      <c r="F139" t="n">
+        <v>420.2315</v>
+      </c>
+      <c r="G139" t="n">
+        <v>1323899.1027</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>1</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>163</v>
+      </c>
+      <c r="C140" t="n">
+        <v>163</v>
+      </c>
+      <c r="D140" t="n">
+        <v>163</v>
+      </c>
+      <c r="E140" t="n">
+        <v>163</v>
+      </c>
+      <c r="F140" t="n">
+        <v>1129.8511</v>
+      </c>
+      <c r="G140" t="n">
+        <v>1322769.2516</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>1</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>163</v>
+      </c>
+      <c r="C141" t="n">
+        <v>165</v>
+      </c>
+      <c r="D141" t="n">
+        <v>165</v>
+      </c>
+      <c r="E141" t="n">
+        <v>163</v>
+      </c>
+      <c r="F141" t="n">
+        <v>2678.5163</v>
+      </c>
+      <c r="G141" t="n">
+        <v>1325447.7679</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>1</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>164</v>
+      </c>
+      <c r="C142" t="n">
+        <v>164</v>
+      </c>
+      <c r="D142" t="n">
+        <v>164</v>
+      </c>
+      <c r="E142" t="n">
+        <v>164</v>
+      </c>
+      <c r="F142" t="n">
+        <v>660.2408</v>
+      </c>
+      <c r="G142" t="n">
+        <v>1324787.5271</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>1</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>165</v>
+      </c>
+      <c r="C143" t="n">
+        <v>165</v>
+      </c>
+      <c r="D143" t="n">
+        <v>165</v>
+      </c>
+      <c r="E143" t="n">
+        <v>165</v>
+      </c>
+      <c r="F143" t="n">
+        <v>287.8525</v>
+      </c>
+      <c r="G143" t="n">
+        <v>1325075.3796</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>1</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>166</v>
+      </c>
+      <c r="C144" t="n">
+        <v>166</v>
+      </c>
+      <c r="D144" t="n">
+        <v>166</v>
+      </c>
+      <c r="E144" t="n">
+        <v>166</v>
+      </c>
+      <c r="F144" t="n">
+        <v>291.9879</v>
+      </c>
+      <c r="G144" t="n">
+        <v>1325367.3675</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>1</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>164</v>
+      </c>
+      <c r="C145" t="n">
+        <v>164</v>
+      </c>
+      <c r="D145" t="n">
+        <v>164</v>
+      </c>
+      <c r="E145" t="n">
+        <v>164</v>
+      </c>
+      <c r="F145" t="n">
+        <v>583.0493</v>
+      </c>
+      <c r="G145" t="n">
+        <v>1324784.3182</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>1</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>164</v>
+      </c>
+      <c r="C146" t="n">
+        <v>164</v>
+      </c>
+      <c r="D146" t="n">
+        <v>164</v>
+      </c>
+      <c r="E146" t="n">
+        <v>164</v>
+      </c>
+      <c r="F146" t="n">
+        <v>432.9491</v>
+      </c>
+      <c r="G146" t="n">
+        <v>1324784.3182</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>1</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>164</v>
+      </c>
+      <c r="C147" t="n">
+        <v>165</v>
+      </c>
+      <c r="D147" t="n">
+        <v>165</v>
+      </c>
+      <c r="E147" t="n">
+        <v>164</v>
+      </c>
+      <c r="F147" t="n">
+        <v>250</v>
+      </c>
+      <c r="G147" t="n">
+        <v>1325034.3182</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>1</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>163</v>
+      </c>
+      <c r="C148" t="n">
+        <v>165</v>
+      </c>
+      <c r="D148" t="n">
+        <v>165</v>
+      </c>
+      <c r="E148" t="n">
+        <v>158</v>
+      </c>
+      <c r="F148" t="n">
+        <v>32199.5362</v>
+      </c>
+      <c r="G148" t="n">
+        <v>1325034.3182</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>1</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>164</v>
+      </c>
+      <c r="C149" t="n">
+        <v>164</v>
+      </c>
+      <c r="D149" t="n">
+        <v>164</v>
+      </c>
+      <c r="E149" t="n">
+        <v>164</v>
+      </c>
+      <c r="F149" t="n">
+        <v>1761.1186</v>
+      </c>
+      <c r="G149" t="n">
+        <v>1323273.1996</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>162</v>
+      </c>
+      <c r="C150" t="n">
+        <v>162</v>
+      </c>
+      <c r="D150" t="n">
+        <v>163</v>
+      </c>
+      <c r="E150" t="n">
+        <v>162</v>
+      </c>
+      <c r="F150" t="n">
+        <v>920</v>
+      </c>
+      <c r="G150" t="n">
+        <v>1322353.1996</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>1</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>163</v>
+      </c>
+      <c r="C151" t="n">
+        <v>163</v>
+      </c>
+      <c r="D151" t="n">
+        <v>163</v>
+      </c>
+      <c r="E151" t="n">
+        <v>163</v>
+      </c>
+      <c r="F151" t="n">
+        <v>698.8684</v>
+      </c>
+      <c r="G151" t="n">
+        <v>1323052.068</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>163</v>
+      </c>
+      <c r="C152" t="n">
+        <v>163</v>
+      </c>
+      <c r="D152" t="n">
+        <v>163</v>
+      </c>
+      <c r="E152" t="n">
+        <v>163</v>
+      </c>
+      <c r="F152" t="n">
+        <v>305.8261</v>
+      </c>
+      <c r="G152" t="n">
+        <v>1323052.068</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>163</v>
+      </c>
+      <c r="C153" t="n">
+        <v>165</v>
+      </c>
+      <c r="D153" t="n">
+        <v>165</v>
+      </c>
+      <c r="E153" t="n">
+        <v>163</v>
+      </c>
+      <c r="F153" t="n">
+        <v>4610.6334</v>
+      </c>
+      <c r="G153" t="n">
+        <v>1327662.7014</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>1</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>163</v>
+      </c>
+      <c r="C154" t="n">
+        <v>163</v>
+      </c>
+      <c r="D154" t="n">
+        <v>163</v>
+      </c>
+      <c r="E154" t="n">
+        <v>163</v>
+      </c>
+      <c r="F154" t="n">
+        <v>5.9554</v>
+      </c>
+      <c r="G154" t="n">
+        <v>1327656.746</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>162</v>
+      </c>
+      <c r="C155" t="n">
+        <v>162</v>
+      </c>
+      <c r="D155" t="n">
+        <v>163</v>
+      </c>
+      <c r="E155" t="n">
+        <v>158</v>
+      </c>
+      <c r="F155" t="n">
+        <v>14776.27</v>
+      </c>
+      <c r="G155" t="n">
+        <v>1312880.476</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>162</v>
+      </c>
+      <c r="C156" t="n">
+        <v>162</v>
+      </c>
+      <c r="D156" t="n">
+        <v>162</v>
+      </c>
+      <c r="E156" t="n">
+        <v>162</v>
+      </c>
+      <c r="F156" t="n">
+        <v>180.0013</v>
+      </c>
+      <c r="G156" t="n">
+        <v>1312880.476</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>162</v>
+      </c>
+      <c r="C157" t="n">
+        <v>162</v>
+      </c>
+      <c r="D157" t="n">
+        <v>162</v>
+      </c>
+      <c r="E157" t="n">
+        <v>162</v>
+      </c>
+      <c r="F157" t="n">
+        <v>5954.9679</v>
+      </c>
+      <c r="G157" t="n">
+        <v>1312880.476</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>162</v>
+      </c>
+      <c r="C158" t="n">
+        <v>162</v>
+      </c>
+      <c r="D158" t="n">
+        <v>162</v>
+      </c>
+      <c r="E158" t="n">
+        <v>162</v>
+      </c>
+      <c r="F158" t="n">
+        <v>1528585.2982</v>
+      </c>
+      <c r="G158" t="n">
+        <v>1312880.476</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>162</v>
+      </c>
+      <c r="C159" t="n">
+        <v>162</v>
+      </c>
+      <c r="D159" t="n">
+        <v>162</v>
+      </c>
+      <c r="E159" t="n">
+        <v>162</v>
+      </c>
+      <c r="F159" t="n">
+        <v>1546113.1473</v>
+      </c>
+      <c r="G159" t="n">
+        <v>1312880.476</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>162</v>
+      </c>
+      <c r="C160" t="n">
+        <v>162</v>
+      </c>
+      <c r="D160" t="n">
+        <v>162</v>
+      </c>
+      <c r="E160" t="n">
+        <v>162</v>
+      </c>
+      <c r="F160" t="n">
+        <v>1551742.2289</v>
+      </c>
+      <c r="G160" t="n">
+        <v>1312880.476</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>162</v>
+      </c>
+      <c r="C161" t="n">
+        <v>162</v>
+      </c>
+      <c r="D161" t="n">
+        <v>162</v>
+      </c>
+      <c r="E161" t="n">
+        <v>162</v>
+      </c>
+      <c r="F161" t="n">
+        <v>292709.5201</v>
+      </c>
+      <c r="G161" t="n">
+        <v>1312880.476</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>162</v>
+      </c>
+      <c r="C162" t="n">
+        <v>162</v>
+      </c>
+      <c r="D162" t="n">
+        <v>162</v>
+      </c>
+      <c r="E162" t="n">
+        <v>162</v>
+      </c>
+      <c r="F162" t="n">
+        <v>524000</v>
+      </c>
+      <c r="G162" t="n">
+        <v>1312880.476</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>162</v>
+      </c>
+      <c r="C163" t="n">
+        <v>163</v>
+      </c>
+      <c r="D163" t="n">
+        <v>163</v>
+      </c>
+      <c r="E163" t="n">
+        <v>162</v>
+      </c>
+      <c r="F163" t="n">
+        <v>128391.7288</v>
+      </c>
+      <c r="G163" t="n">
+        <v>1441272.2048</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>162</v>
+      </c>
+      <c r="C164" t="n">
+        <v>162</v>
+      </c>
+      <c r="D164" t="n">
+        <v>162</v>
+      </c>
+      <c r="E164" t="n">
+        <v>162</v>
+      </c>
+      <c r="F164" t="n">
+        <v>1248.4456</v>
+      </c>
+      <c r="G164" t="n">
+        <v>1440023.7592</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>162</v>
+      </c>
+      <c r="C165" t="n">
+        <v>162</v>
+      </c>
+      <c r="D165" t="n">
+        <v>162</v>
+      </c>
+      <c r="E165" t="n">
+        <v>162</v>
+      </c>
+      <c r="F165" t="n">
+        <v>29747.0827</v>
+      </c>
+      <c r="G165" t="n">
+        <v>1440023.7592</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>162</v>
+      </c>
+      <c r="C166" t="n">
+        <v>162</v>
+      </c>
+      <c r="D166" t="n">
+        <v>162</v>
+      </c>
+      <c r="E166" t="n">
+        <v>162</v>
+      </c>
+      <c r="F166" t="n">
+        <v>20882.9186</v>
+      </c>
+      <c r="G166" t="n">
+        <v>1440023.7592</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>163</v>
+      </c>
+      <c r="C167" t="n">
+        <v>163</v>
+      </c>
+      <c r="D167" t="n">
+        <v>163</v>
+      </c>
+      <c r="E167" t="n">
+        <v>163</v>
+      </c>
+      <c r="F167" t="n">
+        <v>229.0987</v>
+      </c>
+      <c r="G167" t="n">
+        <v>1440252.8579</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>163</v>
+      </c>
+      <c r="C168" t="n">
+        <v>163</v>
+      </c>
+      <c r="D168" t="n">
+        <v>163</v>
+      </c>
+      <c r="E168" t="n">
+        <v>163</v>
+      </c>
+      <c r="F168" t="n">
+        <v>223.9913</v>
+      </c>
+      <c r="G168" t="n">
+        <v>1440252.8579</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>163</v>
+      </c>
+      <c r="C169" t="n">
+        <v>163</v>
+      </c>
+      <c r="D169" t="n">
+        <v>163</v>
+      </c>
+      <c r="E169" t="n">
+        <v>163</v>
+      </c>
+      <c r="F169" t="n">
+        <v>165.6652</v>
+      </c>
+      <c r="G169" t="n">
+        <v>1440252.8579</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>163</v>
+      </c>
+      <c r="C170" t="n">
+        <v>163</v>
+      </c>
+      <c r="D170" t="n">
+        <v>163</v>
+      </c>
+      <c r="E170" t="n">
+        <v>163</v>
+      </c>
+      <c r="F170" t="n">
+        <v>194.2857</v>
+      </c>
+      <c r="G170" t="n">
+        <v>1440252.8579</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>162</v>
+      </c>
+      <c r="C171" t="n">
+        <v>162</v>
+      </c>
+      <c r="D171" t="n">
+        <v>162</v>
+      </c>
+      <c r="E171" t="n">
+        <v>162</v>
+      </c>
+      <c r="F171" t="n">
+        <v>607.0853</v>
+      </c>
+      <c r="G171" t="n">
+        <v>1439645.7726</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>163</v>
+      </c>
+      <c r="C172" t="n">
+        <v>163</v>
+      </c>
+      <c r="D172" t="n">
+        <v>163</v>
+      </c>
+      <c r="E172" t="n">
+        <v>163</v>
+      </c>
+      <c r="F172" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G172" t="n">
+        <v>1440645.7726</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>163</v>
+      </c>
+      <c r="C173" t="n">
+        <v>163</v>
+      </c>
+      <c r="D173" t="n">
+        <v>163</v>
+      </c>
+      <c r="E173" t="n">
+        <v>163</v>
+      </c>
+      <c r="F173" t="n">
+        <v>1132.5696</v>
+      </c>
+      <c r="G173" t="n">
+        <v>1440645.7726</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+      <c r="N173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>163</v>
+      </c>
+      <c r="C174" t="n">
+        <v>163</v>
+      </c>
+      <c r="D174" t="n">
+        <v>163</v>
+      </c>
+      <c r="E174" t="n">
+        <v>163</v>
+      </c>
+      <c r="F174" t="n">
+        <v>500</v>
+      </c>
+      <c r="G174" t="n">
+        <v>1440645.7726</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+      <c r="N174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>163</v>
+      </c>
+      <c r="C175" t="n">
+        <v>163</v>
+      </c>
+      <c r="D175" t="n">
+        <v>163</v>
+      </c>
+      <c r="E175" t="n">
+        <v>163</v>
+      </c>
+      <c r="F175" t="n">
+        <v>156.8184</v>
+      </c>
+      <c r="G175" t="n">
+        <v>1440645.7726</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+      <c r="N175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>163</v>
+      </c>
+      <c r="C176" t="n">
+        <v>163</v>
+      </c>
+      <c r="D176" t="n">
+        <v>163</v>
+      </c>
+      <c r="E176" t="n">
+        <v>163</v>
+      </c>
+      <c r="F176" t="n">
+        <v>2250</v>
+      </c>
+      <c r="G176" t="n">
+        <v>1440645.7726</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+      <c r="N176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>163</v>
+      </c>
+      <c r="C177" t="n">
+        <v>166</v>
+      </c>
+      <c r="D177" t="n">
+        <v>166</v>
+      </c>
+      <c r="E177" t="n">
+        <v>163</v>
+      </c>
+      <c r="F177" t="n">
+        <v>6213.5246</v>
+      </c>
+      <c r="G177" t="n">
+        <v>1446859.2972</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+      <c r="N177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>164</v>
+      </c>
+      <c r="C178" t="n">
+        <v>164</v>
+      </c>
+      <c r="D178" t="n">
+        <v>164</v>
+      </c>
+      <c r="E178" t="n">
+        <v>164</v>
+      </c>
+      <c r="F178" t="n">
+        <v>298.9938</v>
+      </c>
+      <c r="G178" t="n">
+        <v>1446560.3034</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+      <c r="N178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>164</v>
+      </c>
+      <c r="C179" t="n">
+        <v>164</v>
+      </c>
+      <c r="D179" t="n">
+        <v>164</v>
+      </c>
+      <c r="E179" t="n">
+        <v>164</v>
+      </c>
+      <c r="F179" t="n">
+        <v>118.6522</v>
+      </c>
+      <c r="G179" t="n">
+        <v>1446560.3034</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>1</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+      <c r="N179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>165</v>
+      </c>
+      <c r="C180" t="n">
+        <v>165</v>
+      </c>
+      <c r="D180" t="n">
+        <v>165</v>
+      </c>
+      <c r="E180" t="n">
+        <v>165</v>
+      </c>
+      <c r="F180" t="n">
+        <v>1</v>
+      </c>
+      <c r="G180" t="n">
+        <v>1446561.3034</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+      <c r="N180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>163</v>
+      </c>
+      <c r="C181" t="n">
+        <v>162</v>
+      </c>
+      <c r="D181" t="n">
+        <v>163</v>
+      </c>
+      <c r="E181" t="n">
+        <v>162</v>
+      </c>
+      <c r="F181" t="n">
+        <v>671.2676</v>
+      </c>
+      <c r="G181" t="n">
+        <v>1445890.0358</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>1</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+      <c r="N181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>163</v>
+      </c>
+      <c r="C182" t="n">
+        <v>163</v>
+      </c>
+      <c r="D182" t="n">
+        <v>163</v>
+      </c>
+      <c r="E182" t="n">
+        <v>163</v>
+      </c>
+      <c r="F182" t="n">
+        <v>138.4957</v>
+      </c>
+      <c r="G182" t="n">
+        <v>1446028.5315</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+      <c r="N182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>163</v>
+      </c>
+      <c r="C183" t="n">
+        <v>163</v>
+      </c>
+      <c r="D183" t="n">
+        <v>163</v>
+      </c>
+      <c r="E183" t="n">
+        <v>163</v>
+      </c>
+      <c r="F183" t="n">
+        <v>920.8207</v>
+      </c>
+      <c r="G183" t="n">
+        <v>1446028.5315</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+      <c r="N183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>163</v>
+      </c>
+      <c r="C184" t="n">
+        <v>164</v>
+      </c>
+      <c r="D184" t="n">
+        <v>164</v>
+      </c>
+      <c r="E184" t="n">
+        <v>163</v>
+      </c>
+      <c r="F184" t="n">
+        <v>500</v>
+      </c>
+      <c r="G184" t="n">
+        <v>1446528.5315</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+      <c r="N184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>163</v>
+      </c>
+      <c r="C185" t="n">
+        <v>164</v>
+      </c>
+      <c r="D185" t="n">
+        <v>164</v>
+      </c>
+      <c r="E185" t="n">
+        <v>163</v>
+      </c>
+      <c r="F185" t="n">
+        <v>729</v>
+      </c>
+      <c r="G185" t="n">
+        <v>1446528.5315</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+      <c r="N185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>164</v>
+      </c>
+      <c r="C186" t="n">
+        <v>164</v>
+      </c>
+      <c r="D186" t="n">
+        <v>164</v>
+      </c>
+      <c r="E186" t="n">
+        <v>164</v>
+      </c>
+      <c r="F186" t="n">
+        <v>7420.4268</v>
+      </c>
+      <c r="G186" t="n">
+        <v>1446528.5315</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+      <c r="N186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>164</v>
+      </c>
+      <c r="C187" t="n">
+        <v>164</v>
+      </c>
+      <c r="D187" t="n">
+        <v>164</v>
+      </c>
+      <c r="E187" t="n">
+        <v>164</v>
+      </c>
+      <c r="F187" t="n">
+        <v>2109.7666</v>
+      </c>
+      <c r="G187" t="n">
+        <v>1446528.5315</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+      <c r="N187" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-11-02 BackTest ITC.xlsx
+++ b/BackTest/2019-11-02 BackTest ITC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N187"/>
+  <dimension ref="A1:M187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>7773.511899999998</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -780,18 +748,19 @@
         <v>-4009.0116</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
+        <v>159</v>
+      </c>
+      <c r="J11" t="n">
+        <v>159</v>
+      </c>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -816,18 +785,23 @@
         <v>-4009.0116</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+        <v>160</v>
+      </c>
+      <c r="J12" t="n">
+        <v>159</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -852,18 +826,23 @@
         <v>-3946.5116</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+        <v>160</v>
+      </c>
+      <c r="J13" t="n">
+        <v>159</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -888,18 +867,19 @@
         <v>-6587.474899999999</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
+        <v>161</v>
+      </c>
+      <c r="J14" t="n">
+        <v>161</v>
+      </c>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +906,19 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>161</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -960,24 +943,23 @@
         <v>-4218.0331</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>159</v>
       </c>
       <c r="J16" t="n">
-        <v>159</v>
-      </c>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
+        <v>161</v>
+      </c>
+      <c r="K16" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1004,20 +986,19 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>161</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1042,22 +1023,23 @@
         <v>-4218.0331</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+        <v>161</v>
+      </c>
+      <c r="J18" t="n">
+        <v>161</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1082,22 +1064,23 @@
         <v>-4218.0331</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+        <v>161</v>
+      </c>
+      <c r="J19" t="n">
+        <v>161</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1122,22 +1105,23 @@
         <v>-4218.0331</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+        <v>161</v>
+      </c>
+      <c r="J20" t="n">
+        <v>161</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1164,20 +1148,19 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>161</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1204,20 +1187,19 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>161</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1242,22 +1224,23 @@
         <v>-4586.717999999999</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+        <v>160</v>
+      </c>
+      <c r="J23" t="n">
+        <v>161</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1282,22 +1265,23 @@
         <v>-4851.008299999999</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+        <v>158</v>
+      </c>
+      <c r="J24" t="n">
+        <v>161</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1322,22 +1306,23 @@
         <v>-98095.6406</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+        <v>157</v>
+      </c>
+      <c r="J25" t="n">
+        <v>161</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1362,24 +1347,23 @@
         <v>-97217.5506</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="J26" t="n">
-        <v>153</v>
-      </c>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+        <v>161</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1404,24 +1388,23 @@
         <v>-97086.06360000001</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>157</v>
       </c>
       <c r="J27" t="n">
-        <v>157</v>
-      </c>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+        <v>161</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1446,24 +1429,23 @@
         <v>-97086.06360000001</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>158</v>
       </c>
       <c r="J28" t="n">
-        <v>158</v>
-      </c>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+        <v>161</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1488,24 +1470,23 @@
         <v>-97086.06360000001</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>158</v>
       </c>
       <c r="J29" t="n">
-        <v>158</v>
-      </c>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+        <v>161</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1530,24 +1511,23 @@
         <v>-97086.06360000001</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>158</v>
       </c>
       <c r="J30" t="n">
-        <v>158</v>
-      </c>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+        <v>161</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1572,24 +1552,21 @@
         <v>-97086.06360000001</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="n">
-        <v>158</v>
-      </c>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+        <v>161</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1614,24 +1591,23 @@
         <v>-97086.06360000001</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>158</v>
       </c>
       <c r="J32" t="n">
-        <v>158</v>
-      </c>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+        <v>161</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1656,24 +1632,23 @@
         <v>-97086.06360000001</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>158</v>
       </c>
       <c r="J33" t="n">
-        <v>158</v>
-      </c>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+        <v>161</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1698,24 +1673,23 @@
         <v>-96426.107</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>158</v>
       </c>
       <c r="J34" t="n">
-        <v>158</v>
-      </c>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+        <v>161</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1740,24 +1714,23 @@
         <v>-96426.107</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>159</v>
       </c>
       <c r="J35" t="n">
-        <v>159</v>
-      </c>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+        <v>161</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1782,24 +1755,23 @@
         <v>-96426.107</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>159</v>
       </c>
       <c r="J36" t="n">
-        <v>159</v>
-      </c>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+        <v>161</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1824,24 +1796,23 @@
         <v>-96426.107</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>159</v>
       </c>
       <c r="J37" t="n">
-        <v>159</v>
-      </c>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+        <v>161</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1866,24 +1837,21 @@
         <v>-84337.67450000001</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="n">
-        <v>159</v>
-      </c>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+        <v>161</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1908,22 +1876,23 @@
         <v>-84487.67450000001</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+        <v>161</v>
+      </c>
+      <c r="J39" t="n">
+        <v>161</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1948,24 +1917,23 @@
         <v>-78830.87480000001</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>159</v>
       </c>
       <c r="J40" t="n">
-        <v>159</v>
-      </c>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+        <v>161</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1990,24 +1958,23 @@
         <v>-81668.54890000001</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="J41" t="n">
-        <v>160</v>
-      </c>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+        <v>161</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2032,24 +1999,23 @@
         <v>-81292.58610000001</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>159</v>
       </c>
       <c r="J42" t="n">
-        <v>159</v>
-      </c>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+        <v>161</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2074,22 +2040,23 @@
         <v>-81581.96710000001</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+        <v>161</v>
+      </c>
+      <c r="J43" t="n">
+        <v>161</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2114,24 +2081,23 @@
         <v>-81581.96710000001</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>159</v>
       </c>
       <c r="J44" t="n">
-        <v>159</v>
-      </c>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+        <v>161</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2156,24 +2122,23 @@
         <v>-81581.96710000001</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>159</v>
       </c>
       <c r="J45" t="n">
-        <v>159</v>
-      </c>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+        <v>161</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2198,22 +2163,23 @@
         <v>-84781.96710000001</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+        <v>159</v>
+      </c>
+      <c r="J46" t="n">
+        <v>161</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2238,22 +2204,23 @@
         <v>-84673.95030000001</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+        <v>158</v>
+      </c>
+      <c r="J47" t="n">
+        <v>161</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2278,22 +2245,23 @@
         <v>-84673.95030000001</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+        <v>159</v>
+      </c>
+      <c r="J48" t="n">
+        <v>161</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2318,22 +2286,23 @@
         <v>-84673.95030000001</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+        <v>159</v>
+      </c>
+      <c r="J49" t="n">
+        <v>161</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2358,24 +2327,23 @@
         <v>-84475.78300000001</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>159</v>
       </c>
       <c r="J50" t="n">
-        <v>159</v>
-      </c>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+        <v>161</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2400,24 +2368,23 @@
         <v>-83725.78300000001</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="J51" t="n">
-        <v>160</v>
-      </c>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+        <v>161</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2444,20 +2411,19 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>161</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2484,20 +2450,19 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>161</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2524,20 +2489,19 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>161</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2564,20 +2528,19 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>161</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2604,20 +2567,19 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>161</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2644,20 +2606,19 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>161</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2684,20 +2645,19 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>161</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2724,20 +2684,19 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>161</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2764,20 +2723,19 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>161</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2804,20 +2762,19 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>161</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2844,20 +2801,19 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>161</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2884,20 +2840,19 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>161</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2924,20 +2879,19 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>161</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2962,22 +2916,23 @@
         <v>-89712.656</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+        <v>162</v>
+      </c>
+      <c r="J65" t="n">
+        <v>161</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3004,20 +2959,19 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>161</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3044,20 +2998,19 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>161</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3084,20 +3037,19 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>161</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3124,20 +3076,19 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>161</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3164,20 +3115,19 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>161</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3204,20 +3154,19 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>161</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3244,20 +3193,19 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>161</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3284,20 +3232,19 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>161</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3324,20 +3271,19 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>161</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3364,20 +3310,19 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>161</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3404,20 +3349,19 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>161</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3444,20 +3388,19 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>161</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3484,20 +3427,19 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>161</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3524,20 +3466,19 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>161</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3564,20 +3505,19 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>161</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3604,20 +3544,19 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>161</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3644,20 +3583,19 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>161</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3684,20 +3622,19 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>161</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3724,20 +3661,19 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>161</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3764,20 +3700,19 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>161</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3804,20 +3739,19 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>161</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3844,20 +3778,19 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>161</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3884,20 +3817,19 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>161</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3924,20 +3856,19 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>161</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3964,20 +3895,19 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>161</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -4004,20 +3934,19 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>161</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4044,20 +3973,19 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>161</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4084,20 +4012,19 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>161</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4124,20 +4051,19 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>161</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4164,20 +4090,19 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>161</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4204,20 +4129,19 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>161</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4244,20 +4168,19 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>161</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4284,20 +4207,19 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>161</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4324,20 +4246,19 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>161</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4364,20 +4285,19 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>161</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4404,20 +4324,19 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>161</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4444,20 +4363,19 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>161</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4484,20 +4402,19 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>161</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4524,20 +4441,19 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>161</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4564,20 +4480,19 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>161</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4604,20 +4519,19 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>161</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4644,20 +4558,19 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>161</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4684,20 +4597,19 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>161</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4724,20 +4636,19 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>161</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4764,20 +4675,19 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>161</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4804,20 +4714,19 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>161</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4844,20 +4753,19 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>161</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4884,20 +4792,19 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>161</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4924,20 +4831,19 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>161</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4964,20 +4870,19 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>161</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -5004,20 +4909,19 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>161</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -5044,20 +4948,19 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>161</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -5084,20 +4987,19 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>161</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5124,20 +5026,19 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>161</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5164,20 +5065,19 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>161</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5204,20 +5104,19 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>161</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5244,20 +5143,19 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>161</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5284,20 +5182,19 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>161</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5324,20 +5221,19 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>161</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5364,20 +5260,19 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>161</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5404,20 +5299,19 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>161</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5444,20 +5338,19 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>161</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5482,22 +5375,21 @@
         <v>1309054.8068</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>161</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L128" t="n">
+        <v>1.013633540372671</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5522,22 +5414,15 @@
         <v>1309054.8068</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5564,20 +5449,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5604,20 +5482,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5644,20 +5515,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5684,20 +5548,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5724,18 +5581,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>1</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+      <c r="L134" t="n">
+        <v>1</v>
       </c>
       <c r="M134" t="inlineStr"/>
-      <c r="N134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5760,18 +5612,15 @@
         <v>1311756.8741</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5796,18 +5645,15 @@
         <v>1339240.9266</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5832,18 +5678,15 @@
         <v>1324352.0408</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5868,18 +5711,15 @@
         <v>1323478.8712</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5904,18 +5744,15 @@
         <v>1323899.1027</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5940,18 +5777,15 @@
         <v>1322769.2516</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5976,18 +5810,15 @@
         <v>1325447.7679</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -6014,16 +5845,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>1</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -6050,16 +5878,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>1</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -6086,16 +5911,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>1</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -6122,16 +5944,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>1</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6158,16 +5977,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>1</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6194,16 +6010,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>1</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6230,16 +6043,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>1</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6266,16 +6076,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6302,16 +6109,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>1</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6338,16 +6142,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6374,16 +6175,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6410,16 +6208,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>1</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6446,16 +6241,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6482,16 +6274,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6518,16 +6307,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6554,16 +6340,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6590,16 +6373,13 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6626,16 +6406,13 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6662,16 +6439,13 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6698,16 +6472,13 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6734,16 +6505,13 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6770,16 +6538,13 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6806,16 +6571,13 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6842,16 +6604,13 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6878,16 +6637,13 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6912,18 +6668,15 @@
         <v>1440252.8579</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6948,18 +6701,15 @@
         <v>1440252.8579</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6984,18 +6734,15 @@
         <v>1440252.8579</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -7020,18 +6767,15 @@
         <v>1440252.8579</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -7056,18 +6800,15 @@
         <v>1439645.7726</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -7092,18 +6833,15 @@
         <v>1440645.7726</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -7130,16 +6868,13 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -7166,16 +6901,13 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7200,18 +6932,15 @@
         <v>1440645.7726</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7236,18 +6965,15 @@
         <v>1440645.7726</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7272,18 +6998,15 @@
         <v>1446859.2972</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7310,16 +7033,13 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7346,16 +7066,13 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>1</v>
-      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7382,16 +7099,13 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7416,18 +7130,15 @@
         <v>1445890.0358</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7452,18 +7163,15 @@
         <v>1446028.5315</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7488,18 +7196,15 @@
         <v>1446028.5315</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7524,18 +7229,15 @@
         <v>1446528.5315</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7560,18 +7262,15 @@
         <v>1446528.5315</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7598,16 +7297,13 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7634,18 +7330,15 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-02 BackTest ITC.xlsx
+++ b/BackTest/2019-11-02 BackTest ITC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>7773.511899999998</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-4009.0116</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>159</v>
@@ -785,7 +785,7 @@
         <v>-4009.0116</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>160</v>
@@ -826,11 +826,9 @@
         <v>-3946.5116</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
-      </c>
-      <c r="I13" t="n">
-        <v>160</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="n">
         <v>159</v>
       </c>
@@ -867,14 +865,10 @@
         <v>-6587.474899999999</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
-      </c>
-      <c r="I14" t="n">
-        <v>161</v>
-      </c>
-      <c r="J14" t="n">
-        <v>161</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
@@ -907,14 +901,8 @@
         <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
-        <v>161</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -943,14 +931,12 @@
         <v>-4218.0331</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>159</v>
       </c>
-      <c r="J16" t="n">
-        <v>161</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
           <t>매수 체결</t>
@@ -987,9 +973,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
-        <v>161</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1023,14 +1007,10 @@
         <v>-4218.0331</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
-      </c>
-      <c r="I18" t="n">
-        <v>161</v>
-      </c>
-      <c r="J18" t="n">
-        <v>161</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1064,14 +1044,10 @@
         <v>-4218.0331</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
-      </c>
-      <c r="I19" t="n">
-        <v>161</v>
-      </c>
-      <c r="J19" t="n">
-        <v>161</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1105,14 +1081,10 @@
         <v>-4218.0331</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
-      </c>
-      <c r="I20" t="n">
-        <v>161</v>
-      </c>
-      <c r="J20" t="n">
-        <v>161</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1149,9 +1121,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>161</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1188,9 +1158,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>161</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1224,14 +1192,10 @@
         <v>-4586.717999999999</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
-      </c>
-      <c r="I23" t="n">
-        <v>160</v>
-      </c>
-      <c r="J23" t="n">
-        <v>161</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1265,14 +1229,12 @@
         <v>-4851.008299999999</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>158</v>
       </c>
-      <c r="J24" t="n">
-        <v>161</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1306,14 +1268,12 @@
         <v>-98095.6406</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>157</v>
       </c>
-      <c r="J25" t="n">
-        <v>161</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1347,14 +1307,12 @@
         <v>-97217.5506</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>153</v>
       </c>
-      <c r="J26" t="n">
-        <v>161</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1388,14 +1346,12 @@
         <v>-97086.06360000001</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>157</v>
       </c>
-      <c r="J27" t="n">
-        <v>161</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1429,14 +1385,12 @@
         <v>-97086.06360000001</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>158</v>
       </c>
-      <c r="J28" t="n">
-        <v>161</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1470,14 +1424,12 @@
         <v>-97086.06360000001</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>158</v>
       </c>
-      <c r="J29" t="n">
-        <v>161</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1511,14 +1463,12 @@
         <v>-97086.06360000001</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>158</v>
       </c>
-      <c r="J30" t="n">
-        <v>161</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1552,12 +1502,12 @@
         <v>-97086.06360000001</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>161</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>158</v>
+      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1591,14 +1541,12 @@
         <v>-97086.06360000001</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>158</v>
       </c>
-      <c r="J32" t="n">
-        <v>161</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1632,14 +1580,12 @@
         <v>-97086.06360000001</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>158</v>
       </c>
-      <c r="J33" t="n">
-        <v>161</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1673,14 +1619,12 @@
         <v>-96426.107</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>158</v>
       </c>
-      <c r="J34" t="n">
-        <v>161</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1714,14 +1658,12 @@
         <v>-96426.107</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>159</v>
       </c>
-      <c r="J35" t="n">
-        <v>161</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1755,14 +1697,12 @@
         <v>-96426.107</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>159</v>
       </c>
-      <c r="J36" t="n">
-        <v>161</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1796,14 +1736,12 @@
         <v>-96426.107</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>159</v>
       </c>
-      <c r="J37" t="n">
-        <v>161</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1840,9 +1778,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>161</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1876,14 +1812,12 @@
         <v>-84487.67450000001</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>161</v>
       </c>
-      <c r="J39" t="n">
-        <v>161</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1917,14 +1851,12 @@
         <v>-78830.87480000001</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>159</v>
       </c>
-      <c r="J40" t="n">
-        <v>161</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1958,14 +1890,10 @@
         <v>-81668.54890000001</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
-      </c>
-      <c r="I41" t="n">
-        <v>160</v>
-      </c>
-      <c r="J41" t="n">
-        <v>161</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1999,14 +1927,12 @@
         <v>-81292.58610000001</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>159</v>
       </c>
-      <c r="J42" t="n">
-        <v>161</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2040,14 +1966,10 @@
         <v>-81581.96710000001</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
-      </c>
-      <c r="I43" t="n">
-        <v>161</v>
-      </c>
-      <c r="J43" t="n">
-        <v>161</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2081,14 +2003,10 @@
         <v>-81581.96710000001</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
-      </c>
-      <c r="I44" t="n">
-        <v>159</v>
-      </c>
-      <c r="J44" t="n">
-        <v>161</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2122,14 +2040,10 @@
         <v>-81581.96710000001</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
-      </c>
-      <c r="I45" t="n">
-        <v>159</v>
-      </c>
-      <c r="J45" t="n">
-        <v>161</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2163,14 +2077,10 @@
         <v>-84781.96710000001</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
-      </c>
-      <c r="I46" t="n">
-        <v>159</v>
-      </c>
-      <c r="J46" t="n">
-        <v>161</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2204,14 +2114,12 @@
         <v>-84673.95030000001</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
         <v>158</v>
       </c>
-      <c r="J47" t="n">
-        <v>161</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2245,14 +2153,12 @@
         <v>-84673.95030000001</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
         <v>159</v>
       </c>
-      <c r="J48" t="n">
-        <v>161</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2286,14 +2192,12 @@
         <v>-84673.95030000001</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
         <v>159</v>
       </c>
-      <c r="J49" t="n">
-        <v>161</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2327,14 +2231,12 @@
         <v>-84475.78300000001</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
         <v>159</v>
       </c>
-      <c r="J50" t="n">
-        <v>161</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2368,14 +2270,12 @@
         <v>-83725.78300000001</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
         <v>160</v>
       </c>
-      <c r="J51" t="n">
-        <v>161</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2412,9 +2312,7 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>161</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2451,9 +2349,7 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>161</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2490,9 +2386,7 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>161</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2529,9 +2423,7 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>161</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2568,9 +2460,7 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>161</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2607,9 +2497,7 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>161</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2646,9 +2534,7 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>161</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2685,9 +2571,7 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>161</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2724,9 +2608,7 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>161</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2763,9 +2645,7 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>161</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2802,9 +2682,7 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>161</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2841,9 +2719,7 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>161</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2880,9 +2756,7 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>161</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2916,14 +2790,10 @@
         <v>-89712.656</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
-      </c>
-      <c r="I65" t="n">
-        <v>162</v>
-      </c>
-      <c r="J65" t="n">
-        <v>161</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2960,9 +2830,7 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>161</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2999,9 +2867,7 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>161</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3038,9 +2904,7 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>161</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3077,9 +2941,7 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>161</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3116,9 +2978,7 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>161</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3155,9 +3015,7 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>161</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3194,9 +3052,7 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>161</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3233,9 +3089,7 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>161</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3272,9 +3126,7 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>161</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3311,9 +3163,7 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>161</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3350,9 +3200,7 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>161</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3389,9 +3237,7 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>161</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3425,12 +3271,12 @@
         <v>-86795.63700000002</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>161</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>163</v>
+      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3464,12 +3310,12 @@
         <v>-72423.00960000002</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>161</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>162</v>
+      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3503,12 +3349,12 @@
         <v>-72423.00960000002</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>161</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I80" t="n">
+        <v>164</v>
+      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3545,9 +3391,7 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>161</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3581,12 +3425,12 @@
         <v>-75852.41870000002</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>161</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>160</v>
+      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3623,9 +3467,7 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>161</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3662,9 +3504,7 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>161</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3701,9 +3541,7 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>161</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3740,9 +3578,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>161</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3779,9 +3615,7 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>161</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3818,9 +3652,7 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>161</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3857,9 +3689,7 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>161</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3896,9 +3726,7 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>161</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3935,9 +3763,7 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>161</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3974,9 +3800,7 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>161</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4013,9 +3837,7 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>161</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4052,9 +3874,7 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>161</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4091,9 +3911,7 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>161</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4130,9 +3948,7 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>161</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4169,9 +3985,7 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>161</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4205,12 +4019,12 @@
         <v>-57186.29620000003</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>161</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>162</v>
+      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4244,12 +4058,12 @@
         <v>-57186.29620000003</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
         <v>161</v>
       </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4283,12 +4097,12 @@
         <v>-57186.29620000003</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
         <v>161</v>
       </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4322,12 +4136,12 @@
         <v>-56871.40100000003</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
         <v>161</v>
       </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4364,9 +4178,7 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>161</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4403,9 +4215,7 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>161</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4442,9 +4252,7 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>161</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4481,9 +4289,7 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>161</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4520,9 +4326,7 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>161</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4559,9 +4363,7 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>161</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4598,9 +4400,7 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>161</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4637,9 +4437,7 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>161</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4676,9 +4474,7 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>161</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4715,9 +4511,7 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>161</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4754,9 +4548,7 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>161</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4793,9 +4585,7 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>161</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4832,9 +4622,7 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>161</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4871,9 +4659,7 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>161</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4910,9 +4696,7 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>161</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4949,9 +4733,7 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>161</v>
-      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4988,9 +4770,7 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>161</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5027,9 +4807,7 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>161</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5066,9 +4844,7 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>161</v>
-      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5105,9 +4881,7 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>161</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5144,9 +4918,7 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>161</v>
-      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5183,9 +4955,7 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>161</v>
-      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5222,9 +4992,7 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>161</v>
-      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5261,9 +5029,7 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>161</v>
-      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5300,9 +5066,7 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>161</v>
-      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5339,9 +5103,7 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>161</v>
-      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5375,19 +5137,17 @@
         <v>1309054.8068</v>
       </c>
       <c r="H128" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>161</v>
-      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L128" t="n">
-        <v>1.013633540372671</v>
+        <v>1</v>
       </c>
       <c r="M128" t="inlineStr"/>
     </row>
@@ -5414,11 +5174,15 @@
         <v>1309054.8068</v>
       </c>
       <c r="H129" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5451,7 +5215,11 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5484,7 +5252,11 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5517,7 +5289,11 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5550,7 +5326,11 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5583,7 +5363,11 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5612,11 +5396,15 @@
         <v>1311756.8741</v>
       </c>
       <c r="H135" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5645,14 +5433,16 @@
         <v>1339240.9266</v>
       </c>
       <c r="H136" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L136" t="inlineStr"/>
       <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
@@ -5678,7 +5468,7 @@
         <v>1324352.0408</v>
       </c>
       <c r="H137" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5711,7 +5501,7 @@
         <v>1323478.8712</v>
       </c>
       <c r="H138" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5744,7 +5534,7 @@
         <v>1323899.1027</v>
       </c>
       <c r="H139" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5777,7 +5567,7 @@
         <v>1322769.2516</v>
       </c>
       <c r="H140" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5810,7 +5600,7 @@
         <v>1325447.7679</v>
       </c>
       <c r="H141" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5843,7 +5633,7 @@
         <v>1324787.5271</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5876,7 +5666,7 @@
         <v>1325075.3796</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5909,7 +5699,7 @@
         <v>1325367.3675</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5942,7 +5732,7 @@
         <v>1324784.3182</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5975,7 +5765,7 @@
         <v>1324784.3182</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -6041,7 +5831,7 @@
         <v>1325034.3182</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -6074,7 +5864,7 @@
         <v>1323273.1996</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -6107,7 +5897,7 @@
         <v>1322353.1996</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -6140,7 +5930,7 @@
         <v>1323052.068</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -6173,7 +5963,7 @@
         <v>1323052.068</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -6206,7 +5996,7 @@
         <v>1327662.7014</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -6239,7 +6029,7 @@
         <v>1327656.746</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -6272,7 +6062,7 @@
         <v>1312880.476</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -6305,7 +6095,7 @@
         <v>1312880.476</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -6338,7 +6128,7 @@
         <v>1312880.476</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -6371,7 +6161,7 @@
         <v>1312880.476</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -6404,7 +6194,7 @@
         <v>1312880.476</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -6437,7 +6227,7 @@
         <v>1312880.476</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -6470,7 +6260,7 @@
         <v>1312880.476</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -6503,7 +6293,7 @@
         <v>1312880.476</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -6536,7 +6326,7 @@
         <v>1441272.2048</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6668,7 +6458,7 @@
         <v>1440252.8579</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6701,7 +6491,7 @@
         <v>1440252.8579</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6734,7 +6524,7 @@
         <v>1440252.8579</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6767,7 +6557,7 @@
         <v>1440252.8579</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6800,7 +6590,7 @@
         <v>1439645.7726</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6833,7 +6623,7 @@
         <v>1440645.7726</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6866,7 +6656,7 @@
         <v>1440645.7726</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6899,7 +6689,7 @@
         <v>1440645.7726</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6932,7 +6722,7 @@
         <v>1440645.7726</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6965,7 +6755,7 @@
         <v>1440645.7726</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6998,7 +6788,7 @@
         <v>1446859.2972</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -7130,7 +6920,7 @@
         <v>1445890.0358</v>
       </c>
       <c r="H181" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -7163,7 +6953,7 @@
         <v>1446028.5315</v>
       </c>
       <c r="H182" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -7196,7 +6986,7 @@
         <v>1446028.5315</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -7229,7 +7019,7 @@
         <v>1446528.5315</v>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -7262,7 +7052,7 @@
         <v>1446528.5315</v>
       </c>
       <c r="H185" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -7339,6 +7129,6 @@
       <c r="M187" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-02 BackTest ITC.xlsx
+++ b/BackTest/2019-11-02 BackTest ITC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -583,7 +583,7 @@
         <v>-2230.9352</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-2230.9352</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-2230.9352</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-2230.9352</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-4107.7936</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,14 +748,10 @@
         <v>-4009.0116</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>159</v>
-      </c>
-      <c r="J11" t="n">
-        <v>159</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
@@ -785,19 +781,11 @@
         <v>-4009.0116</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>160</v>
-      </c>
-      <c r="J12" t="n">
-        <v>159</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -829,14 +817,8 @@
         <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="n">
-        <v>159</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -931,17 +913,11 @@
         <v>-4218.0331</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>159</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -974,11 +950,7 @@
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1011,11 +983,7 @@
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1048,11 +1016,7 @@
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1085,11 +1049,7 @@
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1122,11 +1082,7 @@
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1159,11 +1115,7 @@
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1196,11 +1148,7 @@
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1229,17 +1177,11 @@
         <v>-4851.008299999999</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>158</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1268,17 +1210,11 @@
         <v>-98095.6406</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>157</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1307,17 +1243,11 @@
         <v>-97217.5506</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>153</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1351,12 +1281,10 @@
       <c r="I27" t="n">
         <v>157</v>
       </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J27" t="n">
+        <v>157</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1385,15 +1313,15 @@
         <v>-97086.06360000001</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>158</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>157</v>
+      </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L28" t="n">
@@ -1424,15 +1352,15 @@
         <v>-97086.06360000001</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>158</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>157</v>
+      </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L29" t="n">
@@ -1463,17 +1391,11 @@
         <v>-97086.06360000001</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>158</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1502,17 +1424,11 @@
         <v>-97086.06360000001</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>158</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1541,17 +1457,11 @@
         <v>-97086.06360000001</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>158</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1580,17 +1490,11 @@
         <v>-97086.06360000001</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>158</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1619,17 +1523,11 @@
         <v>-96426.107</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>158</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1658,17 +1556,11 @@
         <v>-96426.107</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>159</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1697,17 +1589,11 @@
         <v>-96426.107</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>159</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1736,17 +1622,11 @@
         <v>-96426.107</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>159</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1779,11 +1659,7 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1812,17 +1688,11 @@
         <v>-84487.67450000001</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>161</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1851,17 +1721,11 @@
         <v>-78830.87480000001</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>159</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1890,15 +1754,11 @@
         <v>-81668.54890000001</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1927,17 +1787,11 @@
         <v>-81292.58610000001</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>159</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1966,15 +1820,11 @@
         <v>-81581.96710000001</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2003,15 +1853,11 @@
         <v>-81581.96710000001</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2040,15 +1886,11 @@
         <v>-81581.96710000001</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2077,15 +1919,11 @@
         <v>-84781.96710000001</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2114,17 +1952,11 @@
         <v>-84673.95030000001</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>158</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2153,17 +1985,11 @@
         <v>-84673.95030000001</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>159</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2192,17 +2018,11 @@
         <v>-84673.95030000001</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>159</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2231,17 +2051,11 @@
         <v>-84475.78300000001</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>159</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2270,17 +2084,11 @@
         <v>-83725.78300000001</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>160</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2313,11 +2121,7 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2350,11 +2154,7 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2387,11 +2187,7 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2424,11 +2220,7 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2461,11 +2253,7 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2494,15 +2282,11 @@
         <v>-91092.08300000001</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2535,11 +2319,7 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2572,11 +2352,7 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2609,11 +2385,7 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2646,11 +2418,7 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2683,11 +2451,7 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2720,11 +2484,7 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2757,11 +2517,7 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2794,11 +2550,7 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2831,11 +2583,7 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2868,11 +2616,7 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2905,11 +2649,7 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2942,11 +2682,7 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2979,11 +2715,7 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3016,11 +2748,7 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3053,11 +2781,7 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3090,11 +2814,7 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3127,11 +2847,7 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3164,11 +2880,7 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3201,11 +2913,7 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3238,11 +2946,7 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3271,17 +2975,11 @@
         <v>-86795.63700000002</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>163</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3310,17 +3008,11 @@
         <v>-72423.00960000002</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>162</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3349,17 +3041,11 @@
         <v>-72423.00960000002</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>164</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3392,11 +3078,7 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3425,17 +3107,11 @@
         <v>-75852.41870000002</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>160</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3468,11 +3144,7 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3505,11 +3177,7 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3542,11 +3210,7 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3579,11 +3243,7 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3616,11 +3276,7 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3653,11 +3309,7 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3690,11 +3342,7 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3727,11 +3375,7 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3764,11 +3408,7 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3801,11 +3441,7 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3838,11 +3474,7 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3875,11 +3507,7 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3912,11 +3540,7 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3949,11 +3573,7 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3986,11 +3606,7 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4019,17 +3635,11 @@
         <v>-57186.29620000003</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>162</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4058,17 +3668,11 @@
         <v>-57186.29620000003</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>161</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4097,17 +3701,11 @@
         <v>-57186.29620000003</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>161</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4136,17 +3734,11 @@
         <v>-56871.40100000003</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>161</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4179,11 +3771,7 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4216,11 +3804,7 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4253,11 +3837,7 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4290,11 +3870,7 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4327,11 +3903,7 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4364,11 +3936,7 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4401,11 +3969,7 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4438,11 +4002,7 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4475,11 +4035,7 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4512,11 +4068,7 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4549,11 +4101,7 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4586,11 +4134,7 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4623,11 +4167,7 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4660,11 +4200,7 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4697,11 +4233,7 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4734,11 +4266,7 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4771,11 +4299,7 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4808,11 +4332,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4845,11 +4365,7 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4882,11 +4398,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4919,11 +4431,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4956,11 +4464,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4993,11 +4497,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5030,11 +4530,7 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5067,11 +4563,7 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5104,11 +4596,7 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5141,11 +4629,7 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5178,11 +4662,7 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5215,11 +4695,7 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5252,11 +4728,7 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5289,11 +4761,7 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5326,11 +4794,7 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5363,11 +4827,7 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5400,11 +4860,7 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5433,16 +4889,14 @@
         <v>1339240.9266</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
       <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
@@ -5468,7 +4922,7 @@
         <v>1324352.0408</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5501,7 +4955,7 @@
         <v>1323478.8712</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5534,7 +4988,7 @@
         <v>1323899.1027</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5567,7 +5021,7 @@
         <v>1322769.2516</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5600,7 +5054,7 @@
         <v>1325447.7679</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5633,7 +5087,7 @@
         <v>1324787.5271</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5666,7 +5120,7 @@
         <v>1325075.3796</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5699,7 +5153,7 @@
         <v>1325367.3675</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5732,7 +5186,7 @@
         <v>1324784.3182</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5765,7 +5219,7 @@
         <v>1324784.3182</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5831,7 +5285,7 @@
         <v>1325034.3182</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5864,7 +5318,7 @@
         <v>1323273.1996</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5897,7 +5351,7 @@
         <v>1322353.1996</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5930,7 +5384,7 @@
         <v>1323052.068</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5963,7 +5417,7 @@
         <v>1323052.068</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5996,7 +5450,7 @@
         <v>1327662.7014</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -6029,7 +5483,7 @@
         <v>1327656.746</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -6062,7 +5516,7 @@
         <v>1312880.476</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -6095,7 +5549,7 @@
         <v>1312880.476</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -6128,7 +5582,7 @@
         <v>1312880.476</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -6161,7 +5615,7 @@
         <v>1312880.476</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -6194,7 +5648,7 @@
         <v>1312880.476</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -6227,7 +5681,7 @@
         <v>1312880.476</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -6260,7 +5714,7 @@
         <v>1312880.476</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -6293,7 +5747,7 @@
         <v>1312880.476</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -6326,7 +5780,7 @@
         <v>1441272.2048</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6458,7 +5912,7 @@
         <v>1440252.8579</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6491,7 +5945,7 @@
         <v>1440252.8579</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6524,7 +5978,7 @@
         <v>1440252.8579</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6557,7 +6011,7 @@
         <v>1440252.8579</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6590,7 +6044,7 @@
         <v>1439645.7726</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6623,7 +6077,7 @@
         <v>1440645.7726</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6656,7 +6110,7 @@
         <v>1440645.7726</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6689,7 +6143,7 @@
         <v>1440645.7726</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -7129,6 +6583,6 @@
       <c r="M187" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-02 BackTest ITC.xlsx
+++ b/BackTest/2019-11-02 BackTest ITC.xlsx
@@ -451,7 +451,7 @@
         <v>7773.511899999998</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-2230.9352</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-2230.9352</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-2230.9352</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-2230.9352</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-4107.7936</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,10 +748,14 @@
         <v>-4009.0116</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>159</v>
+      </c>
+      <c r="J11" t="n">
+        <v>159</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
@@ -784,8 +788,14 @@
         <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>159</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -817,8 +827,14 @@
         <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>159</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -913,11 +929,17 @@
         <v>-4218.0331</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>159</v>
+      </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -950,7 +972,11 @@
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -983,7 +1009,11 @@
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1016,7 +1046,11 @@
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1049,7 +1083,11 @@
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1082,7 +1120,11 @@
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1115,7 +1157,11 @@
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1148,7 +1194,11 @@
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1181,7 +1231,11 @@
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1210,11 +1264,17 @@
         <v>-98095.6406</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>157</v>
+      </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1243,11 +1303,17 @@
         <v>-97217.5506</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>153</v>
+      </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1281,10 +1347,12 @@
       <c r="I27" t="n">
         <v>157</v>
       </c>
-      <c r="J27" t="n">
-        <v>157</v>
-      </c>
-      <c r="K27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1313,15 +1381,15 @@
         <v>-97086.06360000001</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>157</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>158</v>
+      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L28" t="n">
@@ -1352,15 +1420,15 @@
         <v>-97086.06360000001</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>157</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>158</v>
+      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L29" t="n">
@@ -1391,11 +1459,17 @@
         <v>-97086.06360000001</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>158</v>
+      </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1424,11 +1498,17 @@
         <v>-97086.06360000001</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>158</v>
+      </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1457,11 +1537,17 @@
         <v>-97086.06360000001</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>158</v>
+      </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1490,11 +1576,17 @@
         <v>-97086.06360000001</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>158</v>
+      </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1523,11 +1615,17 @@
         <v>-96426.107</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>158</v>
+      </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1556,11 +1654,17 @@
         <v>-96426.107</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>159</v>
+      </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1589,11 +1693,15 @@
         <v>-96426.107</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1622,11 +1730,17 @@
         <v>-96426.107</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>159</v>
+      </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1655,11 +1769,17 @@
         <v>-84337.67450000001</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>159</v>
+      </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1692,7 +1812,11 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1721,11 +1845,17 @@
         <v>-78830.87480000001</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>159</v>
+      </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1754,11 +1884,17 @@
         <v>-81668.54890000001</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>160</v>
+      </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1787,11 +1923,17 @@
         <v>-81292.58610000001</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>159</v>
+      </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1820,11 +1962,15 @@
         <v>-81581.96710000001</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1853,11 +1999,15 @@
         <v>-81581.96710000001</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1886,11 +2036,17 @@
         <v>-81581.96710000001</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>159</v>
+      </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1919,11 +2075,15 @@
         <v>-84781.96710000001</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1952,11 +2112,17 @@
         <v>-84673.95030000001</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>158</v>
+      </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1985,11 +2151,17 @@
         <v>-84673.95030000001</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>159</v>
+      </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2018,11 +2190,17 @@
         <v>-84673.95030000001</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>159</v>
+      </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2051,11 +2229,17 @@
         <v>-84475.78300000001</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>159</v>
+      </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2088,7 +2272,11 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2121,7 +2309,11 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2154,7 +2346,11 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2187,7 +2383,11 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2220,7 +2420,11 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2253,7 +2457,11 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2282,11 +2490,15 @@
         <v>-91092.08300000001</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2319,7 +2531,11 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2352,7 +2568,11 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2385,7 +2605,11 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2418,7 +2642,11 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2451,7 +2679,11 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2484,7 +2716,11 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2517,7 +2753,11 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2550,7 +2790,11 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2583,7 +2827,11 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2616,7 +2864,11 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2649,7 +2901,11 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2682,7 +2938,11 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2715,7 +2975,11 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2748,7 +3012,11 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2781,7 +3049,11 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2814,7 +3086,11 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2847,7 +3123,11 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2880,7 +3160,11 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2913,7 +3197,11 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2946,7 +3234,11 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2979,7 +3271,11 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3012,7 +3308,11 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3045,7 +3345,11 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3078,7 +3382,11 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3111,7 +3419,11 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3144,7 +3456,11 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3177,7 +3493,11 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3210,7 +3530,11 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3243,7 +3567,11 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3276,7 +3604,11 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3309,7 +3641,11 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3342,7 +3678,11 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3375,7 +3715,11 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3408,7 +3752,11 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3441,7 +3789,11 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3474,7 +3826,11 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3507,7 +3863,11 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3540,7 +3900,11 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3573,7 +3937,11 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3606,7 +3974,11 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3639,7 +4011,11 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3672,7 +4048,11 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3705,7 +4085,11 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3738,7 +4122,11 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3771,7 +4159,11 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3804,7 +4196,11 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3837,7 +4233,11 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3870,7 +4270,11 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3903,7 +4307,11 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3936,7 +4344,11 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3969,7 +4381,11 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4002,7 +4418,11 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4035,7 +4455,11 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4068,7 +4492,11 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4101,7 +4529,11 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4134,7 +4566,11 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4167,7 +4603,11 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4200,7 +4640,11 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4233,7 +4677,11 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4266,7 +4714,11 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4299,7 +4751,11 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4332,7 +4788,11 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4365,7 +4825,11 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4398,7 +4862,11 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4431,7 +4899,11 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4464,7 +4936,11 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4497,7 +4973,11 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4530,7 +5010,11 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4563,7 +5047,11 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4596,7 +5084,11 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4629,7 +5121,11 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4662,7 +5158,11 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4695,7 +5195,11 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4728,7 +5232,11 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4761,7 +5269,11 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4794,7 +5306,11 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4823,14 +5339,16 @@
         <v>1312339.9233</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L134" t="inlineStr"/>
       <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
@@ -4856,7 +5374,7 @@
         <v>1311756.8741</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4889,7 +5407,7 @@
         <v>1339240.9266</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4922,7 +5440,7 @@
         <v>1324352.0408</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4955,7 +5473,7 @@
         <v>1323478.8712</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4988,7 +5506,7 @@
         <v>1323899.1027</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5021,7 +5539,7 @@
         <v>1322769.2516</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5054,7 +5572,7 @@
         <v>1325447.7679</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5087,7 +5605,7 @@
         <v>1324787.5271</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5120,7 +5638,7 @@
         <v>1325075.3796</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5153,7 +5671,7 @@
         <v>1325367.3675</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5186,7 +5704,7 @@
         <v>1324784.3182</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5219,7 +5737,7 @@
         <v>1324784.3182</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>

--- a/BackTest/2019-11-02 BackTest ITC.xlsx
+++ b/BackTest/2019-11-02 BackTest ITC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M187"/>
+  <dimension ref="A1:L187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>1819.0182</v>
       </c>
       <c r="G2" t="n">
-        <v>7773.511899999998</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>21593.3486</v>
       </c>
       <c r="G3" t="n">
-        <v>29366.8605</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>776.4131</v>
       </c>
       <c r="G4" t="n">
-        <v>30143.2736</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>32374.2088</v>
       </c>
       <c r="G5" t="n">
-        <v>-2230.9352</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>310</v>
       </c>
       <c r="G6" t="n">
-        <v>-2230.9352</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>150</v>
       </c>
       <c r="G7" t="n">
-        <v>-2230.9352</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>750</v>
       </c>
       <c r="G8" t="n">
-        <v>-2230.9352</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>312.7171</v>
       </c>
       <c r="G9" t="n">
-        <v>-2230.9352</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>1876.8584</v>
       </c>
       <c r="G10" t="n">
-        <v>-4107.7936</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,22 +713,15 @@
         <v>98.782</v>
       </c>
       <c r="G11" t="n">
-        <v>-4009.0116</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>159</v>
-      </c>
-      <c r="J11" t="n">
-        <v>159</v>
-      </c>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -782,24 +743,15 @@
         <v>334.5797</v>
       </c>
       <c r="G12" t="n">
-        <v>-4009.0116</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="n">
-        <v>159</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -821,24 +773,15 @@
         <v>62.5</v>
       </c>
       <c r="G13" t="n">
-        <v>-3946.5116</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="n">
-        <v>159</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -860,18 +803,15 @@
         <v>2640.9633</v>
       </c>
       <c r="G14" t="n">
-        <v>-6587.474899999999</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -893,18 +833,15 @@
         <v>1814.5506</v>
       </c>
       <c r="G15" t="n">
-        <v>-8402.0255</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -926,24 +863,15 @@
         <v>4183.9924</v>
       </c>
       <c r="G16" t="n">
-        <v>-4218.0331</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>159</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -965,22 +893,15 @@
         <v>500</v>
       </c>
       <c r="G17" t="n">
-        <v>-4218.0331</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1002,22 +923,15 @@
         <v>6640</v>
       </c>
       <c r="G18" t="n">
-        <v>-4218.0331</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1039,22 +953,15 @@
         <v>20022.1853</v>
       </c>
       <c r="G19" t="n">
-        <v>-4218.0331</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1076,22 +983,15 @@
         <v>62.1118</v>
       </c>
       <c r="G20" t="n">
-        <v>-4218.0331</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1113,22 +1013,15 @@
         <v>12174.8652</v>
       </c>
       <c r="G21" t="n">
-        <v>-4218.0331</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1150,22 +1043,15 @@
         <v>104.3946</v>
       </c>
       <c r="G22" t="n">
-        <v>-4322.427699999999</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1187,22 +1073,15 @@
         <v>264.2903</v>
       </c>
       <c r="G23" t="n">
-        <v>-4586.717999999999</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1224,22 +1103,19 @@
         <v>264.2903</v>
       </c>
       <c r="G24" t="n">
-        <v>-4851.008299999999</v>
+        <v>1</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
+        <v>158</v>
+      </c>
+      <c r="I24" t="n">
+        <v>158</v>
+      </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1261,24 +1137,23 @@
         <v>93244.6323</v>
       </c>
       <c r="G25" t="n">
-        <v>-98095.6406</v>
+        <v>1</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>157</v>
       </c>
       <c r="I25" t="n">
-        <v>157</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+        <v>158</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1300,24 +1175,23 @@
         <v>878.09</v>
       </c>
       <c r="G26" t="n">
-        <v>-97217.5506</v>
+        <v>1</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>153</v>
       </c>
       <c r="I26" t="n">
-        <v>153</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+        <v>158</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1339,24 +1213,23 @@
         <v>131.487</v>
       </c>
       <c r="G27" t="n">
-        <v>-97086.06360000001</v>
+        <v>1</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>157</v>
       </c>
       <c r="I27" t="n">
-        <v>157</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+        <v>158</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1378,24 +1251,23 @@
         <v>2256.9231</v>
       </c>
       <c r="G28" t="n">
-        <v>-97086.06360000001</v>
+        <v>1</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>158</v>
       </c>
       <c r="I28" t="n">
         <v>158</v>
       </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1417,24 +1289,21 @@
         <v>269.987</v>
       </c>
       <c r="G29" t="n">
-        <v>-97086.06360000001</v>
-      </c>
-      <c r="H29" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="n">
         <v>158</v>
       </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1456,24 +1325,21 @@
         <v>485.7265</v>
       </c>
       <c r="G30" t="n">
-        <v>-97086.06360000001</v>
-      </c>
-      <c r="H30" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="n">
         <v>158</v>
       </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1495,24 +1361,21 @@
         <v>139.3043</v>
       </c>
       <c r="G31" t="n">
-        <v>-97086.06360000001</v>
-      </c>
-      <c r="H31" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="n">
         <v>158</v>
       </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1534,24 +1397,23 @@
         <v>170.5</v>
       </c>
       <c r="G32" t="n">
-        <v>-97086.06360000001</v>
+        <v>1</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>158</v>
       </c>
       <c r="I32" t="n">
         <v>158</v>
       </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1573,24 +1435,23 @@
         <v>4363.58</v>
       </c>
       <c r="G33" t="n">
-        <v>-97086.06360000001</v>
+        <v>1</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>158</v>
       </c>
       <c r="I33" t="n">
         <v>158</v>
       </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1612,24 +1473,23 @@
         <v>659.9566</v>
       </c>
       <c r="G34" t="n">
-        <v>-96426.107</v>
+        <v>1</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>158</v>
       </c>
       <c r="I34" t="n">
         <v>158</v>
       </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1651,24 +1511,23 @@
         <v>750</v>
       </c>
       <c r="G35" t="n">
-        <v>-96426.107</v>
+        <v>1</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>159</v>
       </c>
       <c r="I35" t="n">
-        <v>159</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+        <v>158</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1690,22 +1549,23 @@
         <v>139.1304</v>
       </c>
       <c r="G36" t="n">
-        <v>-96426.107</v>
+        <v>1</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+        <v>159</v>
+      </c>
+      <c r="I36" t="n">
+        <v>158</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1727,24 +1587,23 @@
         <v>1292</v>
       </c>
       <c r="G37" t="n">
-        <v>-96426.107</v>
+        <v>1</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>159</v>
       </c>
       <c r="I37" t="n">
-        <v>159</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+        <v>158</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1766,24 +1625,23 @@
         <v>12088.4325</v>
       </c>
       <c r="G38" t="n">
-        <v>-84337.67450000001</v>
+        <v>1</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>159</v>
       </c>
       <c r="I38" t="n">
-        <v>159</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+        <v>158</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1805,22 +1663,23 @@
         <v>150</v>
       </c>
       <c r="G39" t="n">
-        <v>-84487.67450000001</v>
+        <v>1</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+        <v>161</v>
+      </c>
+      <c r="I39" t="n">
+        <v>158</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1842,24 +1701,21 @@
         <v>5656.7997</v>
       </c>
       <c r="G40" t="n">
-        <v>-78830.87480000001</v>
-      </c>
-      <c r="H40" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="n">
-        <v>159</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+        <v>158</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1881,24 +1737,21 @@
         <v>2837.6741</v>
       </c>
       <c r="G41" t="n">
-        <v>-81668.54890000001</v>
-      </c>
-      <c r="H41" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="n">
-        <v>160</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+        <v>158</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1920,24 +1773,21 @@
         <v>375.9628</v>
       </c>
       <c r="G42" t="n">
-        <v>-81292.58610000001</v>
-      </c>
-      <c r="H42" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="n">
-        <v>159</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+        <v>158</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1959,22 +1809,21 @@
         <v>289.381</v>
       </c>
       <c r="G43" t="n">
-        <v>-81581.96710000001</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="n">
+        <v>158</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1996,22 +1845,21 @@
         <v>4359.4952</v>
       </c>
       <c r="G44" t="n">
-        <v>-81581.96710000001</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="n">
+        <v>158</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2033,24 +1881,21 @@
         <v>668.3892</v>
       </c>
       <c r="G45" t="n">
-        <v>-81581.96710000001</v>
-      </c>
-      <c r="H45" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="n">
-        <v>159</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+        <v>158</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2072,22 +1917,21 @@
         <v>3200</v>
       </c>
       <c r="G46" t="n">
-        <v>-84781.96710000001</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="n">
+        <v>158</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2109,24 +1953,23 @@
         <v>108.0168</v>
       </c>
       <c r="G47" t="n">
-        <v>-84673.95030000001</v>
+        <v>1</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>158</v>
       </c>
       <c r="I47" t="n">
         <v>158</v>
       </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2148,24 +1991,21 @@
         <v>28402.461</v>
       </c>
       <c r="G48" t="n">
-        <v>-84673.95030000001</v>
-      </c>
-      <c r="H48" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="n">
-        <v>159</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+        <v>158</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2187,24 +2027,23 @@
         <v>1354.9763</v>
       </c>
       <c r="G49" t="n">
-        <v>-84673.95030000001</v>
+        <v>1</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>159</v>
       </c>
       <c r="I49" t="n">
-        <v>159</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+        <v>158</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2226,24 +2065,21 @@
         <v>198.1673</v>
       </c>
       <c r="G50" t="n">
-        <v>-84475.78300000001</v>
-      </c>
-      <c r="H50" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="n">
-        <v>159</v>
-      </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+        <v>158</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2265,22 +2101,21 @@
         <v>750</v>
       </c>
       <c r="G51" t="n">
-        <v>-83725.78300000001</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="n">
+        <v>158</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2302,22 +2137,21 @@
         <v>132.2</v>
       </c>
       <c r="G52" t="n">
-        <v>-83725.78300000001</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="n">
+        <v>158</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2339,22 +2173,21 @@
         <v>2394.9164</v>
       </c>
       <c r="G53" t="n">
-        <v>-83725.78300000001</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="n">
+        <v>158</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2376,22 +2209,21 @@
         <v>4338.5708</v>
       </c>
       <c r="G54" t="n">
-        <v>-79387.21220000001</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="n">
+        <v>158</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2413,22 +2245,21 @@
         <v>121.951</v>
       </c>
       <c r="G55" t="n">
-        <v>-79387.21220000001</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="n">
+        <v>158</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2450,22 +2281,21 @@
         <v>8056.8708</v>
       </c>
       <c r="G56" t="n">
-        <v>-87444.08300000001</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="n">
+        <v>158</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2487,22 +2317,21 @@
         <v>3648</v>
       </c>
       <c r="G57" t="n">
-        <v>-91092.08300000001</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="n">
+        <v>158</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2524,22 +2353,21 @@
         <v>7805.9234</v>
       </c>
       <c r="G58" t="n">
-        <v>-83286.15960000001</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="n">
+        <v>158</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2561,22 +2389,21 @@
         <v>1698.2609</v>
       </c>
       <c r="G59" t="n">
-        <v>-83286.15960000001</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="n">
+        <v>158</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2598,22 +2425,21 @@
         <v>4040</v>
       </c>
       <c r="G60" t="n">
-        <v>-83286.15960000001</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="n">
+        <v>158</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2635,22 +2461,21 @@
         <v>4776.0158</v>
       </c>
       <c r="G61" t="n">
-        <v>-88062.17540000001</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="n">
+        <v>158</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2672,22 +2497,21 @@
         <v>1000</v>
       </c>
       <c r="G62" t="n">
-        <v>-87062.17540000001</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="n">
+        <v>158</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2709,22 +2533,21 @@
         <v>2000</v>
       </c>
       <c r="G63" t="n">
-        <v>-89062.17540000001</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="n">
+        <v>158</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2746,22 +2569,21 @@
         <v>652.1177</v>
       </c>
       <c r="G64" t="n">
-        <v>-89714.29310000001</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="n">
+        <v>158</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2783,22 +2605,21 @@
         <v>1.6371</v>
       </c>
       <c r="G65" t="n">
-        <v>-89712.656</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="n">
+        <v>158</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2820,22 +2641,21 @@
         <v>295.615</v>
       </c>
       <c r="G66" t="n">
-        <v>-90008.27100000001</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="n">
+        <v>158</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2857,22 +2677,21 @@
         <v>1225.6269</v>
       </c>
       <c r="G67" t="n">
-        <v>-90008.27100000001</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="n">
+        <v>158</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2894,22 +2713,21 @@
         <v>4479.1325</v>
       </c>
       <c r="G68" t="n">
-        <v>-90008.27100000001</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="n">
+        <v>158</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2931,22 +2749,21 @@
         <v>1368.7348</v>
       </c>
       <c r="G69" t="n">
-        <v>-90008.27100000001</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="n">
+        <v>158</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2968,22 +2785,21 @@
         <v>183.7028</v>
       </c>
       <c r="G70" t="n">
-        <v>-90008.27100000001</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="n">
+        <v>158</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3005,22 +2821,21 @@
         <v>4753.2826</v>
       </c>
       <c r="G71" t="n">
-        <v>-85254.9884</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="n">
+        <v>158</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3042,22 +2857,21 @@
         <v>1020.2332</v>
       </c>
       <c r="G72" t="n">
-        <v>-85254.9884</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="n">
+        <v>158</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3079,22 +2893,21 @@
         <v>3342.5789</v>
       </c>
       <c r="G73" t="n">
-        <v>-81912.40950000001</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="n">
+        <v>158</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3116,22 +2929,21 @@
         <v>16459.1045</v>
       </c>
       <c r="G74" t="n">
-        <v>-81912.40950000001</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="n">
+        <v>158</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3153,22 +2965,21 @@
         <v>10667.9503</v>
       </c>
       <c r="G75" t="n">
-        <v>-81912.40950000001</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="n">
+        <v>158</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3190,22 +3001,21 @@
         <v>2173.4452</v>
       </c>
       <c r="G76" t="n">
-        <v>-84085.85470000001</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="n">
+        <v>158</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3227,22 +3037,21 @@
         <v>6252.6382</v>
       </c>
       <c r="G77" t="n">
-        <v>-84085.85470000001</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="n">
+        <v>158</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3264,22 +3073,21 @@
         <v>2709.7823</v>
       </c>
       <c r="G78" t="n">
-        <v>-86795.63700000002</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="n">
+        <v>158</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3301,22 +3109,21 @@
         <v>14372.6274</v>
       </c>
       <c r="G79" t="n">
-        <v>-72423.00960000002</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="n">
+        <v>158</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3338,22 +3145,21 @@
         <v>247.6951</v>
       </c>
       <c r="G80" t="n">
-        <v>-72423.00960000002</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="n">
+        <v>158</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3375,22 +3181,21 @@
         <v>5200.0003</v>
       </c>
       <c r="G81" t="n">
-        <v>-77623.00990000002</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="n">
+        <v>158</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3412,22 +3217,21 @@
         <v>1770.5912</v>
       </c>
       <c r="G82" t="n">
-        <v>-75852.41870000002</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="n">
+        <v>158</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3449,22 +3253,21 @@
         <v>2250</v>
       </c>
       <c r="G83" t="n">
-        <v>-75852.41870000002</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="n">
+        <v>158</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3486,22 +3289,21 @@
         <v>4771.3378</v>
       </c>
       <c r="G84" t="n">
-        <v>-75852.41870000002</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="n">
+        <v>158</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3523,22 +3325,21 @@
         <v>20.0723</v>
       </c>
       <c r="G85" t="n">
-        <v>-75852.41870000002</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="n">
+        <v>158</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3560,22 +3361,21 @@
         <v>1733.3255</v>
       </c>
       <c r="G86" t="n">
-        <v>-75852.41870000002</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="n">
+        <v>158</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3597,22 +3397,21 @@
         <v>99.5924</v>
       </c>
       <c r="G87" t="n">
-        <v>-75852.41870000002</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="n">
+        <v>158</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3634,22 +3433,21 @@
         <v>2045.4022</v>
       </c>
       <c r="G88" t="n">
-        <v>-75852.41870000002</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="n">
+        <v>158</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3671,22 +3469,21 @@
         <v>711.1214</v>
       </c>
       <c r="G89" t="n">
-        <v>-75852.41870000002</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="n">
+        <v>158</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3708,22 +3505,21 @@
         <v>924.4579</v>
       </c>
       <c r="G90" t="n">
-        <v>-75852.41870000002</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="n">
+        <v>158</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3745,22 +3541,21 @@
         <v>28116.585</v>
       </c>
       <c r="G91" t="n">
-        <v>-47735.83370000002</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="n">
+        <v>158</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3782,22 +3577,21 @@
         <v>255.1469</v>
       </c>
       <c r="G92" t="n">
-        <v>-47990.98060000002</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="n">
+        <v>158</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3819,22 +3613,21 @@
         <v>7560.3121</v>
       </c>
       <c r="G93" t="n">
-        <v>-47990.98060000002</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="n">
+        <v>158</v>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3856,22 +3649,21 @@
         <v>255</v>
       </c>
       <c r="G94" t="n">
-        <v>-48245.98060000002</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="n">
+        <v>158</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3893,22 +3685,21 @@
         <v>119.7348</v>
       </c>
       <c r="G95" t="n">
-        <v>-48126.24580000003</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="n">
+        <v>158</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3930,22 +3721,21 @@
         <v>12759.1272</v>
       </c>
       <c r="G96" t="n">
-        <v>-48126.24580000003</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="n">
+        <v>158</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3967,22 +3757,21 @@
         <v>251.2436</v>
       </c>
       <c r="G97" t="n">
-        <v>-48377.48940000003</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="n">
+        <v>158</v>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4004,22 +3793,21 @@
         <v>8808.8068</v>
       </c>
       <c r="G98" t="n">
-        <v>-57186.29620000003</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="n">
+        <v>158</v>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4041,22 +3829,21 @@
         <v>7123.1247</v>
       </c>
       <c r="G99" t="n">
-        <v>-57186.29620000003</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="n">
+        <v>158</v>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4078,22 +3865,21 @@
         <v>131.4609</v>
       </c>
       <c r="G100" t="n">
-        <v>-57186.29620000003</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="n">
+        <v>158</v>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4115,22 +3901,21 @@
         <v>314.8952</v>
       </c>
       <c r="G101" t="n">
-        <v>-56871.40100000003</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="n">
+        <v>158</v>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4152,22 +3937,21 @@
         <v>450</v>
       </c>
       <c r="G102" t="n">
-        <v>-57321.40100000003</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="n">
+        <v>158</v>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4189,22 +3973,21 @@
         <v>2041.9974</v>
       </c>
       <c r="G103" t="n">
-        <v>-57321.40100000003</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="n">
+        <v>158</v>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4226,22 +4009,21 @@
         <v>1</v>
       </c>
       <c r="G104" t="n">
-        <v>-57322.40100000003</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="n">
+        <v>158</v>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4263,22 +4045,21 @@
         <v>1840.865</v>
       </c>
       <c r="G105" t="n">
-        <v>-55481.53600000003</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="n">
+        <v>158</v>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4300,22 +4081,21 @@
         <v>6754.3619</v>
       </c>
       <c r="G106" t="n">
-        <v>-55481.53600000003</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="n">
+        <v>158</v>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4337,22 +4117,21 @@
         <v>480</v>
       </c>
       <c r="G107" t="n">
-        <v>-55001.53600000003</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="n">
+        <v>158</v>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4374,22 +4153,21 @@
         <v>234.8681</v>
       </c>
       <c r="G108" t="n">
-        <v>-55236.40410000003</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="n">
+        <v>158</v>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4411,22 +4189,21 @@
         <v>8326.9902</v>
       </c>
       <c r="G109" t="n">
-        <v>-55236.40410000003</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="n">
+        <v>158</v>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4448,22 +4225,21 @@
         <v>1339605.5805</v>
       </c>
       <c r="G110" t="n">
-        <v>1284369.1764</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="n">
+        <v>158</v>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4485,22 +4261,21 @@
         <v>619101.9840000001</v>
       </c>
       <c r="G111" t="n">
-        <v>1284369.1764</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="n">
+        <v>158</v>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4522,22 +4297,21 @@
         <v>21.3757</v>
       </c>
       <c r="G112" t="n">
-        <v>1284369.1764</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="n">
+        <v>158</v>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4559,22 +4333,21 @@
         <v>7452.3191</v>
       </c>
       <c r="G113" t="n">
-        <v>1276916.8573</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="n">
+        <v>158</v>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4596,22 +4369,21 @@
         <v>3192.6001</v>
       </c>
       <c r="G114" t="n">
-        <v>1276916.8573</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="n">
+        <v>158</v>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4633,22 +4405,21 @@
         <v>1213.6242</v>
       </c>
       <c r="G115" t="n">
-        <v>1278130.4815</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="n">
+        <v>158</v>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4670,22 +4441,21 @@
         <v>10</v>
       </c>
       <c r="G116" t="n">
-        <v>1278130.4815</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>158</v>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4707,22 +4477,21 @@
         <v>31178.4337</v>
       </c>
       <c r="G117" t="n">
-        <v>1309308.9152</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>158</v>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4744,22 +4513,21 @@
         <v>16305.9988</v>
       </c>
       <c r="G118" t="n">
-        <v>1309308.9152</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="n">
+        <v>158</v>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4781,22 +4549,21 @@
         <v>1125.0166</v>
       </c>
       <c r="G119" t="n">
-        <v>1309308.9152</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="n">
+        <v>158</v>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4818,22 +4585,21 @@
         <v>1324.8518</v>
       </c>
       <c r="G120" t="n">
-        <v>1309308.9152</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="n">
+        <v>158</v>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4855,22 +4621,21 @@
         <v>704.731</v>
       </c>
       <c r="G121" t="n">
-        <v>1309308.9152</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="n">
+        <v>158</v>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4892,22 +4657,21 @@
         <v>9636.054400000001</v>
       </c>
       <c r="G122" t="n">
-        <v>1309308.9152</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="n">
+        <v>158</v>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4929,22 +4693,21 @@
         <v>4663.5098</v>
       </c>
       <c r="G123" t="n">
-        <v>1309308.9152</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="n">
+        <v>158</v>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4966,22 +4729,21 @@
         <v>6480.0936</v>
       </c>
       <c r="G124" t="n">
-        <v>1309308.9152</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
+      <c r="I124" t="n">
+        <v>158</v>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5003,22 +4765,21 @@
         <v>693.4496</v>
       </c>
       <c r="G125" t="n">
-        <v>1309308.9152</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
+      <c r="I125" t="n">
+        <v>158</v>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5040,22 +4801,21 @@
         <v>826.9985</v>
       </c>
       <c r="G126" t="n">
-        <v>1309308.9152</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="n">
+        <v>158</v>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5077,22 +4837,21 @@
         <v>1570.2579</v>
       </c>
       <c r="G127" t="n">
-        <v>1309308.9152</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
+      <c r="I127" t="n">
+        <v>158</v>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5114,22 +4873,21 @@
         <v>254.1084</v>
       </c>
       <c r="G128" t="n">
-        <v>1309054.8068</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
+      <c r="I128" t="n">
+        <v>158</v>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="K128" t="n">
+        <v>1.032974683544304</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5151,22 +4909,15 @@
         <v>2030.8773</v>
       </c>
       <c r="G129" t="n">
-        <v>1309054.8068</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5188,22 +4939,15 @@
         <v>465.1165</v>
       </c>
       <c r="G130" t="n">
-        <v>1309519.9233</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5225,22 +4969,15 @@
         <v>16019.8749</v>
       </c>
       <c r="G131" t="n">
-        <v>1309519.9233</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5262,22 +4999,15 @@
         <v>2820</v>
       </c>
       <c r="G132" t="n">
-        <v>1312339.9233</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5299,22 +5029,15 @@
         <v>1700</v>
       </c>
       <c r="G133" t="n">
-        <v>1312339.9233</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5336,20 +5059,15 @@
         <v>7928.1262</v>
       </c>
       <c r="G134" t="n">
-        <v>1312339.9233</v>
-      </c>
-      <c r="H134" t="n">
         <v>2</v>
       </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+      <c r="K134" t="n">
+        <v>1</v>
       </c>
       <c r="L134" t="inlineStr"/>
-      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5371,18 +5089,15 @@
         <v>583.0492</v>
       </c>
       <c r="G135" t="n">
-        <v>1311756.8741</v>
-      </c>
-      <c r="H135" t="n">
         <v>2</v>
       </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5404,18 +5119,15 @@
         <v>27484.0525</v>
       </c>
       <c r="G136" t="n">
-        <v>1339240.9266</v>
-      </c>
-      <c r="H136" t="n">
         <v>2</v>
       </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5437,18 +5149,15 @@
         <v>14888.8858</v>
       </c>
       <c r="G137" t="n">
-        <v>1324352.0408</v>
-      </c>
-      <c r="H137" t="n">
         <v>2</v>
       </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5470,18 +5179,15 @@
         <v>873.1695999999999</v>
       </c>
       <c r="G138" t="n">
-        <v>1323478.8712</v>
-      </c>
-      <c r="H138" t="n">
         <v>2</v>
       </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5503,18 +5209,15 @@
         <v>420.2315</v>
       </c>
       <c r="G139" t="n">
-        <v>1323899.1027</v>
-      </c>
-      <c r="H139" t="n">
         <v>2</v>
       </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5536,18 +5239,15 @@
         <v>1129.8511</v>
       </c>
       <c r="G140" t="n">
-        <v>1322769.2516</v>
-      </c>
-      <c r="H140" t="n">
         <v>2</v>
       </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5569,18 +5269,15 @@
         <v>2678.5163</v>
       </c>
       <c r="G141" t="n">
-        <v>1325447.7679</v>
-      </c>
-      <c r="H141" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5602,18 +5299,15 @@
         <v>660.2408</v>
       </c>
       <c r="G142" t="n">
-        <v>1324787.5271</v>
-      </c>
-      <c r="H142" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5635,18 +5329,15 @@
         <v>287.8525</v>
       </c>
       <c r="G143" t="n">
-        <v>1325075.3796</v>
-      </c>
-      <c r="H143" t="n">
         <v>2</v>
       </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5668,18 +5359,15 @@
         <v>291.9879</v>
       </c>
       <c r="G144" t="n">
-        <v>1325367.3675</v>
-      </c>
-      <c r="H144" t="n">
         <v>2</v>
       </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5701,18 +5389,15 @@
         <v>583.0493</v>
       </c>
       <c r="G145" t="n">
-        <v>1324784.3182</v>
-      </c>
-      <c r="H145" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5734,18 +5419,15 @@
         <v>432.9491</v>
       </c>
       <c r="G146" t="n">
-        <v>1324784.3182</v>
-      </c>
-      <c r="H146" t="n">
         <v>2</v>
       </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5767,18 +5449,15 @@
         <v>250</v>
       </c>
       <c r="G147" t="n">
-        <v>1325034.3182</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5800,18 +5479,15 @@
         <v>32199.5362</v>
       </c>
       <c r="G148" t="n">
-        <v>1325034.3182</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5833,18 +5509,15 @@
         <v>1761.1186</v>
       </c>
       <c r="G149" t="n">
-        <v>1323273.1996</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5866,18 +5539,15 @@
         <v>920</v>
       </c>
       <c r="G150" t="n">
-        <v>1322353.1996</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5899,18 +5569,15 @@
         <v>698.8684</v>
       </c>
       <c r="G151" t="n">
-        <v>1323052.068</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5932,18 +5599,15 @@
         <v>305.8261</v>
       </c>
       <c r="G152" t="n">
-        <v>1323052.068</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5965,18 +5629,15 @@
         <v>4610.6334</v>
       </c>
       <c r="G153" t="n">
-        <v>1327662.7014</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5998,18 +5659,15 @@
         <v>5.9554</v>
       </c>
       <c r="G154" t="n">
-        <v>1327656.746</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6031,18 +5689,15 @@
         <v>14776.27</v>
       </c>
       <c r="G155" t="n">
-        <v>1312880.476</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6064,18 +5719,15 @@
         <v>180.0013</v>
       </c>
       <c r="G156" t="n">
-        <v>1312880.476</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6097,18 +5749,15 @@
         <v>5954.9679</v>
       </c>
       <c r="G157" t="n">
-        <v>1312880.476</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6130,18 +5779,15 @@
         <v>1528585.2982</v>
       </c>
       <c r="G158" t="n">
-        <v>1312880.476</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6163,18 +5809,15 @@
         <v>1546113.1473</v>
       </c>
       <c r="G159" t="n">
-        <v>1312880.476</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6196,18 +5839,15 @@
         <v>1551742.2289</v>
       </c>
       <c r="G160" t="n">
-        <v>1312880.476</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6229,18 +5869,15 @@
         <v>292709.5201</v>
       </c>
       <c r="G161" t="n">
-        <v>1312880.476</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6262,18 +5899,15 @@
         <v>524000</v>
       </c>
       <c r="G162" t="n">
-        <v>1312880.476</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6295,18 +5929,15 @@
         <v>128391.7288</v>
       </c>
       <c r="G163" t="n">
-        <v>1441272.2048</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6328,18 +5959,15 @@
         <v>1248.4456</v>
       </c>
       <c r="G164" t="n">
-        <v>1440023.7592</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6361,18 +5989,15 @@
         <v>29747.0827</v>
       </c>
       <c r="G165" t="n">
-        <v>1440023.7592</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6394,18 +6019,15 @@
         <v>20882.9186</v>
       </c>
       <c r="G166" t="n">
-        <v>1440023.7592</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6427,18 +6049,15 @@
         <v>229.0987</v>
       </c>
       <c r="G167" t="n">
-        <v>1440252.8579</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6460,18 +6079,15 @@
         <v>223.9913</v>
       </c>
       <c r="G168" t="n">
-        <v>1440252.8579</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6493,18 +6109,15 @@
         <v>165.6652</v>
       </c>
       <c r="G169" t="n">
-        <v>1440252.8579</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6526,18 +6139,15 @@
         <v>194.2857</v>
       </c>
       <c r="G170" t="n">
-        <v>1440252.8579</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6559,18 +6169,15 @@
         <v>607.0853</v>
       </c>
       <c r="G171" t="n">
-        <v>1439645.7726</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6592,18 +6199,15 @@
         <v>1000</v>
       </c>
       <c r="G172" t="n">
-        <v>1440645.7726</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6625,18 +6229,15 @@
         <v>1132.5696</v>
       </c>
       <c r="G173" t="n">
-        <v>1440645.7726</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6658,18 +6259,15 @@
         <v>500</v>
       </c>
       <c r="G174" t="n">
-        <v>1440645.7726</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6691,18 +6289,15 @@
         <v>156.8184</v>
       </c>
       <c r="G175" t="n">
-        <v>1440645.7726</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6724,18 +6319,15 @@
         <v>2250</v>
       </c>
       <c r="G176" t="n">
-        <v>1440645.7726</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6757,18 +6349,15 @@
         <v>6213.5246</v>
       </c>
       <c r="G177" t="n">
-        <v>1446859.2972</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6790,18 +6379,15 @@
         <v>298.9938</v>
       </c>
       <c r="G178" t="n">
-        <v>1446560.3034</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6823,18 +6409,15 @@
         <v>118.6522</v>
       </c>
       <c r="G179" t="n">
-        <v>1446560.3034</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6856,18 +6439,15 @@
         <v>1</v>
       </c>
       <c r="G180" t="n">
-        <v>1446561.3034</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6889,18 +6469,15 @@
         <v>671.2676</v>
       </c>
       <c r="G181" t="n">
-        <v>1445890.0358</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6922,18 +6499,15 @@
         <v>138.4957</v>
       </c>
       <c r="G182" t="n">
-        <v>1446028.5315</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6955,18 +6529,15 @@
         <v>920.8207</v>
       </c>
       <c r="G183" t="n">
-        <v>1446028.5315</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6988,18 +6559,15 @@
         <v>500</v>
       </c>
       <c r="G184" t="n">
-        <v>1446528.5315</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7021,18 +6589,15 @@
         <v>729</v>
       </c>
       <c r="G185" t="n">
-        <v>1446528.5315</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7054,18 +6619,15 @@
         <v>7420.4268</v>
       </c>
       <c r="G186" t="n">
-        <v>1446528.5315</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7087,18 +6649,15 @@
         <v>2109.7666</v>
       </c>
       <c r="G187" t="n">
-        <v>1446528.5315</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
